--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -680,16 +680,16 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -719,7 +719,7 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -853,7 +853,7 @@
         <v>151</v>
       </c>
       <c r="AI3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -1748,10 +1748,10 @@
         <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1778,22 +1778,22 @@
         <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1811,10 +1811,10 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -1870,7 +1870,7 @@
         <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
@@ -1879,19 +1879,19 @@
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1900,13 +1900,13 @@
         <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
         <v>5.5</v>
@@ -1924,16 +1924,16 @@
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
@@ -1946,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="n">
         <v>81</v>
@@ -2241,7 +2241,7 @@
         <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -2250,10 +2250,10 @@
         <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="O15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2726,16 +2726,16 @@
         <v>2.38</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
         <v>2.4</v>
@@ -2848,13 +2848,13 @@
         <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
         <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M20" t="n">
         <v>2.1</v>
@@ -2970,13 +2970,13 @@
         <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M21" t="n">
         <v>2.1</v>
@@ -2988,10 +2988,10 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>2.5</v>
@@ -3092,13 +3092,13 @@
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K22" t="n">
         <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
         <v>2.1</v>
@@ -3110,7 +3110,7 @@
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
         <v>2.05</v>
@@ -3205,19 +3205,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.17</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.73</v>
@@ -3232,7 +3232,7 @@
         <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
         <v>2.03</v>
@@ -3247,7 +3247,7 @@
         <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
@@ -3262,7 +3262,7 @@
         <v>51</v>
       </c>
       <c r="Z23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3280,13 +3280,13 @@
         <v>5</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -3336,10 +3336,10 @@
         <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>1.67</v>
@@ -3458,16 +3458,16 @@
         <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N25" t="n">
         <v>3.4</v>
@@ -3476,7 +3476,7 @@
         <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
         <v>2.05</v>
@@ -4190,10 +4190,10 @@
         <v>2.6</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -4425,13 +4425,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
         <v>1.07</v>
@@ -4467,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="U33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V33" t="n">
         <v>9</v>
@@ -4509,7 +4509,7 @@
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4568,16 +4568,16 @@
         <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R34" t="n">
         <v>2.05</v>
@@ -4589,7 +4589,7 @@
         <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
@@ -4678,13 +4678,13 @@
         <v>2.88</v>
       </c>
       <c r="J35" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K35" t="n">
         <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
         <v>2.5</v>
@@ -4791,22 +4791,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
         <v>7.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -4824,10 +4824,10 @@
         <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
         <v>6.5</v>
@@ -4842,7 +4842,7 @@
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
@@ -4922,13 +4922,13 @@
         <v>3.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
         <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
         <v>2.5</v>
@@ -5044,13 +5044,13 @@
         <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
         <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -5166,16 +5166,16 @@
         <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K39" t="n">
         <v>5.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N39" t="n">
         <v>2.7</v>
@@ -5297,7 +5297,7 @@
         <v>1.4</v>
       </c>
       <c r="M40" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N40" t="n">
         <v>2.18</v>
@@ -5339,7 +5339,7 @@
         <v>6.2</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB40" t="n">
         <v>18</v>
@@ -5355,16 +5355,16 @@
         <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>80</v>
       </c>
       <c r="AI40" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5554,7 +5554,7 @@
         <v>2.35</v>
       </c>
       <c r="R42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S42" t="n">
         <v>1.8</v>
@@ -5572,7 +5572,7 @@
         <v>21</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y42" t="n">
         <v>35</v>
@@ -5584,7 +5584,7 @@
         <v>5.8</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC42" t="n">
         <v>80</v>
@@ -5593,10 +5593,10 @@
         <v>800</v>
       </c>
       <c r="AE42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -5715,7 +5715,7 @@
         <v>101</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF43" t="n">
         <v>15.5</v>
@@ -5765,19 +5765,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.29</v>
@@ -5798,25 +5798,25 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T44" t="n">
         <v>6.5</v>
       </c>
       <c r="U44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
         <v>29</v>
@@ -5825,34 +5825,34 @@
         <v>9.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD44" t="n">
         <v>351</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI44" t="n">
         <v>51</v>
       </c>
-      <c r="AI44" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -6140,10 +6140,10 @@
         <v>2.63</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
         <v>1.29</v>
@@ -6152,10 +6152,10 @@
         <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O47" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6274,10 +6274,10 @@
         <v>3.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O48" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>3.4</v>
@@ -6750,22 +6750,22 @@
         <v>2.35</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K52" t="n">
         <v>12</v>
       </c>
       <c r="L52" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -6774,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T52" t="n">
         <v>11</v>
@@ -6825,10 +6825,10 @@
         <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -6872,22 +6872,22 @@
         <v>1.91</v>
       </c>
       <c r="J53" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K53" t="n">
         <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O53" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P53" t="n">
         <v>1.29</v>
@@ -6985,22 +6985,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J54" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
         <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M54" t="n">
         <v>4.5</v>
@@ -7018,10 +7018,10 @@
         <v>3.4</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T54" t="n">
         <v>21</v>
@@ -7063,7 +7063,7 @@
         <v>6.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH54" t="n">
         <v>8.5</v>
@@ -7116,13 +7116,13 @@
         <v>2.7</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K55" t="n">
         <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M55" t="n">
         <v>4.33</v>
@@ -7238,22 +7238,22 @@
         <v>6.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="n">
         <v>17</v>
       </c>
       <c r="L56" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O56" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P56" t="n">
         <v>1.29</v>
@@ -7350,36 +7350,92 @@
           <t>Qingdao Red Lions</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T57" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U57" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7412,36 +7468,92 @@
           <t>Shaanxi Union</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.05</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U58" t="n">
+        <v>9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>8</v>
+      </c>
+      <c r="W58" t="n">
+        <v>16</v>
+      </c>
+      <c r="X58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7474,36 +7586,92 @@
           <t>Liaoning Tieren</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.45</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V59" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W59" t="n">
+        <v>21</v>
+      </c>
+      <c r="X59" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7536,36 +7704,92 @@
           <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7599,19 +7823,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L61" t="n">
         <v>1.44</v>
@@ -7620,10 +7844,10 @@
         <v>2.63</v>
       </c>
       <c r="N61" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P61" t="n">
         <v>1.53</v>
@@ -7638,7 +7862,7 @@
         <v>1.62</v>
       </c>
       <c r="T61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U61" t="n">
         <v>23</v>
@@ -7656,7 +7880,7 @@
         <v>51</v>
       </c>
       <c r="Z61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
@@ -7742,10 +7966,10 @@
         <v>2.5</v>
       </c>
       <c r="N62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O62" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P62" t="n">
         <v>1.57</v>
@@ -7965,13 +8189,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>2.9</v>
       </c>
       <c r="I64" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J64" t="n">
         <v>1.13</v>
@@ -8004,16 +8228,16 @@
         <v>1.62</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V64" t="n">
         <v>12</v>
       </c>
       <c r="W64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X64" t="n">
         <v>29</v>
@@ -8323,21 +8547,21 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H67" t="n">
         <v>2.57</v>
       </c>
       <c r="I67" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M67" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N67" t="n">
         <v>2.32</v>
@@ -8358,10 +8582,10 @@
         <v>1.75</v>
       </c>
       <c r="T67" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U67" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V67" t="n">
         <v>9</v>
@@ -8370,7 +8594,7 @@
         <v>25</v>
       </c>
       <c r="X67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y67" t="n">
         <v>35</v>
@@ -8394,13 +8618,13 @@
         <v>8.75</v>
       </c>
       <c r="AF67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI67" t="n">
         <v>45</v>
@@ -9295,13 +9519,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H75" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="I75" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J75" t="n">
         <v>1.12</v>
@@ -9310,10 +9534,10 @@
         <v>5.3</v>
       </c>
       <c r="L75" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M75" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N75" t="n">
         <v>2.5</v>
@@ -9328,19 +9552,19 @@
         <v>2.32</v>
       </c>
       <c r="R75" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S75" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U75" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="V75" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W75" t="n">
         <v>55</v>
@@ -9355,34 +9579,34 @@
         <v>5.3</v>
       </c>
       <c r="AA75" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB75" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC75" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD75" t="n">
         <v>101</v>
       </c>
       <c r="AE75" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AF75" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG75" t="n">
         <v>9.25</v>
       </c>
       <c r="AH75" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
@@ -9417,10 +9641,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H76" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I76" t="n">
         <v>2.75</v>
@@ -9447,7 +9671,7 @@
         <v>1.55</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R76" t="n">
         <v>1.75</v>
@@ -9456,7 +9680,7 @@
         <v>1.98</v>
       </c>
       <c r="T76" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U76" t="n">
         <v>15.5</v>
@@ -9489,7 +9713,7 @@
         <v>500</v>
       </c>
       <c r="AE76" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF76" t="n">
         <v>14</v>
@@ -9674,16 +9898,16 @@
         <v>11</v>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M78" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O78" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P78" t="n">
         <v>1.4</v>
@@ -9722,7 +9946,7 @@
         <v>7.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC78" t="n">
         <v>51</v>
@@ -10147,13 +10371,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J82" t="n">
         <v>1.1</v>
@@ -10174,10 +10398,10 @@
         <v>1.53</v>
       </c>
       <c r="P82" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R82" t="n">
         <v>2.1</v>
@@ -10189,7 +10413,7 @@
         <v>6</v>
       </c>
       <c r="U82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V82" t="n">
         <v>10</v>
@@ -10207,7 +10431,7 @@
         <v>7</v>
       </c>
       <c r="AA82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB82" t="n">
         <v>19</v>
@@ -10412,10 +10636,10 @@
         <v>3.4</v>
       </c>
       <c r="N84" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P84" t="n">
         <v>1.4</v>
@@ -10549,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T85" t="n">
         <v>6</v>
@@ -10644,10 +10868,10 @@
         <v>4.75</v>
       </c>
       <c r="J86" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K86" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L86" t="n">
         <v>1.33</v>
@@ -10671,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="S86" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T86" t="n">
         <v>6.5</v>
@@ -10698,7 +10922,7 @@
         <v>7</v>
       </c>
       <c r="AB86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC86" t="n">
         <v>51</v>
@@ -10707,7 +10931,7 @@
         <v>401</v>
       </c>
       <c r="AE86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF86" t="n">
         <v>23</v>
@@ -10793,7 +11017,7 @@
         <v>2.25</v>
       </c>
       <c r="S87" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T87" t="n">
         <v>8</v>
@@ -10912,10 +11136,10 @@
         <v>2.38</v>
       </c>
       <c r="R88" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S88" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T88" t="n">
         <v>5</v>
@@ -11034,7 +11258,7 @@
         <v>3.25</v>
       </c>
       <c r="R89" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S89" t="n">
         <v>2.2</v>
@@ -11156,10 +11380,10 @@
         <v>2.63</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S90" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T90" t="n">
         <v>8</v>
@@ -11501,19 +11725,19 @@
         <v>1.04</v>
       </c>
       <c r="K93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L93" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M93" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O93" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P93" t="n">
         <v>1.36</v>
@@ -11522,10 +11746,10 @@
         <v>3</v>
       </c>
       <c r="R93" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T93" t="n">
         <v>11</v>
@@ -11552,7 +11776,7 @@
         <v>6.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC93" t="n">
         <v>41</v>
@@ -11564,7 +11788,7 @@
         <v>9</v>
       </c>
       <c r="AF93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG93" t="n">
         <v>9</v>
@@ -11977,13 +12201,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H97" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J97" t="n">
         <v>1.07</v>
@@ -11998,16 +12222,16 @@
         <v>3</v>
       </c>
       <c r="N97" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O97" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P97" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R97" t="n">
         <v>2</v>
@@ -12016,16 +12240,16 @@
         <v>1.73</v>
       </c>
       <c r="T97" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U97" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V97" t="n">
         <v>9</v>
       </c>
       <c r="W97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X97" t="n">
         <v>17</v>
@@ -12037,31 +12261,31 @@
         <v>8.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC97" t="n">
         <v>67</v>
       </c>
       <c r="AD97" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
       </c>
       <c r="AI97" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ97" t="n">
         <v>41</v>
@@ -12099,19 +12323,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J98" t="n">
         <v>1.07</v>
       </c>
       <c r="K98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L98" t="n">
         <v>1.36</v>
@@ -12186,7 +12410,7 @@
         <v>19</v>
       </c>
       <c r="AJ98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -12230,10 +12454,10 @@
         <v>2.7</v>
       </c>
       <c r="J99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
         <v>1.5</v>
@@ -12242,10 +12466,10 @@
         <v>2.5</v>
       </c>
       <c r="N99" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O99" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P99" t="n">
         <v>1.57</v>
@@ -12343,13 +12567,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>3.1</v>
       </c>
       <c r="I100" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J100" t="n">
         <v>1.08</v>
@@ -12415,7 +12639,7 @@
         <v>351</v>
       </c>
       <c r="AE100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF100" t="n">
         <v>11</v>
@@ -12424,10 +12648,10 @@
         <v>10</v>
       </c>
       <c r="AH100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ100" t="n">
         <v>34</v>
@@ -12465,19 +12689,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J101" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
         <v>1.29</v>
@@ -12486,10 +12710,10 @@
         <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O101" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P101" t="n">
         <v>1.4</v>
@@ -12504,43 +12728,43 @@
         <v>2</v>
       </c>
       <c r="T101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W101" t="n">
+        <v>19</v>
+      </c>
+      <c r="X101" t="n">
         <v>17</v>
-      </c>
-      <c r="X101" t="n">
-        <v>15</v>
       </c>
       <c r="Y101" t="n">
         <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD101" t="n">
         <v>201</v>
       </c>
       <c r="AE101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG101" t="n">
         <v>13</v>
@@ -13197,13 +13421,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="H107" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I107" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -13211,7 +13435,7 @@
         <v>1.17</v>
       </c>
       <c r="M107" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N107" t="n">
         <v>1.53</v>
@@ -13222,58 +13446,58 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S107" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T107" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="U107" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V107" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W107" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="X107" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y107" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z107" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB107" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD107" t="n">
         <v>250</v>
       </c>
       <c r="AE107" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF107" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AG107" t="n">
         <v>7</v>
       </c>
       <c r="AH107" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI107" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>9.25</v>
       </c>
       <c r="AJ107" t="n">
         <v>17.5</v>
@@ -13428,10 +13652,10 @@
         <v>1.72</v>
       </c>
       <c r="H109" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I109" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -13442,10 +13666,10 @@
         <v>3.85</v>
       </c>
       <c r="N109" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O109" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
@@ -13459,10 +13683,10 @@
         <v>6.8</v>
       </c>
       <c r="U109" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="V109" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W109" t="n">
         <v>11.75</v>
@@ -13474,10 +13698,10 @@
         <v>18</v>
       </c>
       <c r="Z109" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA109" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB109" t="n">
         <v>11.5</v>
@@ -13492,19 +13716,19 @@
         <v>11</v>
       </c>
       <c r="AF109" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG109" t="n">
         <v>11</v>
       </c>
       <c r="AH109" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI109" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ109" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -13539,13 +13763,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J110" t="n">
         <v>1.03</v>
@@ -13572,10 +13796,10 @@
         <v>3.75</v>
       </c>
       <c r="R110" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S110" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T110" t="n">
         <v>9</v>
@@ -13587,7 +13811,7 @@
         <v>9</v>
       </c>
       <c r="W110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X110" t="n">
         <v>11</v>
@@ -13599,31 +13823,31 @@
         <v>15</v>
       </c>
       <c r="AA110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC110" t="n">
         <v>51</v>
       </c>
       <c r="AD110" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE110" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF110" t="n">
         <v>51</v>
       </c>
       <c r="AG110" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH110" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI110" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
@@ -13670,10 +13894,10 @@
         <v>4.75</v>
       </c>
       <c r="J111" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K111" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L111" t="n">
         <v>1.25</v>
@@ -13682,10 +13906,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O111" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>1.36</v>
@@ -13798,16 +14022,16 @@
         <v>13</v>
       </c>
       <c r="L112" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M112" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N112" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O112" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P112" t="n">
         <v>1.33</v>
@@ -13905,13 +14129,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H113" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I113" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J113" t="n">
         <v>1.05</v>
@@ -13947,7 +14171,7 @@
         <v>7</v>
       </c>
       <c r="U113" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V113" t="n">
         <v>8.5</v>
@@ -13956,7 +14180,7 @@
         <v>11</v>
       </c>
       <c r="X113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y113" t="n">
         <v>26</v>
@@ -13974,13 +14198,13 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
         <v>17</v>
       </c>
       <c r="AF113" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG113" t="n">
         <v>19</v>
@@ -13992,7 +14216,7 @@
         <v>41</v>
       </c>
       <c r="AJ113" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -14060,10 +14284,10 @@
         <v>2.75</v>
       </c>
       <c r="R114" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S114" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T114" t="n">
         <v>10</v>
@@ -14075,7 +14299,7 @@
         <v>12</v>
       </c>
       <c r="W114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X114" t="n">
         <v>26</v>
@@ -14096,7 +14320,7 @@
         <v>51</v>
       </c>
       <c r="AD114" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE114" t="n">
         <v>8</v>
@@ -14158,22 +14382,22 @@
         <v>1.7</v>
       </c>
       <c r="J115" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L115" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M115" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N115" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O115" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P115" t="n">
         <v>1.4</v>
@@ -14389,46 +14613,46 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K117" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L117" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N117" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O117" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="P117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U117" t="n">
         <v>11</v>
@@ -14443,37 +14667,37 @@
         <v>19</v>
       </c>
       <c r="Y117" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA117" t="n">
         <v>6.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF117" t="n">
         <v>15</v>
       </c>
       <c r="AG117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH117" t="n">
         <v>34</v>
       </c>
       <c r="AI117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ117" t="n">
         <v>34</v>
@@ -15491,13 +15715,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H128" t="n">
         <v>4.33</v>
       </c>
       <c r="I128" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -15539,7 +15763,7 @@
         <v>17</v>
       </c>
       <c r="W128" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X128" t="n">
         <v>41</v>
@@ -15560,7 +15784,7 @@
         <v>51</v>
       </c>
       <c r="AD128" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE128" t="n">
         <v>7</v>
@@ -15873,7 +16097,7 @@
         <v>2.1</v>
       </c>
       <c r="O131" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P131" t="n">
         <v>1.44</v>
@@ -15995,7 +16219,7 @@
         <v>2.05</v>
       </c>
       <c r="O132" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P132" t="n">
         <v>1.44</v>
@@ -16117,7 +16341,7 @@
         <v>2.2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P133" t="n">
         <v>1.5</v>
@@ -16239,7 +16463,7 @@
         <v>2.3</v>
       </c>
       <c r="O134" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P134" t="n">
         <v>1.5</v>
@@ -16361,7 +16585,7 @@
         <v>2.2</v>
       </c>
       <c r="O135" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P135" t="n">
         <v>1.5</v>
@@ -16474,16 +16698,16 @@
         <v>10</v>
       </c>
       <c r="L136" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M136" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N136" t="n">
         <v>2.05</v>
       </c>
       <c r="O136" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P136" t="n">
         <v>1.44</v>
@@ -16825,19 +17049,19 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H139" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
       </c>
       <c r="K139" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L139" t="n">
         <v>1.27</v>
@@ -16855,7 +17079,7 @@
         <v>1.39</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R139" t="n">
         <v>1.7</v>
@@ -16864,25 +17088,25 @@
         <v>2.05</v>
       </c>
       <c r="T139" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>20</v>
+      </c>
+      <c r="V139" t="n">
         <v>11.75</v>
       </c>
-      <c r="U139" t="n">
-        <v>21</v>
-      </c>
-      <c r="V139" t="n">
-        <v>12.5</v>
-      </c>
       <c r="W139" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X139" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y139" t="n">
         <v>32</v>
       </c>
-      <c r="Y139" t="n">
-        <v>37</v>
-      </c>
       <c r="Z139" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA139" t="n">
         <v>6.7</v>
@@ -16900,19 +17124,19 @@
         <v>7.8</v>
       </c>
       <c r="AF139" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG139" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI139" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
@@ -17099,7 +17323,7 @@
         <v>1.62</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R141" t="n">
         <v>2.1</v>
@@ -17114,10 +17338,10 @@
         <v>11.5</v>
       </c>
       <c r="V141" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W141" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X141" t="n">
         <v>29</v>
@@ -17153,7 +17377,7 @@
         <v>35</v>
       </c>
       <c r="AI141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ141" t="n">
         <v>45</v>
@@ -17191,13 +17415,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H142" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I142" t="n">
         <v>3</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.05</v>
       </c>
       <c r="J142" t="n">
         <v>1.09</v>
@@ -17263,7 +17487,7 @@
         <v>700</v>
       </c>
       <c r="AE142" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF142" t="n">
         <v>15</v>
@@ -17316,13 +17540,13 @@
         <v>1.72</v>
       </c>
       <c r="H143" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="J143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K143" t="n">
         <v>7.1</v>
@@ -17346,22 +17570,22 @@
         <v>2.62</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S143" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T143" t="n">
         <v>6.4</v>
       </c>
       <c r="U143" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V143" t="n">
         <v>8.25</v>
       </c>
       <c r="W143" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X143" t="n">
         <v>14.5</v>
@@ -17376,25 +17600,25 @@
         <v>6.9</v>
       </c>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC143" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD143" t="n">
         <v>700</v>
       </c>
       <c r="AE143" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG143" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI143" t="n">
         <v>45</v>
@@ -17435,13 +17659,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I144" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J144" t="n">
         <v>1.07</v>
@@ -17468,28 +17692,28 @@
         <v>2.6</v>
       </c>
       <c r="R144" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S144" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="U144" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V144" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W144" t="n">
         <v>20</v>
       </c>
       <c r="X144" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y144" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z144" t="n">
         <v>7</v>
@@ -17504,25 +17728,25 @@
         <v>60</v>
       </c>
       <c r="AD144" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE144" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF144" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG144" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH144" t="n">
         <v>45</v>
       </c>
       <c r="AI144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ144" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145">
@@ -17557,13 +17781,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I145" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J145" t="n">
         <v>1.1</v>
@@ -17572,73 +17796,73 @@
         <v>5.8</v>
       </c>
       <c r="L145" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M145" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N145" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O145" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P145" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R145" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S145" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T145" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U145" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="V145" t="n">
         <v>11</v>
       </c>
       <c r="W145" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X145" t="n">
         <v>29</v>
       </c>
       <c r="Y145" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z145" t="n">
         <v>5.8</v>
       </c>
       <c r="AA145" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB145" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC145" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD145" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE145" t="n">
         <v>6.4</v>
       </c>
       <c r="AF145" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG145" t="n">
         <v>9.75</v>
       </c>
       <c r="AH145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI145" t="n">
         <v>24</v>
@@ -17682,10 +17906,10 @@
         <v>1.65</v>
       </c>
       <c r="H146" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I146" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="J146" t="n">
         <v>1.07</v>
@@ -17801,94 +18025,94 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I147" t="n">
-        <v>4.05</v>
+        <v>4.7</v>
       </c>
       <c r="J147" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K147" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T147" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U147" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V147" t="n">
+        <v>8</v>
+      </c>
+      <c r="W147" t="n">
+        <v>12</v>
+      </c>
+      <c r="X147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA147" t="n">
         <v>7.5</v>
       </c>
-      <c r="L147" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M147" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P147" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S147" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T147" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="U147" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V147" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W147" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X147" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA147" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB147" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD147" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE147" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG147" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI147" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ147" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -17923,13 +18147,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H148" t="n">
         <v>2.9</v>
       </c>
       <c r="I148" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J148" t="n">
         <v>1.08</v>
@@ -17947,7 +18171,7 @@
         <v>2.25</v>
       </c>
       <c r="O148" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P148" t="n">
         <v>1.5</v>
@@ -18054,10 +18278,10 @@
         <v>3.2</v>
       </c>
       <c r="J149" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K149" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L149" t="n">
         <v>1.44</v>
@@ -18069,7 +18293,7 @@
         <v>2.35</v>
       </c>
       <c r="O149" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P149" t="n">
         <v>1.53</v>
@@ -18188,10 +18412,10 @@
         <v>3.25</v>
       </c>
       <c r="N150" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O150" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P150" t="n">
         <v>1.44</v>
@@ -18310,10 +18534,10 @@
         <v>3.4</v>
       </c>
       <c r="N151" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P151" t="n">
         <v>1.44</v>
@@ -18533,19 +18757,19 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="n">
         <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J153" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K153" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L153" t="n">
         <v>1.5</v>
@@ -18575,7 +18799,7 @@
         <v>8</v>
       </c>
       <c r="U153" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V153" t="n">
         <v>13</v>
@@ -18608,7 +18832,7 @@
         <v>6</v>
       </c>
       <c r="AF153" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG153" t="n">
         <v>10</v>
@@ -18789,13 +19013,13 @@
         <v>1.08</v>
       </c>
       <c r="K155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L155" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M155" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N155" t="n">
         <v>2.35</v>
@@ -18831,7 +19055,7 @@
         <v>23</v>
       </c>
       <c r="Y155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z155" t="n">
         <v>7.5</v>
@@ -18899,13 +19123,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H156" t="n">
         <v>3.3</v>
       </c>
       <c r="I156" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J156" t="n">
         <v>1.05</v>
@@ -18938,7 +19162,7 @@
         <v>2</v>
       </c>
       <c r="T156" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U156" t="n">
         <v>15</v>
@@ -18953,7 +19177,7 @@
         <v>23</v>
       </c>
       <c r="Y156" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z156" t="n">
         <v>10</v>
@@ -18974,13 +19198,13 @@
         <v>8.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG156" t="n">
         <v>9.5</v>
       </c>
       <c r="AH156" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI156" t="n">
         <v>19</v>
@@ -19036,16 +19260,16 @@
         <v>11</v>
       </c>
       <c r="L157" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M157" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N157" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O157" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P157" t="n">
         <v>1.4</v>
@@ -19332,43 +19556,43 @@
         <v>3.3</v>
       </c>
       <c r="H161" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I161" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J161" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L161" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M161" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N161" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O161" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P161" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R161" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S161" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U161" t="n">
         <v>15</v>
@@ -19386,34 +19610,34 @@
         <v>41</v>
       </c>
       <c r="Z161" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA161" t="n">
         <v>6.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC161" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD161" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE161" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF161" t="n">
         <v>9.5</v>
       </c>
       <c r="AG161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ161" t="n">
         <v>34</v>
@@ -19472,10 +19696,10 @@
         <v>4</v>
       </c>
       <c r="N162" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O162" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P162" t="n">
         <v>1.33</v>
@@ -19594,10 +19818,10 @@
         <v>3.4</v>
       </c>
       <c r="N163" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O163" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P163" t="n">
         <v>1.4</v>
@@ -19716,10 +19940,10 @@
         <v>3.5</v>
       </c>
       <c r="N164" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O164" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P164" t="n">
         <v>1.4</v>
@@ -19945,7 +20169,7 @@
         <v>3.55</v>
       </c>
       <c r="I166" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -19964,37 +20188,37 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S166" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T166" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="U166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V166" t="n">
         <v>8.75</v>
       </c>
       <c r="W166" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X166" t="n">
         <v>14</v>
       </c>
       <c r="Y166" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z166" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB166" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC166" t="n">
         <v>30</v>
@@ -20003,10 +20227,10 @@
         <v>150</v>
       </c>
       <c r="AE166" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG166" t="n">
         <v>11.25</v>
@@ -20015,10 +20239,10 @@
         <v>45</v>
       </c>
       <c r="AI166" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ166" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ166" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="167">
@@ -20053,27 +20277,27 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="H167" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="I167" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="M167" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O167" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
@@ -20084,52 +20308,52 @@
         <v>1.98</v>
       </c>
       <c r="T167" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U167" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V167" t="n">
         <v>8.25</v>
       </c>
       <c r="W167" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X167" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y167" t="n">
         <v>22</v>
       </c>
       <c r="Z167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB167" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA167" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC167" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD167" t="n">
         <v>400</v>
       </c>
       <c r="AE167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF167" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG167" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH167" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI167" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ167" t="n">
         <v>45</v>
@@ -20219,7 +20443,7 @@
         <v>13</v>
       </c>
       <c r="AA168" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB168" t="n">
         <v>14.5</v>
@@ -20234,13 +20458,13 @@
         <v>14</v>
       </c>
       <c r="AF168" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG168" t="n">
         <v>14</v>
       </c>
       <c r="AH168" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI168" t="n">
         <v>37</v>
@@ -20695,13 +20919,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H174" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I174" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J174" t="n">
         <v>1.04</v>
@@ -20722,10 +20946,10 @@
         <v>2.05</v>
       </c>
       <c r="P174" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q174" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R174" t="n">
         <v>1.83</v>
@@ -20746,7 +20970,7 @@
         <v>11</v>
       </c>
       <c r="X174" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y174" t="n">
         <v>26</v>
@@ -20767,7 +20991,7 @@
         <v>301</v>
       </c>
       <c r="AE174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF174" t="n">
         <v>29</v>
@@ -20820,91 +21044,91 @@
         <v>2.55</v>
       </c>
       <c r="H175" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I175" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J175" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K175" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L175" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M175" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="N175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R175" t="n">
         <v>2.1</v>
       </c>
-      <c r="O175" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P175" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R175" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S175" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="T175" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="U175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W175" t="n">
         <v>26</v>
       </c>
       <c r="X175" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y175" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z175" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC175" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD175" t="n">
         <v>301</v>
       </c>
       <c r="AE175" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG175" t="n">
         <v>11</v>
       </c>
       <c r="AH175" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI175" t="n">
         <v>26</v>
       </c>
-      <c r="AI175" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ175" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176">
@@ -21070,22 +21294,22 @@
         <v>4</v>
       </c>
       <c r="J177" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K177" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L177" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M177" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N177" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O177" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="P177" t="n">
         <v>1.4</v>
@@ -21427,25 +21651,25 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I180" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J180" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K180" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L180" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M180" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N180" t="n">
         <v>2.05</v>
@@ -21466,7 +21690,7 @@
         <v>1.91</v>
       </c>
       <c r="T180" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U180" t="n">
         <v>12</v>
@@ -21475,19 +21699,19 @@
         <v>10</v>
       </c>
       <c r="W180" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X180" t="n">
         <v>21</v>
       </c>
       <c r="Y180" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z180" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA180" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB180" t="n">
         <v>15</v>
@@ -21499,7 +21723,7 @@
         <v>251</v>
       </c>
       <c r="AE180" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF180" t="n">
         <v>13</v>
@@ -22165,13 +22389,13 @@
         <v>3</v>
       </c>
       <c r="I186" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J186" t="n">
         <v>1.08</v>
       </c>
       <c r="K186" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L186" t="n">
         <v>1.4</v>
@@ -22198,7 +22422,7 @@
         <v>1.8</v>
       </c>
       <c r="T186" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U186" t="n">
         <v>11</v>
@@ -22534,10 +22758,10 @@
         <v>3.9</v>
       </c>
       <c r="J189" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K189" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L189" t="n">
         <v>1.33</v>
@@ -22546,10 +22770,10 @@
         <v>3.25</v>
       </c>
       <c r="N189" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O189" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P189" t="n">
         <v>1.44</v>
@@ -22802,10 +23026,10 @@
         <v>3.25</v>
       </c>
       <c r="R191" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S191" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T191" t="n">
         <v>12</v>
@@ -22927,7 +23151,7 @@
         <v>2.25</v>
       </c>
       <c r="S192" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T192" t="n">
         <v>12</v>
@@ -23046,7 +23270,7 @@
         <v>4.33</v>
       </c>
       <c r="R193" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S193" t="n">
         <v>2</v>
@@ -23168,10 +23392,10 @@
         <v>4.33</v>
       </c>
       <c r="R194" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S194" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T194" t="n">
         <v>11</v>
@@ -23293,7 +23517,7 @@
         <v>2</v>
       </c>
       <c r="S195" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T195" t="n">
         <v>6</v>
@@ -23385,7 +23609,7 @@
         <v>3.7</v>
       </c>
       <c r="I196" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="J196" t="n">
         <v>1.05</v>
@@ -23501,7 +23725,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H197" t="n">
         <v>3.75</v>
@@ -23629,7 +23853,7 @@
         <v>3.5</v>
       </c>
       <c r="I198" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J198" t="n">
         <v>1.06</v>
@@ -23745,7 +23969,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>3.5</v>
@@ -23867,31 +24091,31 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H200" t="n">
         <v>3.3</v>
       </c>
       <c r="I200" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J200" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K200" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L200" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N200" t="n">
         <v>2.05</v>
       </c>
       <c r="O200" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P200" t="n">
         <v>1.44</v>
@@ -23906,10 +24130,10 @@
         <v>1.83</v>
       </c>
       <c r="T200" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U200" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V200" t="n">
         <v>12</v>
@@ -23918,10 +24142,10 @@
         <v>34</v>
       </c>
       <c r="X200" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y200" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z200" t="n">
         <v>9.5</v>
@@ -23936,22 +24160,22 @@
         <v>51</v>
       </c>
       <c r="AD200" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE200" t="n">
         <v>7.5</v>
       </c>
       <c r="AF200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG200" t="n">
         <v>9.5</v>
       </c>
       <c r="AH200" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI200" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ200" t="n">
         <v>29</v>
@@ -23989,31 +24213,31 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H201" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I201" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J201" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K201" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L201" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M201" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O201" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="P201" t="n">
         <v>1.44</v>
@@ -24031,7 +24255,7 @@
         <v>6.5</v>
       </c>
       <c r="U201" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V201" t="n">
         <v>9</v>
@@ -24046,7 +24270,7 @@
         <v>34</v>
       </c>
       <c r="Z201" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA201" t="n">
         <v>6.5</v>
@@ -24058,10 +24282,10 @@
         <v>51</v>
       </c>
       <c r="AD201" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF201" t="n">
         <v>21</v>
@@ -24073,7 +24297,7 @@
         <v>41</v>
       </c>
       <c r="AI201" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ201" t="n">
         <v>41</v>
@@ -24110,36 +24334,96 @@
           <t>Radnicki 1923</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr"/>
-      <c r="W202" t="inlineStr"/>
-      <c r="X202" t="inlineStr"/>
-      <c r="Y202" t="inlineStr"/>
-      <c r="Z202" t="inlineStr"/>
-      <c r="AA202" t="inlineStr"/>
-      <c r="AB202" t="inlineStr"/>
-      <c r="AC202" t="inlineStr"/>
-      <c r="AD202" t="inlineStr"/>
-      <c r="AE202" t="inlineStr"/>
-      <c r="AF202" t="inlineStr"/>
-      <c r="AG202" t="inlineStr"/>
-      <c r="AH202" t="inlineStr"/>
-      <c r="AI202" t="inlineStr"/>
-      <c r="AJ202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K202" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U202" t="n">
+        <v>12</v>
+      </c>
+      <c r="V202" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W202" t="n">
+        <v>24</v>
+      </c>
+      <c r="X202" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24173,86 +24457,94 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="H203" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I203" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K203" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L203" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M203" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N203" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="O203" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>3.45</v>
+      </c>
       <c r="R203" t="n">
         <v>1.7</v>
       </c>
       <c r="S203" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T203" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="U203" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="V203" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="W203" t="n">
-        <v>8.199999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="X203" t="n">
-        <v>8.6</v>
+        <v>10.25</v>
       </c>
       <c r="Y203" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="n">
         <v>17</v>
       </c>
-      <c r="Z203" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>13</v>
-      </c>
       <c r="AC203" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF203" t="n">
         <v>50</v>
       </c>
-      <c r="AD203" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF203" t="n">
-        <v>35</v>
-      </c>
       <c r="AG203" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH203" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AI203" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ203" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="204">
@@ -24656,34 +24948,34 @@
         <v>1.65</v>
       </c>
       <c r="H207" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I207" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J207" t="n">
         <v>1.03</v>
       </c>
       <c r="K207" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="L207" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M207" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N207" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O207" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="P207" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q207" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="R207" t="n">
         <v>1.5</v>
@@ -24692,16 +24984,16 @@
         <v>2.42</v>
       </c>
       <c r="T207" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U207" t="n">
         <v>11.25</v>
       </c>
       <c r="V207" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W207" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X207" t="n">
         <v>12</v>
@@ -24710,25 +25002,25 @@
         <v>18.5</v>
       </c>
       <c r="Z207" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA207" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB207" t="n">
         <v>13.5</v>
       </c>
       <c r="AC207" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD207" t="n">
         <v>250</v>
       </c>
       <c r="AE207" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF207" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG207" t="n">
         <v>15.5</v>
@@ -24737,10 +25029,10 @@
         <v>80</v>
       </c>
       <c r="AI207" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ207" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -24912,16 +25204,16 @@
         <v>11</v>
       </c>
       <c r="L209" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M209" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O209" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O209" t="n">
-        <v>1.9</v>
       </c>
       <c r="P209" t="n">
         <v>1.4</v>
@@ -25162,10 +25454,10 @@
         <v>3.25</v>
       </c>
       <c r="N211" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O211" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P211" t="n">
         <v>1.44</v>
@@ -25394,10 +25686,10 @@
         <v>2.2</v>
       </c>
       <c r="J213" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K213" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L213" t="n">
         <v>1.29</v>
@@ -25406,10 +25698,10 @@
         <v>3.5</v>
       </c>
       <c r="N213" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O213" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P213" t="n">
         <v>1.4</v>
@@ -25528,10 +25820,10 @@
         <v>3.25</v>
       </c>
       <c r="N214" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O214" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P214" t="n">
         <v>1.44</v>
@@ -25873,7 +26165,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H217" t="n">
         <v>2.9</v>
@@ -25882,10 +26174,10 @@
         <v>3</v>
       </c>
       <c r="J217" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K217" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L217" t="n">
         <v>1.53</v>
@@ -25954,7 +26246,7 @@
         <v>12</v>
       </c>
       <c r="AH217" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI217" t="n">
         <v>29</v>
@@ -26126,10 +26418,10 @@
         <v>6.5</v>
       </c>
       <c r="J219" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K219" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L219" t="n">
         <v>1.4</v>
@@ -26138,10 +26430,10 @@
         <v>2.75</v>
       </c>
       <c r="N219" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O219" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P219" t="n">
         <v>1.5</v>
@@ -26361,13 +26653,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>3.1</v>
       </c>
       <c r="I221" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J221" t="n">
         <v>1.08</v>
@@ -26382,10 +26674,10 @@
         <v>2.75</v>
       </c>
       <c r="N221" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O221" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P221" t="n">
         <v>1.5</v>
@@ -26394,10 +26686,10 @@
         <v>2.5</v>
       </c>
       <c r="R221" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S221" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T221" t="n">
         <v>6</v>
@@ -26409,7 +26701,7 @@
         <v>9.5</v>
       </c>
       <c r="W221" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X221" t="n">
         <v>19</v>
@@ -26424,7 +26716,7 @@
         <v>6.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC221" t="n">
         <v>67</v>
@@ -26433,7 +26725,7 @@
         <v>1000</v>
       </c>
       <c r="AE221" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF221" t="n">
         <v>19</v>
@@ -26445,7 +26737,7 @@
         <v>41</v>
       </c>
       <c r="AI221" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ221" t="n">
         <v>41</v>
@@ -26498,16 +26790,16 @@
         <v>8.5</v>
       </c>
       <c r="L222" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M222" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N222" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O222" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P222" t="n">
         <v>1.4</v>
@@ -26727,19 +27019,19 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H224" t="n">
         <v>3.2</v>
       </c>
       <c r="I224" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J224" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K224" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L224" t="n">
         <v>1.33</v>
@@ -26748,10 +27040,10 @@
         <v>3.25</v>
       </c>
       <c r="N224" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O224" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P224" t="n">
         <v>1.44</v>
@@ -26760,10 +27052,10 @@
         <v>2.63</v>
       </c>
       <c r="R224" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S224" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T224" t="n">
         <v>8.5</v>
@@ -26775,7 +27067,7 @@
         <v>11</v>
       </c>
       <c r="W224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X224" t="n">
         <v>23</v>
@@ -26784,7 +27076,7 @@
         <v>34</v>
       </c>
       <c r="Z224" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA224" t="n">
         <v>6.5</v>
@@ -26796,10 +27088,10 @@
         <v>51</v>
       </c>
       <c r="AD224" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE224" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF224" t="n">
         <v>12</v>
@@ -26858,10 +27150,10 @@
         <v>2.3</v>
       </c>
       <c r="J225" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K225" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L225" t="n">
         <v>1.4</v>
@@ -27093,13 +27385,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H227" t="n">
         <v>3.4</v>
       </c>
       <c r="I227" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J227" t="n">
         <v>1.07</v>
@@ -27120,22 +27412,22 @@
         <v>1.67</v>
       </c>
       <c r="P227" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R227" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S227" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T227" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U227" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V227" t="n">
         <v>9</v>
@@ -27150,7 +27442,7 @@
         <v>34</v>
       </c>
       <c r="Z227" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA227" t="n">
         <v>7</v>
@@ -27177,7 +27469,7 @@
         <v>41</v>
       </c>
       <c r="AI227" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ227" t="n">
         <v>41</v>
@@ -27224,10 +27516,10 @@
         <v>3.3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K228" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L228" t="n">
         <v>1.5</v>
@@ -27236,10 +27528,10 @@
         <v>2.5</v>
       </c>
       <c r="N228" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O228" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P228" t="n">
         <v>1.57</v>
@@ -27587,7 +27879,7 @@
         <v>3.6</v>
       </c>
       <c r="I231" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J231" t="n">
         <v>1.04</v>
@@ -27602,13 +27894,13 @@
         <v>4.33</v>
       </c>
       <c r="N231" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O231" t="n">
         <v>2.1</v>
       </c>
       <c r="P231" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q231" t="n">
         <v>3.25</v>
@@ -27703,13 +27995,13 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H232" t="n">
         <v>3.3</v>
       </c>
       <c r="I232" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J232" t="n">
         <v>1.05</v>
@@ -27825,13 +28117,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H233" t="n">
         <v>3.5</v>
       </c>
       <c r="I233" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J233" t="n">
         <v>1.03</v>
@@ -27846,7 +28138,7 @@
         <v>5</v>
       </c>
       <c r="N233" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O233" t="n">
         <v>2.3</v>
@@ -28212,10 +28504,10 @@
         <v>3.25</v>
       </c>
       <c r="N236" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O236" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P236" t="n">
         <v>1.44</v>
@@ -28313,19 +28605,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>3.5</v>
       </c>
       <c r="I237" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J237" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K237" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L237" t="n">
         <v>1.25</v>
@@ -28334,10 +28626,10 @@
         <v>3.75</v>
       </c>
       <c r="N237" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O237" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P237" t="n">
         <v>1.36</v>
@@ -28346,10 +28638,10 @@
         <v>3</v>
       </c>
       <c r="R237" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S237" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T237" t="n">
         <v>8</v>
@@ -28361,7 +28653,7 @@
         <v>8.5</v>
       </c>
       <c r="W237" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X237" t="n">
         <v>15</v>
@@ -28373,7 +28665,7 @@
         <v>12</v>
       </c>
       <c r="AA237" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB237" t="n">
         <v>13</v>
@@ -28382,7 +28674,7 @@
         <v>41</v>
       </c>
       <c r="AD237" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE237" t="n">
         <v>13</v>
@@ -28435,19 +28727,19 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H238" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I238" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J238" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K238" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L238" t="n">
         <v>1.36</v>
@@ -28477,10 +28769,10 @@
         <v>6.5</v>
       </c>
       <c r="U238" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V238" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W238" t="n">
         <v>19</v>
@@ -28495,7 +28787,7 @@
         <v>8</v>
       </c>
       <c r="AA238" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB238" t="n">
         <v>17</v>
@@ -28507,7 +28799,7 @@
         <v>351</v>
       </c>
       <c r="AE238" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF238" t="n">
         <v>17</v>
@@ -28519,7 +28811,7 @@
         <v>41</v>
       </c>
       <c r="AI238" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ238" t="n">
         <v>41</v>
@@ -28557,78 +28849,78 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H239" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I239" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M239" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="N239" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="O239" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P239" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R239" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S239" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U239" t="n">
         <v>35</v>
       </c>
       <c r="V239" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W239" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X239" t="n">
         <v>80</v>
       </c>
       <c r="Y239" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z239" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA239" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB239" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC239" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD239" t="n">
         <v>101</v>
       </c>
       <c r="AE239" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AF239" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AG239" t="n">
         <v>8.75</v>
@@ -28637,10 +28929,10 @@
         <v>10</v>
       </c>
       <c r="AI239" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ239" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240">
@@ -28687,7 +28979,7 @@
         <v>1.12</v>
       </c>
       <c r="K240" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L240" t="n">
         <v>1.52</v>
@@ -29065,7 +29357,7 @@
         <v>2.05</v>
       </c>
       <c r="O243" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P243" t="n">
         <v>1.44</v>
@@ -29178,16 +29470,16 @@
         <v>11</v>
       </c>
       <c r="L244" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M244" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N244" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O244" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P244" t="n">
         <v>1.4</v>
@@ -29556,7 +29848,7 @@
         <v>2</v>
       </c>
       <c r="P247" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q247" t="n">
         <v>3</v>
@@ -29672,13 +29964,13 @@
         <v>3.75</v>
       </c>
       <c r="N248" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O248" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P248" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q248" t="n">
         <v>2.75</v>
@@ -29800,7 +30092,7 @@
         <v>2.25</v>
       </c>
       <c r="P249" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q249" t="n">
         <v>3.4</v>
@@ -29922,7 +30214,7 @@
         <v>2.1</v>
       </c>
       <c r="P250" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q250" t="n">
         <v>3.25</v>
@@ -30017,13 +30309,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H251" t="n">
         <v>3.5</v>
       </c>
       <c r="I251" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J251" t="n">
         <v>1.06</v>
@@ -30044,7 +30336,7 @@
         <v>1.88</v>
       </c>
       <c r="P251" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q251" t="n">
         <v>2.75</v>
@@ -30089,7 +30381,7 @@
         <v>251</v>
       </c>
       <c r="AE251" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF251" t="n">
         <v>21</v>
@@ -30282,10 +30574,10 @@
         <v>4</v>
       </c>
       <c r="N253" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O253" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P253" t="n">
         <v>1.33</v>
@@ -30383,19 +30675,19 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H254" t="n">
         <v>3.6</v>
       </c>
       <c r="I254" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J254" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K254" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L254" t="n">
         <v>1.2</v>
@@ -30458,7 +30750,7 @@
         <v>12</v>
       </c>
       <c r="AF254" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG254" t="n">
         <v>11</v>
@@ -30788,7 +31080,7 @@
         <v>2.12</v>
       </c>
       <c r="T257" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U257" t="n">
         <v>14.5</v>
@@ -30809,7 +31101,7 @@
         <v>7.9</v>
       </c>
       <c r="AA257" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB257" t="n">
         <v>13</v>
@@ -30821,13 +31113,13 @@
         <v>350</v>
       </c>
       <c r="AE257" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG257" t="n">
         <v>9.25</v>
-      </c>
-      <c r="AF257" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG257" t="n">
-        <v>9</v>
       </c>
       <c r="AH257" t="n">
         <v>24</v>
@@ -30871,13 +31163,13 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H258" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I258" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J258" t="n">
         <v>1.06</v>
@@ -30907,22 +31199,22 @@
         <v>1.75</v>
       </c>
       <c r="S258" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T258" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U258" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V258" t="n">
         <v>9</v>
       </c>
       <c r="W258" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X258" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y258" t="n">
         <v>28</v>
@@ -30943,22 +31235,22 @@
         <v>500</v>
       </c>
       <c r="AE258" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF258" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG258" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH258" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI258" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ258" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259">
@@ -30999,7 +31291,7 @@
         <v>3.25</v>
       </c>
       <c r="I259" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J259" t="n">
         <v>1.09</v>
@@ -31011,7 +31303,7 @@
         <v>1.42</v>
       </c>
       <c r="M259" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N259" t="n">
         <v>2.22</v>
@@ -31026,19 +31318,19 @@
         <v>2.37</v>
       </c>
       <c r="R259" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S259" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T259" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U259" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V259" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W259" t="n">
         <v>14</v>
@@ -31047,7 +31339,7 @@
         <v>16.5</v>
       </c>
       <c r="Y259" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z259" t="n">
         <v>6.2</v>
@@ -31068,7 +31360,7 @@
         <v>9.75</v>
       </c>
       <c r="AF259" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG259" t="n">
         <v>15</v>
@@ -31115,19 +31407,19 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H260" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I260" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J260" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K260" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L260" t="n">
         <v>1.24</v>
@@ -31154,25 +31446,25 @@
         <v>2.02</v>
       </c>
       <c r="T260" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U260" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V260" t="n">
         <v>8.25</v>
       </c>
       <c r="W260" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X260" t="n">
         <v>13</v>
       </c>
       <c r="Y260" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z260" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA260" t="n">
         <v>7.4</v>
@@ -31190,16 +31482,16 @@
         <v>13</v>
       </c>
       <c r="AF260" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG260" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH260" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI260" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ260" t="n">
         <v>40</v>
@@ -31487,7 +31779,7 @@
         <v>3.2</v>
       </c>
       <c r="I263" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J263" t="n">
         <v>1.06</v>
@@ -31526,16 +31818,16 @@
         <v>11.5</v>
       </c>
       <c r="V263" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W263" t="n">
         <v>23</v>
       </c>
       <c r="X263" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y263" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z263" t="n">
         <v>7.2</v>
@@ -31544,7 +31836,7 @@
         <v>6.3</v>
       </c>
       <c r="AB263" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC263" t="n">
         <v>60</v>
@@ -31553,19 +31845,19 @@
         <v>450</v>
       </c>
       <c r="AE263" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF263" t="n">
         <v>15.5</v>
       </c>
       <c r="AG263" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH263" t="n">
         <v>37</v>
       </c>
       <c r="AI263" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ263" t="n">
         <v>32</v>
@@ -31603,49 +31895,49 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H264" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I264" t="n">
         <v>2.4</v>
       </c>
       <c r="J264" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K264" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="L264" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M264" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="N264" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="O264" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P264" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R264" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S264" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T264" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U264" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V264" t="n">
         <v>10.25</v>
@@ -31654,43 +31946,43 @@
         <v>32</v>
       </c>
       <c r="X264" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y264" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z264" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA264" t="n">
         <v>6.2</v>
       </c>
       <c r="AB264" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC264" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AD264" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE264" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AF264" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AG264" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH264" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI264" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ264" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265">
@@ -31725,19 +32017,19 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="H265" t="n">
         <v>3.2</v>
       </c>
       <c r="I265" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="J265" t="n">
         <v>1.07</v>
       </c>
       <c r="K265" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L265" t="n">
         <v>1.32</v>
@@ -31764,31 +32056,31 @@
         <v>1.98</v>
       </c>
       <c r="T265" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U265" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="V265" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W265" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X265" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y265" t="n">
         <v>32</v>
       </c>
       <c r="Z265" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA265" t="n">
         <v>6.3</v>
       </c>
       <c r="AB265" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC265" t="n">
         <v>65</v>
@@ -31797,19 +32089,19 @@
         <v>500</v>
       </c>
       <c r="AE265" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF265" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AG265" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH265" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI265" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ265" t="n">
         <v>30</v>
@@ -31847,19 +32139,19 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H266" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I266" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="J266" t="n">
         <v>1.08</v>
       </c>
       <c r="K266" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L266" t="n">
         <v>1.37</v>
@@ -31880,37 +32172,37 @@
         <v>2.5</v>
       </c>
       <c r="R266" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S266" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T266" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U266" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V266" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W266" t="n">
         <v>24</v>
       </c>
       <c r="X266" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y266" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z266" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA266" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB266" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC266" t="n">
         <v>75</v>
@@ -31919,22 +32211,22 @@
         <v>600</v>
       </c>
       <c r="AE266" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF266" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG266" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH266" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI266" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ266" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267">
@@ -32227,7 +32519,7 @@
         <v>1.23</v>
       </c>
       <c r="M269" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N269" t="n">
         <v>1.7</v>
@@ -32263,7 +32555,7 @@
         <v>11.5</v>
       </c>
       <c r="Y269" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z269" t="n">
         <v>8.25</v>
@@ -32281,7 +32573,7 @@
         <v>600</v>
       </c>
       <c r="AE269" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF269" t="n">
         <v>40</v>
@@ -32290,7 +32582,7 @@
         <v>19.5</v>
       </c>
       <c r="AH269" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI269" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -668,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -719,13 +719,13 @@
         <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>67</v>
@@ -802,10 +802,10 @@
         <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -820,7 +820,7 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -894,16 +894,16 @@
         <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -963,10 +963,10 @@
         <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -975,7 +975,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1076,16 +1076,16 @@
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
         <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>9.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1150,16 +1150,16 @@
         <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1266,10 +1266,10 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L7" t="n">
         <v>1.17</v>
@@ -1296,7 +1296,7 @@
         <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
         <v>12</v>
@@ -1317,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>11</v>
@@ -1344,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1412,10 +1412,10 @@
         <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
         <v>8.5</v>
@@ -1436,7 +1436,7 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>301</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1522,10 +1522,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O9" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -1540,7 +1540,7 @@
         <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>13</v>
@@ -1552,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
@@ -1582,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
@@ -1656,16 +1656,16 @@
         <v>2.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1677,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>10</v>
@@ -1698,10 +1698,10 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1748,10 +1748,10 @@
         <v>1.33</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1784,13 +1784,13 @@
         <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
         <v>6.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
@@ -1811,10 +1811,10 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -1876,10 +1876,10 @@
         <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -1937,10 +1937,10 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>29</v>
@@ -1990,10 +1990,10 @@
         <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
         <v>1.11</v>
@@ -2057,10 +2057,10 @@
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2134,10 +2134,10 @@
         <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>2.2</v>
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="n">
         <v>7</v>
@@ -2170,7 +2170,7 @@
         <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>81</v>
@@ -2179,19 +2179,19 @@
         <v>501</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2277,7 +2277,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2298,7 +2298,7 @@
         <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -2313,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2363,7 +2363,7 @@
         <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L16" t="n">
         <v>1.14</v>
@@ -2384,10 +2384,10 @@
         <v>3.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16" t="n">
         <v>23</v>
@@ -2426,7 +2426,7 @@
         <v>9.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
         <v>8.5</v>
@@ -2610,16 +2610,16 @@
         <v>6.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
         <v>1.57</v>
@@ -2729,19 +2729,19 @@
         <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
         <v>1.53</v>
@@ -2750,13 +2750,13 @@
         <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
@@ -2774,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2839,19 +2839,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.67</v>
@@ -2866,31 +2866,31 @@
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V20" t="n">
         <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
         <v>51</v>
@@ -2899,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -2911,16 +2911,16 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
@@ -2988,10 +2988,10 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R21" t="n">
         <v>2.5</v>
@@ -3214,10 +3214,10 @@
         <v>2.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.73</v>
@@ -3226,16 +3226,16 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
         <v>2.63</v>
@@ -3354,7 +3354,7 @@
         <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
         <v>2.1</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3500,7 +3500,7 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
@@ -3524,13 +3524,13 @@
         <v>5.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>29</v>
@@ -3592,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
@@ -3699,7 +3699,7 @@
         <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3735,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="U27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
@@ -3756,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3765,7 +3765,7 @@
         <v>151</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>9</v>
@@ -3940,10 +3940,10 @@
         <v>1.18</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
@@ -3964,10 +3964,10 @@
         <v>2.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R29" t="n">
         <v>2.25</v>
@@ -3982,13 +3982,13 @@
         <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>34</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
         <v>67</v>
@@ -4059,37 +4059,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
@@ -4098,10 +4098,10 @@
         <v>1.73</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
@@ -4116,7 +4116,7 @@
         <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>7.5</v>
@@ -4125,7 +4125,7 @@
         <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD30" t="n">
         <v>351</v>
@@ -4140,7 +4140,7 @@
         <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI30" t="n">
         <v>51</v>
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
         <v>2.6</v>
@@ -4214,10 +4214,10 @@
         <v>2.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
         <v>8</v>
@@ -4238,7 +4238,7 @@
         <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
         <v>6</v>
@@ -4265,7 +4265,7 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4336,10 +4336,10 @@
         <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -4458,10 +4458,10 @@
         <v>2.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
         <v>7</v>
@@ -4547,13 +4547,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4568,10 +4568,10 @@
         <v>2.75</v>
       </c>
       <c r="N34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
         <v>1.5</v>
@@ -4583,7 +4583,7 @@
         <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
         <v>6</v>
@@ -4625,13 +4625,13 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -4705,7 +4705,7 @@
         <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T35" t="n">
         <v>7</v>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
         <v>1.1</v>
@@ -4824,16 +4824,16 @@
         <v>2.25</v>
       </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
@@ -4916,10 +4916,10 @@
         <v>2.15</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
         <v>1.11</v>
@@ -5279,13 +5279,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J40" t="n">
         <v>1.1</v>
@@ -5300,16 +5300,16 @@
         <v>2.5</v>
       </c>
       <c r="N40" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O40" t="n">
         <v>1.52</v>
       </c>
       <c r="P40" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="R40" t="n">
         <v>2.25</v>
@@ -5330,7 +5330,7 @@
         <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="n">
         <v>40</v>
@@ -5339,10 +5339,10 @@
         <v>5.8</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
         <v>150</v>
@@ -5399,25 +5399,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>1.09</v>
       </c>
       <c r="K41" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M41" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N41" t="n">
         <v>2.25</v>
@@ -5426,43 +5426,43 @@
         <v>1.57</v>
       </c>
       <c r="P41" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S41" t="n">
         <v>1.65</v>
       </c>
       <c r="T41" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="U41" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y41" t="n">
         <v>37</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
         <v>120</v>
@@ -5471,22 +5471,22 @@
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI41" t="n">
         <v>60</v>
       </c>
-      <c r="AI41" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ41" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -5521,55 +5521,55 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H42" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J42" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K42" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="N42" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="O42" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P42" t="n">
         <v>1.55</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R42" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S42" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V42" t="n">
         <v>10</v>
       </c>
       <c r="W42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X42" t="n">
         <v>25</v>
@@ -5578,37 +5578,37 @@
         <v>40</v>
       </c>
       <c r="Z42" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC42" t="n">
         <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI42" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -5643,37 +5643,37 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="I43" t="n">
         <v>3.35</v>
       </c>
       <c r="J43" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K43" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R43" t="n">
         <v>2.05</v>
@@ -5682,31 +5682,31 @@
         <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V43" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W43" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y43" t="n">
         <v>40</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
         <v>110</v>
@@ -5715,7 +5715,7 @@
         <v>101</v>
       </c>
       <c r="AE43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF43" t="n">
         <v>15.5</v>
@@ -5724,10 +5724,10 @@
         <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="n">
         <v>55</v>
@@ -5765,13 +5765,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5786,10 +5786,10 @@
         <v>3.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P44" t="n">
         <v>1.36</v>
@@ -5798,16 +5798,16 @@
         <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T44" t="n">
         <v>7</v>
       </c>
       <c r="U44" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
@@ -5837,22 +5837,22 @@
         <v>301</v>
       </c>
       <c r="AE44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
         <v>67</v>
       </c>
       <c r="AI44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -5887,19 +5887,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
         <v>1.22</v>
@@ -5920,10 +5920,10 @@
         <v>3.25</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
         <v>6.5</v>
@@ -5935,22 +5935,22 @@
         <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X45" t="n">
         <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
         <v>11</v>
       </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
         <v>81</v>
@@ -5959,22 +5959,22 @@
         <v>101</v>
       </c>
       <c r="AE45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI45" t="n">
         <v>81</v>
       </c>
       <c r="AJ45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -6262,10 +6262,10 @@
         <v>3.4</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
         <v>1.29</v>
@@ -6274,10 +6274,10 @@
         <v>3.5</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O48" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -6497,13 +6497,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
         <v>1.08</v>
@@ -6512,25 +6512,25 @@
         <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M50" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="N50" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P50" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R50" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S50" t="n">
         <v>1.75</v>
@@ -6539,19 +6539,19 @@
         <v>6.1</v>
       </c>
       <c r="U50" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V50" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W50" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X50" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y50" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z50" t="n">
         <v>7</v>
@@ -6560,31 +6560,31 @@
         <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC50" t="n">
         <v>110</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE50" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG50" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI50" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
@@ -6619,13 +6619,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I51" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.35</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
@@ -6637,7 +6637,7 @@
         <v>1.38</v>
       </c>
       <c r="M51" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N51" t="n">
         <v>2.15</v>
@@ -6652,49 +6652,49 @@
         <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S51" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T51" t="n">
         <v>6.7</v>
       </c>
       <c r="U51" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V51" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W51" t="n">
+        <v>23</v>
+      </c>
+      <c r="X51" t="n">
         <v>21</v>
       </c>
-      <c r="X51" t="n">
-        <v>20</v>
-      </c>
       <c r="Y51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="n">
         <v>6.9</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD51" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF51" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG51" t="n">
         <v>12.5</v>
@@ -6703,10 +6703,10 @@
         <v>50</v>
       </c>
       <c r="AI51" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ51" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
@@ -6753,7 +6753,7 @@
         <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L52" t="n">
         <v>1.22</v>
@@ -6783,7 +6783,7 @@
         <v>11</v>
       </c>
       <c r="U52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V52" t="n">
         <v>11</v>
@@ -6792,7 +6792,7 @@
         <v>29</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y52" t="n">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD54" t="n">
         <v>351</v>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J55" t="n">
         <v>1.04</v>
@@ -7122,16 +7122,16 @@
         <v>13</v>
       </c>
       <c r="L55" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7140,10 +7140,10 @@
         <v>3.25</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T55" t="n">
         <v>11</v>
@@ -7167,7 +7167,7 @@
         <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB55" t="n">
         <v>12</v>
@@ -7179,7 +7179,7 @@
         <v>151</v>
       </c>
       <c r="AE55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF55" t="n">
         <v>13</v>
@@ -7351,24 +7351,24 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N57" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O57" t="n">
         <v>1.6</v>
@@ -7377,7 +7377,7 @@
         <v>1.42</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R57" t="n">
         <v>1.85</v>
@@ -7386,19 +7386,19 @@
         <v>1.75</v>
       </c>
       <c r="T57" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U57" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="V57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W57" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="n">
         <v>35</v>
@@ -7413,25 +7413,25 @@
         <v>16</v>
       </c>
       <c r="AC57" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="n">
         <v>800</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AF57" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI57" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ57" t="n">
         <v>40</v>
@@ -7469,54 +7469,54 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="H58" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="I58" t="n">
-        <v>4.35</v>
+        <v>5.2</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O58" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P58" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="R58" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S58" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U58" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V58" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="W58" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="X58" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y58" t="n">
         <v>24</v>
@@ -7525,34 +7525,34 @@
         <v>8.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB58" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC58" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI58" t="n">
         <v>55</v>
       </c>
-      <c r="AD58" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -8091,7 +8091,7 @@
         <v>2.6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P63" t="n">
         <v>1.57</v>
@@ -8204,16 +8204,16 @@
         <v>6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M64" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N64" t="n">
         <v>2.7</v>
       </c>
       <c r="O64" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P64" t="n">
         <v>1.62</v>
@@ -8222,10 +8222,10 @@
         <v>2.2</v>
       </c>
       <c r="R64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T64" t="n">
         <v>6.5</v>
@@ -8252,7 +8252,7 @@
         <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
         <v>81</v>
@@ -8267,7 +8267,7 @@
         <v>11</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
         <v>29</v>
@@ -8314,87 +8314,87 @@
         <v>2.35</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I65" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M65" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="O65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P65" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="R65" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="S65" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T65" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="U65" t="n">
-        <v>8.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="V65" t="n">
-        <v>7.8</v>
+        <v>9.75</v>
       </c>
       <c r="W65" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X65" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AA65" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB65" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD65" t="n">
         <v>101</v>
       </c>
       <c r="AE65" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG65" t="n">
         <v>11</v>
       </c>
-      <c r="AG65" t="n">
-        <v>9</v>
-      </c>
       <c r="AH65" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI65" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ65" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
@@ -8429,10 +8429,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I66" t="n">
         <v>4.15</v>
@@ -8440,16 +8440,16 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="N66" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O66" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P66" t="n">
         <v>1.39</v>
@@ -8458,13 +8458,13 @@
         <v>2.57</v>
       </c>
       <c r="R66" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U66" t="n">
         <v>8.5</v>
@@ -8479,28 +8479,28 @@
         <v>14</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z66" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB66" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD66" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE66" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG66" t="n">
         <v>13.5</v>
@@ -8509,10 +8509,10 @@
         <v>65</v>
       </c>
       <c r="AI66" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="67">
@@ -8677,7 +8677,7 @@
         <v>1.08</v>
       </c>
       <c r="K68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L68" t="n">
         <v>1.4</v>
@@ -8689,7 +8689,7 @@
         <v>2.25</v>
       </c>
       <c r="O68" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P68" t="n">
         <v>1.5</v>
@@ -8811,7 +8811,7 @@
         <v>2.25</v>
       </c>
       <c r="O69" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P69" t="n">
         <v>1.5</v>
@@ -8930,7 +8930,7 @@
         <v>3.75</v>
       </c>
       <c r="N70" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O70" t="n">
         <v>2.05</v>
@@ -9064,10 +9064,10 @@
         <v>2.63</v>
       </c>
       <c r="R71" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S71" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T71" t="n">
         <v>8</v>
@@ -9177,7 +9177,7 @@
         <v>2.15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P72" t="n">
         <v>1.44</v>
@@ -9189,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="S72" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T72" t="n">
         <v>6</v>
@@ -9275,19 +9275,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
         <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -9308,22 +9308,22 @@
         <v>2.63</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S73" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V73" t="n">
         <v>9</v>
       </c>
       <c r="W73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X73" t="n">
         <v>17</v>
@@ -9332,7 +9332,7 @@
         <v>29</v>
       </c>
       <c r="Z73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA73" t="n">
         <v>7</v>
@@ -9344,7 +9344,7 @@
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE73" t="n">
         <v>9.5</v>
@@ -9353,16 +9353,16 @@
         <v>17</v>
       </c>
       <c r="AG73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI73" t="n">
         <v>29</v>
       </c>
       <c r="AJ73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -9430,10 +9430,10 @@
         <v>2.75</v>
       </c>
       <c r="R74" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S74" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T74" t="n">
         <v>7.5</v>
@@ -9784,10 +9784,10 @@
         <v>4.33</v>
       </c>
       <c r="N77" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O77" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P77" t="n">
         <v>1.3</v>
@@ -9904,10 +9904,10 @@
         <v>3.75</v>
       </c>
       <c r="N78" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O78" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P78" t="n">
         <v>1.4</v>
@@ -10392,10 +10392,10 @@
         <v>2.63</v>
       </c>
       <c r="N82" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P82" t="n">
         <v>1.57</v>
@@ -10493,19 +10493,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J83" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
         <v>1.4</v>
@@ -10514,10 +10514,10 @@
         <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P83" t="n">
         <v>1.5</v>
@@ -10535,22 +10535,22 @@
         <v>8</v>
       </c>
       <c r="U83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V83" t="n">
         <v>11</v>
       </c>
       <c r="W83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X83" t="n">
         <v>26</v>
       </c>
       <c r="Y83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA83" t="n">
         <v>6.5</v>
@@ -10571,7 +10571,7 @@
         <v>11</v>
       </c>
       <c r="AG83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH83" t="n">
         <v>23</v>
@@ -10630,16 +10630,16 @@
         <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N84" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P84" t="n">
         <v>1.4</v>
@@ -10758,10 +10758,10 @@
         <v>3.2</v>
       </c>
       <c r="N85" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O85" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10880,10 +10880,10 @@
         <v>3.4</v>
       </c>
       <c r="N86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O86" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="P86" t="n">
         <v>1.44</v>
@@ -10990,13 +10990,13 @@
         <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K87" t="n">
         <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M87" t="n">
         <v>2.5</v>
@@ -11005,7 +11005,7 @@
         <v>2.6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P87" t="n">
         <v>1.57</v>
@@ -11103,7 +11103,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H88" t="n">
         <v>3.5</v>
@@ -11112,16 +11112,16 @@
         <v>7.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K88" t="n">
         <v>7</v>
       </c>
       <c r="L88" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M88" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N88" t="n">
         <v>2.35</v>
@@ -11231,16 +11231,16 @@
         <v>3.75</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J89" t="n">
         <v>1.03</v>
       </c>
       <c r="K89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>3.1</v>
@@ -11356,13 +11356,13 @@
         <v>3.3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K90" t="n">
         <v>9</v>
       </c>
       <c r="L90" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M90" t="n">
         <v>3.25</v>
@@ -11475,25 +11475,25 @@
         <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J91" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K91" t="n">
         <v>11</v>
       </c>
       <c r="L91" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M91" t="n">
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O91" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11591,43 +11591,43 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H92" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J92" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K92" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L92" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M92" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="O92" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="P92" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S92" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T92" t="n">
         <v>12</v>
@@ -11642,31 +11642,31 @@
         <v>51</v>
       </c>
       <c r="X92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y92" t="n">
         <v>41</v>
       </c>
       <c r="Z92" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA92" t="n">
         <v>7.5</v>
       </c>
       <c r="AB92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC92" t="n">
         <v>51</v>
       </c>
       <c r="AD92" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG92" t="n">
         <v>8.5</v>
@@ -11675,10 +11675,10 @@
         <v>13</v>
       </c>
       <c r="AI92" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ92" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -11722,13 +11722,13 @@
         <v>2.15</v>
       </c>
       <c r="J93" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K93" t="n">
         <v>13</v>
       </c>
       <c r="L93" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -11978,10 +11978,10 @@
         <v>3.75</v>
       </c>
       <c r="N95" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O95" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P95" t="n">
         <v>1.4</v>
@@ -12079,19 +12079,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H96" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J96" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K96" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L96" t="n">
         <v>1.29</v>
@@ -12121,7 +12121,7 @@
         <v>6.5</v>
       </c>
       <c r="U96" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V96" t="n">
         <v>8.5</v>
@@ -12160,7 +12160,7 @@
         <v>19</v>
       </c>
       <c r="AH96" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI96" t="n">
         <v>41</v>
@@ -12323,13 +12323,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J98" t="n">
         <v>1.07</v>
@@ -12362,22 +12362,22 @@
         <v>1.83</v>
       </c>
       <c r="T98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U98" t="n">
         <v>15</v>
       </c>
       <c r="V98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W98" t="n">
         <v>34</v>
       </c>
       <c r="X98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z98" t="n">
         <v>8.5</v>
@@ -12398,7 +12398,7 @@
         <v>7</v>
       </c>
       <c r="AF98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG98" t="n">
         <v>9.5</v>
@@ -12407,7 +12407,7 @@
         <v>21</v>
       </c>
       <c r="AI98" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ98" t="n">
         <v>34</v>
@@ -12445,19 +12445,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J99" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L99" t="n">
         <v>1.5</v>
@@ -12484,7 +12484,7 @@
         <v>1.67</v>
       </c>
       <c r="T99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U99" t="n">
         <v>12</v>
@@ -12508,7 +12508,7 @@
         <v>6</v>
       </c>
       <c r="AB99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC99" t="n">
         <v>67</v>
@@ -12567,13 +12567,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I100" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J100" t="n">
         <v>1.08</v>
@@ -12591,7 +12591,7 @@
         <v>2.25</v>
       </c>
       <c r="O100" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P100" t="n">
         <v>1.5</v>
@@ -12606,16 +12606,16 @@
         <v>1.8</v>
       </c>
       <c r="T100" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X100" t="n">
         <v>26</v>
@@ -12624,19 +12624,19 @@
         <v>41</v>
       </c>
       <c r="Z100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA100" t="n">
         <v>6</v>
       </c>
       <c r="AB100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC100" t="n">
         <v>51</v>
       </c>
       <c r="AD100" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE100" t="n">
         <v>7</v>
@@ -12648,10 +12648,10 @@
         <v>10</v>
       </c>
       <c r="AH100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ100" t="n">
         <v>34</v>
@@ -12710,10 +12710,10 @@
         <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O101" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P101" t="n">
         <v>1.4</v>
@@ -12811,13 +12811,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I102" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.3</v>
       </c>
       <c r="J102" t="n">
         <v>1.06</v>
@@ -12826,16 +12826,16 @@
         <v>10</v>
       </c>
       <c r="L102" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M102" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N102" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O102" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P102" t="n">
         <v>1.44</v>
@@ -12844,10 +12844,10 @@
         <v>2.63</v>
       </c>
       <c r="R102" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S102" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -12862,7 +12862,7 @@
         <v>19</v>
       </c>
       <c r="X102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y102" t="n">
         <v>29</v>
@@ -12957,7 +12957,7 @@
         <v>2.2</v>
       </c>
       <c r="O103" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P103" t="n">
         <v>1.5</v>
@@ -13076,10 +13076,10 @@
         <v>3.5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P104" t="n">
         <v>1.4</v>
@@ -13198,10 +13198,10 @@
         <v>3.25</v>
       </c>
       <c r="N105" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O105" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P105" t="n">
         <v>1.44</v>
@@ -13320,10 +13320,10 @@
         <v>3.25</v>
       </c>
       <c r="N106" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O106" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P106" t="n">
         <v>1.44</v>
@@ -13660,10 +13660,10 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M109" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="N109" t="n">
         <v>1.7</v>
@@ -13674,10 +13674,10 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S109" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T109" t="n">
         <v>6.7</v>
@@ -13772,13 +13772,13 @@
         <v>11</v>
       </c>
       <c r="J110" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K110" t="n">
         <v>15</v>
       </c>
       <c r="L110" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M110" t="n">
         <v>5.5</v>
@@ -13906,10 +13906,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O111" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P111" t="n">
         <v>1.36</v>
@@ -14150,10 +14150,10 @@
         <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -14260,22 +14260,22 @@
         <v>1.91</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K114" t="n">
         <v>11</v>
       </c>
       <c r="L114" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M114" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N114" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O114" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P114" t="n">
         <v>1.4</v>
@@ -14495,13 +14495,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H116" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I116" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -14524,37 +14524,37 @@
         <v>2.22</v>
       </c>
       <c r="R116" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S116" t="n">
         <v>1.65</v>
       </c>
       <c r="T116" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U116" t="n">
         <v>8.25</v>
       </c>
       <c r="V116" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W116" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X116" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y116" t="n">
         <v>37</v>
       </c>
       <c r="Z116" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB116" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC116" t="n">
         <v>110</v>
@@ -14566,19 +14566,19 @@
         <v>8.75</v>
       </c>
       <c r="AF116" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG116" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH116" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI116" t="n">
         <v>45</v>
       </c>
       <c r="AJ116" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
@@ -14613,22 +14613,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H117" t="n">
         <v>3.25</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K117" t="n">
         <v>9.5</v>
       </c>
       <c r="L117" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M117" t="n">
         <v>3.4</v>
@@ -14655,7 +14655,7 @@
         <v>7.5</v>
       </c>
       <c r="U117" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V117" t="n">
         <v>9.5</v>
@@ -14691,7 +14691,7 @@
         <v>15</v>
       </c>
       <c r="AG117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH117" t="n">
         <v>34</v>
@@ -14744,13 +14744,13 @@
         <v>4.1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K118" t="n">
         <v>19</v>
       </c>
       <c r="L118" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M118" t="n">
         <v>5.5</v>
@@ -14866,13 +14866,13 @@
         <v>3.8</v>
       </c>
       <c r="J119" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L119" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
@@ -14979,22 +14979,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J120" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K120" t="n">
         <v>15</v>
       </c>
       <c r="L120" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M120" t="n">
         <v>4.5</v>
@@ -15012,7 +15012,7 @@
         <v>3.4</v>
       </c>
       <c r="R120" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S120" t="n">
         <v>2.2</v>
@@ -15042,7 +15042,7 @@
         <v>8</v>
       </c>
       <c r="AB120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC120" t="n">
         <v>41</v>
@@ -15101,7 +15101,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H121" t="n">
         <v>3.6</v>
@@ -15110,13 +15110,13 @@
         <v>2.15</v>
       </c>
       <c r="J121" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
         <v>13</v>
       </c>
       <c r="L121" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -15134,7 +15134,7 @@
         <v>3.25</v>
       </c>
       <c r="R121" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S121" t="n">
         <v>2.2</v>
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H122" t="n">
         <v>3.6</v>
@@ -15232,13 +15232,13 @@
         <v>3.75</v>
       </c>
       <c r="J122" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K122" t="n">
         <v>11</v>
       </c>
       <c r="L122" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M122" t="n">
         <v>3.5</v>
@@ -15256,10 +15256,10 @@
         <v>2.75</v>
       </c>
       <c r="R122" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S122" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T122" t="n">
         <v>7.5</v>
@@ -15457,82 +15457,82 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I124" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="O124" t="n">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S124" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="T124" t="n">
-        <v>7.2</v>
+        <v>9.75</v>
       </c>
       <c r="U124" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="V124" t="n">
         <v>8.75</v>
       </c>
       <c r="W124" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X124" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y124" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z124" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AA124" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AC124" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AD124" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="AE124" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF124" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG124" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AH124" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AI124" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ124" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
@@ -15567,88 +15567,88 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>4.75</v>
+        <v>6.7</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M125" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="N125" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O125" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R125" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S125" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T125" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U125" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="V125" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W125" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X125" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z125" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC125" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD125" t="inlineStr"/>
       <c r="AE125" t="n">
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="AF125" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG125" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AH125" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI125" t="n">
         <v>90</v>
       </c>
-      <c r="AI125" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ125" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
@@ -15795,22 +15795,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K127" t="n">
         <v>11</v>
       </c>
       <c r="L127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M127" t="n">
         <v>3.5</v>
@@ -15837,16 +15837,16 @@
         <v>9.5</v>
       </c>
       <c r="U127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y127" t="n">
         <v>29</v>
@@ -15855,7 +15855,7 @@
         <v>11</v>
       </c>
       <c r="AA127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB127" t="n">
         <v>13</v>
@@ -15867,7 +15867,7 @@
         <v>201</v>
       </c>
       <c r="AE127" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF127" t="n">
         <v>12</v>
@@ -15876,7 +15876,7 @@
         <v>9.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI127" t="n">
         <v>19</v>
@@ -15917,22 +15917,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H128" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I128" t="n">
         <v>1.5</v>
       </c>
       <c r="J128" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K128" t="n">
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
         <v>3.5</v>
@@ -15950,10 +15950,10 @@
         <v>2.75</v>
       </c>
       <c r="R128" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S128" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T128" t="n">
         <v>13</v>
@@ -15962,22 +15962,22 @@
         <v>29</v>
       </c>
       <c r="V128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W128" t="n">
         <v>67</v>
       </c>
       <c r="X128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y128" t="n">
         <v>51</v>
       </c>
       <c r="Z128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA128" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB128" t="n">
         <v>21</v>
@@ -15989,16 +15989,16 @@
         <v>301</v>
       </c>
       <c r="AE128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG128" t="n">
         <v>8.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI128" t="n">
         <v>13</v>
@@ -16403,13 +16403,13 @@
         <v>3.2</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J132" t="n">
         <v>1.06</v>
       </c>
       <c r="K132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L132" t="n">
         <v>1.3</v>
@@ -16418,10 +16418,10 @@
         <v>3.4</v>
       </c>
       <c r="N132" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O132" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P132" t="n">
         <v>1.44</v>
@@ -16445,7 +16445,7 @@
         <v>9.5</v>
       </c>
       <c r="W132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X132" t="n">
         <v>19</v>
@@ -16460,7 +16460,7 @@
         <v>6</v>
       </c>
       <c r="AB132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC132" t="n">
         <v>51</v>
@@ -16481,7 +16481,7 @@
         <v>34</v>
       </c>
       <c r="AI132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ132" t="n">
         <v>34</v>
@@ -16519,13 +16519,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="H133" t="n">
         <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J133" t="n">
         <v>1.07</v>
@@ -16540,10 +16540,10 @@
         <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P133" t="n">
         <v>1.5</v>
@@ -16561,13 +16561,13 @@
         <v>8</v>
       </c>
       <c r="U133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W133" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X133" t="n">
         <v>23</v>
@@ -16591,16 +16591,16 @@
         <v>301</v>
       </c>
       <c r="AE133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG133" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI133" t="n">
         <v>23</v>
@@ -16894,10 +16894,10 @@
         <v>6</v>
       </c>
       <c r="J136" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L136" t="n">
         <v>1.3</v>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>3.2</v>
@@ -17028,16 +17028,16 @@
         <v>3.4</v>
       </c>
       <c r="N137" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O137" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P137" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R137" t="n">
         <v>1.75</v>
@@ -17061,7 +17061,7 @@
         <v>23</v>
       </c>
       <c r="Y137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z137" t="n">
         <v>9.5</v>
@@ -17129,13 +17129,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H138" t="n">
         <v>3.05</v>
       </c>
       <c r="I138" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="J138" t="n">
         <v>1.11</v>
@@ -17159,28 +17159,28 @@
         <v>1.57</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R138" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S138" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T138" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U138" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V138" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W138" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="X138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y138" t="n">
         <v>40</v>
@@ -17189,10 +17189,10 @@
         <v>5.7</v>
       </c>
       <c r="AA138" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB138" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC138" t="n">
         <v>120</v>
@@ -17201,22 +17201,22 @@
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG138" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI138" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ138" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
@@ -17296,7 +17296,7 @@
         <v>23</v>
       </c>
       <c r="V139" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W139" t="n">
         <v>60</v>
@@ -17534,19 +17534,19 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U141" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V141" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W141" t="n">
         <v>32</v>
       </c>
       <c r="X141" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y141" t="n">
         <v>50</v>
@@ -17567,22 +17567,22 @@
         <v>101</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF141" t="n">
         <v>13</v>
       </c>
       <c r="AG141" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH141" t="n">
         <v>35</v>
       </c>
       <c r="AI141" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ141" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
@@ -17620,7 +17620,7 @@
         <v>2.32</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -17686,7 +17686,7 @@
         <v>80</v>
       </c>
       <c r="AD142" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE142" t="n">
         <v>8</v>
@@ -17739,16 +17739,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H143" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I143" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J143" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K143" t="n">
         <v>7.1</v>
@@ -17766,67 +17766,67 @@
         <v>1.75</v>
       </c>
       <c r="P143" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T143" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U143" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="V143" t="n">
         <v>8.25</v>
       </c>
       <c r="W143" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X143" t="n">
         <v>14</v>
       </c>
       <c r="Y143" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z143" t="n">
         <v>7.1</v>
       </c>
       <c r="AA143" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC143" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH143" t="n">
         <v>90</v>
       </c>
-      <c r="AD143" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>80</v>
-      </c>
       <c r="AI143" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144">
@@ -17894,28 +17894,28 @@
         <v>2.6</v>
       </c>
       <c r="R144" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S144" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T144" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U144" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V144" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W144" t="n">
         <v>20</v>
       </c>
       <c r="X144" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y144" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z144" t="n">
         <v>7</v>
@@ -17933,19 +17933,19 @@
         <v>450</v>
       </c>
       <c r="AE144" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF144" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG144" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH144" t="n">
         <v>45</v>
       </c>
       <c r="AI144" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ144" t="n">
         <v>35</v>
@@ -17986,46 +17986,46 @@
         <v>3</v>
       </c>
       <c r="H145" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I145" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J145" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K145" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L145" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M145" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="N145" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O145" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P145" t="n">
         <v>1.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R145" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S145" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T145" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U145" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V145" t="n">
         <v>11</v>
@@ -18040,22 +18040,22 @@
         <v>40</v>
       </c>
       <c r="Z145" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA145" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB145" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC145" t="n">
         <v>90</v>
       </c>
       <c r="AD145" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE145" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF145" t="n">
         <v>10.75</v>
@@ -18064,10 +18064,10 @@
         <v>9.75</v>
       </c>
       <c r="AH145" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI145" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ145" t="n">
         <v>40</v>
@@ -18111,7 +18111,7 @@
         <v>3.5</v>
       </c>
       <c r="I146" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J146" t="n">
         <v>1.07</v>
@@ -18138,7 +18138,7 @@
         <v>2.52</v>
       </c>
       <c r="R146" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S146" t="n">
         <v>1.7</v>
@@ -18168,7 +18168,7 @@
         <v>7</v>
       </c>
       <c r="AB146" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC146" t="n">
         <v>110</v>
@@ -18177,7 +18177,7 @@
         <v>101</v>
       </c>
       <c r="AE146" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF146" t="n">
         <v>27</v>
@@ -18227,13 +18227,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H147" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="J147" t="n">
         <v>1.05</v>
@@ -18254,7 +18254,7 @@
         <v>1.91</v>
       </c>
       <c r="P147" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q147" t="n">
         <v>2.8</v>
@@ -18266,16 +18266,16 @@
         <v>1.93</v>
       </c>
       <c r="T147" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U147" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V147" t="n">
         <v>8.25</v>
       </c>
       <c r="W147" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X147" t="n">
         <v>13.5</v>
@@ -18287,34 +18287,34 @@
         <v>7.7</v>
       </c>
       <c r="AA147" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB147" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC147" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD147" t="n">
         <v>500</v>
       </c>
       <c r="AE147" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG147" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH147" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI147" t="n">
         <v>40</v>
       </c>
       <c r="AJ147" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148">
@@ -18373,7 +18373,7 @@
         <v>2.25</v>
       </c>
       <c r="O148" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P148" t="n">
         <v>1.5</v>
@@ -18495,7 +18495,7 @@
         <v>2.35</v>
       </c>
       <c r="O149" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P149" t="n">
         <v>1.53</v>
@@ -18593,13 +18593,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H150" t="n">
         <v>3.9</v>
       </c>
       <c r="I150" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J150" t="n">
         <v>1.07</v>
@@ -18614,10 +18614,10 @@
         <v>3.25</v>
       </c>
       <c r="N150" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O150" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P150" t="n">
         <v>1.44</v>
@@ -18626,16 +18626,16 @@
         <v>2.63</v>
       </c>
       <c r="R150" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S150" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T150" t="n">
         <v>6</v>
       </c>
       <c r="U150" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V150" t="n">
         <v>8.5</v>
@@ -18724,22 +18724,22 @@
         <v>2.3</v>
       </c>
       <c r="J151" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L151" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N151" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O151" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P151" t="n">
         <v>1.44</v>
@@ -18983,7 +18983,7 @@
         <v>2.6</v>
       </c>
       <c r="O153" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P153" t="n">
         <v>1.57</v>
@@ -19090,13 +19090,13 @@
         <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K154" t="n">
         <v>9.5</v>
       </c>
       <c r="L154" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M154" t="n">
         <v>3.4</v>
@@ -19105,7 +19105,7 @@
         <v>2.05</v>
       </c>
       <c r="O154" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P154" t="n">
         <v>1.44</v>
@@ -19126,19 +19126,19 @@
         <v>12</v>
       </c>
       <c r="V154" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W154" t="n">
         <v>23</v>
       </c>
       <c r="X154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y154" t="n">
         <v>29</v>
       </c>
       <c r="Z154" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA154" t="n">
         <v>6</v>
@@ -19153,7 +19153,7 @@
         <v>251</v>
       </c>
       <c r="AE154" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF154" t="n">
         <v>15</v>
@@ -19203,25 +19203,25 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H155" t="n">
         <v>3.1</v>
       </c>
       <c r="I155" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J155" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K155" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L155" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M155" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N155" t="n">
         <v>2.35</v>
@@ -19248,10 +19248,10 @@
         <v>11</v>
       </c>
       <c r="V155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W155" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X155" t="n">
         <v>23</v>
@@ -19278,7 +19278,7 @@
         <v>7.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG155" t="n">
         <v>11</v>
@@ -19334,22 +19334,22 @@
         <v>2.38</v>
       </c>
       <c r="J156" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K156" t="n">
         <v>11</v>
       </c>
       <c r="L156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M156" t="n">
         <v>3.5</v>
       </c>
       <c r="N156" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O156" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P156" t="n">
         <v>1.4</v>
@@ -19447,16 +19447,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H157" t="n">
         <v>3.4</v>
       </c>
       <c r="I157" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J157" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K157" t="n">
         <v>11</v>
@@ -19465,13 +19465,13 @@
         <v>1.25</v>
       </c>
       <c r="M157" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N157" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O157" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P157" t="n">
         <v>1.4</v>
@@ -19504,31 +19504,31 @@
         <v>29</v>
       </c>
       <c r="Z157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA157" t="n">
         <v>6.5</v>
       </c>
       <c r="AB157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC157" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD157" t="n">
         <v>201</v>
       </c>
       <c r="AE157" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI157" t="n">
         <v>21</v>
@@ -19569,27 +19569,27 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="H158" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I158" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M158" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N158" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O158" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
@@ -19600,55 +19600,55 @@
         <v>2.08</v>
       </c>
       <c r="T158" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="U158" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="V158" t="n">
-        <v>8.6</v>
+        <v>10.25</v>
       </c>
       <c r="W158" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X158" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y158" t="n">
         <v>26</v>
       </c>
       <c r="Z158" t="n">
-        <v>9.199999999999999</v>
+        <v>11.25</v>
       </c>
       <c r="AA158" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB158" t="n">
         <v>11</v>
       </c>
       <c r="AC158" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD158" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AE158" t="n">
         <v>6.8</v>
       </c>
       <c r="AF158" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG158" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AH158" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI158" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AJ158" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="159">
@@ -19745,86 +19745,86 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I160" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M160" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="N160" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="O160" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S160" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="T160" t="n">
-        <v>7.6</v>
+        <v>9.75</v>
       </c>
       <c r="U160" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="V160" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="W160" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X160" t="n">
         <v>14</v>
       </c>
       <c r="Y160" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z160" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC160" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AD160" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AE160" t="n">
-        <v>8.6</v>
+        <v>9.25</v>
       </c>
       <c r="AF160" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG160" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="AH160" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI160" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AJ160" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="161">
@@ -19859,13 +19859,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>3.3</v>
       </c>
       <c r="I161" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J161" t="n">
         <v>1.08</v>
@@ -19883,7 +19883,7 @@
         <v>2.4</v>
       </c>
       <c r="O161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P161" t="n">
         <v>1.53</v>
@@ -19901,7 +19901,7 @@
         <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V161" t="n">
         <v>12</v>
@@ -19934,10 +19934,10 @@
         <v>6.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH161" t="n">
         <v>21</v>
@@ -19946,7 +19946,7 @@
         <v>21</v>
       </c>
       <c r="AJ161" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162">
@@ -19981,7 +19981,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H162" t="n">
         <v>4.1</v>
@@ -19996,16 +19996,16 @@
         <v>13</v>
       </c>
       <c r="L162" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M162" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N162" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O162" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P162" t="n">
         <v>1.33</v>
@@ -20103,7 +20103,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H163" t="n">
         <v>3.6</v>
@@ -20225,13 +20225,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H164" t="n">
         <v>3.6</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J164" t="n">
         <v>1.05</v>
@@ -20264,7 +20264,7 @@
         <v>2</v>
       </c>
       <c r="T164" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U164" t="n">
         <v>11</v>
@@ -20273,7 +20273,7 @@
         <v>9.5</v>
       </c>
       <c r="W164" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X164" t="n">
         <v>19</v>
@@ -20353,7 +20353,7 @@
         <v>3.9</v>
       </c>
       <c r="I165" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J165" t="n">
         <v>1.03</v>
@@ -20469,13 +20469,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="H166" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I166" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -20497,34 +20497,34 @@
         <v>1.42</v>
       </c>
       <c r="S166" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="T166" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U166" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V166" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W166" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="X166" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y166" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z166" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA166" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB166" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC166" t="n">
         <v>32</v>
@@ -20533,22 +20533,22 @@
         <v>175</v>
       </c>
       <c r="AE166" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF166" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG166" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH166" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AI166" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AJ166" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
@@ -20600,57 +20600,57 @@
         <v>3.7</v>
       </c>
       <c r="N167" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O167" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S167" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T167" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U167" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V167" t="n">
         <v>8.25</v>
       </c>
       <c r="W167" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X167" t="n">
         <v>11.25</v>
       </c>
-      <c r="X167" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Y167" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z167" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA167" t="n">
         <v>8.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC167" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD167" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE167" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF167" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG167" t="n">
         <v>16.5</v>
@@ -20662,7 +20662,7 @@
         <v>45</v>
       </c>
       <c r="AJ167" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
@@ -20697,13 +20697,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H168" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I168" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -20711,13 +20711,13 @@
         <v>1.21</v>
       </c>
       <c r="M168" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N168" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O168" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
@@ -20731,16 +20731,16 @@
         <v>8.25</v>
       </c>
       <c r="U168" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V168" t="n">
         <v>8.25</v>
       </c>
       <c r="W168" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X168" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y168" t="n">
         <v>22</v>
@@ -20761,22 +20761,22 @@
         <v>400</v>
       </c>
       <c r="AE168" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF168" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG168" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH168" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI168" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ168" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="169">
@@ -20817,15 +20817,15 @@
         <v>3.35</v>
       </c>
       <c r="I169" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M169" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N169" t="n">
         <v>1.78</v>
@@ -20842,10 +20842,10 @@
         <v>1.98</v>
       </c>
       <c r="T169" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U169" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V169" t="n">
         <v>8.75</v>
@@ -20857,7 +20857,7 @@
         <v>16.5</v>
       </c>
       <c r="Y169" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z169" t="n">
         <v>10.5</v>
@@ -20866,7 +20866,7 @@
         <v>6.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC169" t="n">
         <v>55</v>
@@ -20875,10 +20875,10 @@
         <v>400</v>
       </c>
       <c r="AE169" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF169" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG169" t="n">
         <v>11</v>
@@ -20925,10 +20925,10 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H170" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I170" t="n">
         <v>4.35</v>
@@ -20950,43 +20950,43 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S170" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T170" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V170" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W170" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X170" t="n">
         <v>13</v>
       </c>
       <c r="Y170" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z170" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA170" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB170" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC170" t="n">
         <v>60</v>
       </c>
       <c r="AD170" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE170" t="n">
         <v>13</v>
@@ -21223,19 +21223,19 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H173" t="n">
         <v>2.9</v>
       </c>
       <c r="I173" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J173" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K173" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L173" t="n">
         <v>1.53</v>
@@ -21265,13 +21265,13 @@
         <v>5.5</v>
       </c>
       <c r="U173" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V173" t="n">
         <v>10</v>
       </c>
       <c r="W173" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X173" t="n">
         <v>21</v>
@@ -21283,7 +21283,7 @@
         <v>6</v>
       </c>
       <c r="AA173" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB173" t="n">
         <v>21</v>
@@ -21295,10 +21295,10 @@
         <v>101</v>
       </c>
       <c r="AE173" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF173" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG173" t="n">
         <v>15</v>
@@ -21854,10 +21854,10 @@
         <v>3.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O178" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P178" t="n">
         <v>1.4</v>
@@ -22077,19 +22077,19 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>3.1</v>
       </c>
       <c r="I180" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L180" t="n">
         <v>1.33</v>
@@ -22119,7 +22119,7 @@
         <v>8.5</v>
       </c>
       <c r="U180" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V180" t="n">
         <v>10</v>
@@ -22155,13 +22155,13 @@
         <v>13</v>
       </c>
       <c r="AG180" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI180" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ180" t="n">
         <v>34</v>
@@ -22464,10 +22464,10 @@
         <v>3.25</v>
       </c>
       <c r="N183" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O183" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -22565,13 +22565,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H184" t="n">
         <v>3.6</v>
       </c>
       <c r="I184" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J184" t="n">
         <v>1.07</v>
@@ -22586,10 +22586,10 @@
         <v>3</v>
       </c>
       <c r="N184" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O184" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P184" t="n">
         <v>1.44</v>
@@ -22628,7 +22628,7 @@
         <v>7</v>
       </c>
       <c r="AB184" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC184" t="n">
         <v>67</v>
@@ -22643,7 +22643,7 @@
         <v>6.5</v>
       </c>
       <c r="AG184" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH184" t="n">
         <v>11</v>
@@ -22732,7 +22732,7 @@
         <v>26</v>
       </c>
       <c r="V185" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W185" t="n">
         <v>51</v>
@@ -22756,7 +22756,7 @@
         <v>67</v>
       </c>
       <c r="AD185" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE185" t="n">
         <v>6</v>
@@ -22809,13 +22809,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J186" t="n">
         <v>1.08</v>
@@ -22836,10 +22836,10 @@
         <v>1.57</v>
       </c>
       <c r="P186" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q186" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R186" t="n">
         <v>1.91</v>
@@ -22857,10 +22857,10 @@
         <v>10</v>
       </c>
       <c r="W186" t="n">
+        <v>26</v>
+      </c>
+      <c r="X186" t="n">
         <v>23</v>
-      </c>
-      <c r="X186" t="n">
-        <v>21</v>
       </c>
       <c r="Y186" t="n">
         <v>34</v>
@@ -22884,16 +22884,16 @@
         <v>8</v>
       </c>
       <c r="AF186" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH186" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI186" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ186" t="n">
         <v>41</v>
@@ -23419,22 +23419,22 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I191" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J191" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K191" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L191" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M191" t="n">
         <v>4.33</v>
@@ -23458,13 +23458,13 @@
         <v>2.38</v>
       </c>
       <c r="T191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U191" t="n">
         <v>17</v>
       </c>
       <c r="V191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W191" t="n">
         <v>29</v>
@@ -23494,16 +23494,16 @@
         <v>11</v>
       </c>
       <c r="AF191" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG191" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH191" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI191" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ191" t="n">
         <v>23</v>
@@ -23550,13 +23550,13 @@
         <v>1.57</v>
       </c>
       <c r="J192" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K192" t="n">
         <v>7.5</v>
       </c>
       <c r="L192" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M192" t="n">
         <v>3</v>
@@ -23678,7 +23678,7 @@
         <v>15</v>
       </c>
       <c r="L193" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M193" t="n">
         <v>6.5</v>
@@ -23800,7 +23800,7 @@
         <v>23</v>
       </c>
       <c r="L194" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M194" t="n">
         <v>7</v>
@@ -23916,13 +23916,13 @@
         <v>4.5</v>
       </c>
       <c r="J195" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K195" t="n">
         <v>8</v>
       </c>
       <c r="L195" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M195" t="n">
         <v>3</v>
@@ -24035,7 +24035,7 @@
         <v>3.7</v>
       </c>
       <c r="I196" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J196" t="n">
         <v>1.05</v>
@@ -24062,10 +24062,10 @@
         <v>2.75</v>
       </c>
       <c r="R196" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S196" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T196" t="n">
         <v>12</v>
@@ -24151,13 +24151,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H197" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I197" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J197" t="n">
         <v>1.06</v>
@@ -24172,10 +24172,10 @@
         <v>3.4</v>
       </c>
       <c r="N197" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O197" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P197" t="n">
         <v>1.44</v>
@@ -24184,22 +24184,22 @@
         <v>2.63</v>
       </c>
       <c r="R197" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S197" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T197" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U197" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V197" t="n">
         <v>8.5</v>
       </c>
       <c r="W197" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X197" t="n">
         <v>15</v>
@@ -24208,28 +24208,28 @@
         <v>29</v>
       </c>
       <c r="Z197" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA197" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC197" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD197" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE197" t="n">
         <v>12</v>
       </c>
       <c r="AF197" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG197" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH197" t="n">
         <v>51</v>
@@ -24238,7 +24238,7 @@
         <v>41</v>
       </c>
       <c r="AJ197" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198">
@@ -24279,7 +24279,7 @@
         <v>3.5</v>
       </c>
       <c r="I198" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J198" t="n">
         <v>1.06</v>
@@ -24309,7 +24309,7 @@
         <v>2</v>
       </c>
       <c r="S198" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T198" t="n">
         <v>11</v>
@@ -24395,7 +24395,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>3.5</v>
@@ -24428,10 +24428,10 @@
         <v>2.75</v>
       </c>
       <c r="R199" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S199" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -24517,31 +24517,31 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H200" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J200" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K200" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L200" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M200" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N200" t="n">
         <v>2.05</v>
       </c>
       <c r="O200" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P200" t="n">
         <v>1.44</v>
@@ -24550,10 +24550,10 @@
         <v>2.63</v>
       </c>
       <c r="R200" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S200" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T200" t="n">
         <v>10</v>
@@ -24565,7 +24565,7 @@
         <v>13</v>
       </c>
       <c r="W200" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X200" t="n">
         <v>29</v>
@@ -24589,16 +24589,16 @@
         <v>800</v>
       </c>
       <c r="AE200" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG200" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG200" t="n">
-        <v>9</v>
-      </c>
       <c r="AH200" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI200" t="n">
         <v>17</v>
@@ -24648,10 +24648,10 @@
         <v>3.9</v>
       </c>
       <c r="J201" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K201" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L201" t="n">
         <v>1.36</v>
@@ -24660,10 +24660,10 @@
         <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O201" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P201" t="n">
         <v>1.5</v>
@@ -24708,7 +24708,7 @@
         <v>67</v>
       </c>
       <c r="AD201" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AE201" t="n">
         <v>10</v>
@@ -24785,7 +24785,7 @@
         <v>1.88</v>
       </c>
       <c r="O202" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P202" t="n">
         <v>1.42</v>
@@ -24806,7 +24806,7 @@
         <v>11.75</v>
       </c>
       <c r="V202" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W202" t="n">
         <v>24</v>
@@ -24833,7 +24833,7 @@
         <v>450</v>
       </c>
       <c r="AE202" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF202" t="n">
         <v>15</v>
@@ -24883,94 +24883,94 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="H203" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="I203" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="J203" t="n">
         <v>1.02</v>
       </c>
       <c r="K203" t="n">
+        <v>10</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M203" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T203" t="n">
+        <v>11</v>
+      </c>
+      <c r="U203" t="n">
+        <v>9</v>
+      </c>
+      <c r="V203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X203" t="n">
         <v>10.25</v>
       </c>
-      <c r="L203" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M203" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N203" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O203" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="P203" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q203" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R203" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T203" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="U203" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V203" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W203" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X203" t="n">
+      <c r="Y203" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z203" t="n">
         <v>10</v>
       </c>
-      <c r="Y203" t="n">
+      <c r="AA203" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG203" t="n">
         <v>20</v>
       </c>
-      <c r="Z203" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC203" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD203" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF203" t="n">
+      <c r="AH203" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI203" t="n">
         <v>55</v>
       </c>
-      <c r="AG203" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ203" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204">
@@ -25493,25 +25493,25 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="H208" t="n">
         <v>4.2</v>
       </c>
       <c r="I208" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="J208" t="n">
         <v>1.06</v>
       </c>
       <c r="K208" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L208" t="n">
         <v>1.29</v>
       </c>
       <c r="M208" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N208" t="n">
         <v>1.85</v>
@@ -25520,64 +25520,64 @@
         <v>1.85</v>
       </c>
       <c r="P208" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R208" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S208" t="n">
         <v>1.62</v>
       </c>
       <c r="T208" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="U208" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="V208" t="n">
         <v>29</v>
       </c>
       <c r="W208" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="X208" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y208" t="n">
         <v>120</v>
       </c>
-      <c r="Y208" t="n">
-        <v>100</v>
-      </c>
       <c r="Z208" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA208" t="n">
         <v>8.5</v>
       </c>
       <c r="AB208" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC208" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD208" t="n">
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AF208" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AG208" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH208" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH208" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AI208" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ208" t="n">
         <v>32</v>
@@ -25636,10 +25636,10 @@
         <v>3.75</v>
       </c>
       <c r="N209" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O209" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P209" t="n">
         <v>1.4</v>
@@ -25859,13 +25859,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H211" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I211" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J211" t="n">
         <v>1.06</v>
@@ -25880,10 +25880,10 @@
         <v>3.4</v>
       </c>
       <c r="N211" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="O211" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P211" t="n">
         <v>1.44</v>
@@ -25901,16 +25901,16 @@
         <v>7</v>
       </c>
       <c r="U211" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V211" t="n">
         <v>8.5</v>
       </c>
       <c r="W211" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X211" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y211" t="n">
         <v>29</v>
@@ -25937,7 +25937,7 @@
         <v>21</v>
       </c>
       <c r="AG211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH211" t="n">
         <v>41</v>
@@ -25981,19 +25981,19 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>3.1</v>
       </c>
       <c r="I212" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J212" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K212" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L212" t="n">
         <v>1.4</v>
@@ -26002,10 +26002,10 @@
         <v>2.75</v>
       </c>
       <c r="N212" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O212" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P212" t="n">
         <v>1.5</v>
@@ -26029,7 +26029,7 @@
         <v>10</v>
       </c>
       <c r="W212" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X212" t="n">
         <v>23</v>
@@ -26053,10 +26053,10 @@
         <v>351</v>
       </c>
       <c r="AE212" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG212" t="n">
         <v>11</v>
@@ -26106,7 +26106,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I213" t="n">
         <v>2.2</v>
@@ -26127,7 +26127,7 @@
         <v>1.95</v>
       </c>
       <c r="O213" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P213" t="n">
         <v>1.4</v>
@@ -26154,7 +26154,7 @@
         <v>34</v>
       </c>
       <c r="X213" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y213" t="n">
         <v>34</v>
@@ -26169,7 +26169,7 @@
         <v>15</v>
       </c>
       <c r="AC213" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD213" t="n">
         <v>201</v>
@@ -26190,7 +26190,7 @@
         <v>19</v>
       </c>
       <c r="AJ213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
@@ -26246,10 +26246,10 @@
         <v>3.25</v>
       </c>
       <c r="N214" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O214" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P214" t="n">
         <v>1.44</v>
@@ -26347,13 +26347,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H215" t="n">
         <v>3.2</v>
       </c>
       <c r="I215" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="n">
         <v>1.06</v>
@@ -26416,7 +26416,7 @@
         <v>51</v>
       </c>
       <c r="AD215" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE215" t="n">
         <v>9</v>
@@ -26425,7 +26425,7 @@
         <v>15</v>
       </c>
       <c r="AG215" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH215" t="n">
         <v>34</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I216" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J216" t="n">
         <v>1.11</v>
@@ -26484,16 +26484,16 @@
         <v>6.5</v>
       </c>
       <c r="L216" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M216" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N216" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O216" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P216" t="n">
         <v>1.57</v>
@@ -26532,7 +26532,7 @@
         <v>6</v>
       </c>
       <c r="AB216" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC216" t="n">
         <v>67</v>
@@ -26544,7 +26544,7 @@
         <v>7</v>
       </c>
       <c r="AF216" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG216" t="n">
         <v>12</v>
@@ -26600,16 +26600,16 @@
         <v>3.3</v>
       </c>
       <c r="J217" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K217" t="n">
         <v>6</v>
       </c>
       <c r="L217" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M217" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N217" t="n">
         <v>2.7</v>
@@ -26716,46 +26716,46 @@
         <v>2.2</v>
       </c>
       <c r="H218" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I218" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J218" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K218" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L218" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q218" t="n">
         <v>2.2</v>
       </c>
-      <c r="N218" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O218" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P218" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R218" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S218" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T218" t="n">
         <v>5.5</v>
       </c>
       <c r="U218" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V218" t="n">
         <v>10</v>
@@ -26844,7 +26844,7 @@
         <v>7</v>
       </c>
       <c r="J219" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K219" t="n">
         <v>11</v>
@@ -26853,13 +26853,13 @@
         <v>1.33</v>
       </c>
       <c r="M219" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N219" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O219" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P219" t="n">
         <v>1.44</v>
@@ -26966,16 +26966,16 @@
         <v>2.25</v>
       </c>
       <c r="J220" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K220" t="n">
         <v>6</v>
       </c>
       <c r="L220" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M220" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N220" t="n">
         <v>2.63</v>
@@ -27088,13 +27088,13 @@
         <v>3.9</v>
       </c>
       <c r="J221" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K221" t="n">
         <v>7</v>
       </c>
       <c r="L221" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M221" t="n">
         <v>2.75</v>
@@ -27210,13 +27210,13 @@
         <v>5.75</v>
       </c>
       <c r="J222" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K222" t="n">
         <v>10</v>
       </c>
       <c r="L222" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M222" t="n">
         <v>3.5</v>
@@ -27332,13 +27332,13 @@
         <v>3</v>
       </c>
       <c r="J223" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K223" t="n">
         <v>6.5</v>
       </c>
       <c r="L223" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M223" t="n">
         <v>2.5</v>
@@ -27445,22 +27445,22 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H224" t="n">
         <v>3.2</v>
       </c>
       <c r="I224" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J224" t="n">
         <v>1.04</v>
       </c>
       <c r="K224" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L224" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M224" t="n">
         <v>3.25</v>
@@ -27487,22 +27487,22 @@
         <v>8.5</v>
       </c>
       <c r="U224" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V224" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W224" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X224" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y224" t="n">
         <v>34</v>
       </c>
       <c r="Z224" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA224" t="n">
         <v>6.5</v>
@@ -27514,19 +27514,19 @@
         <v>51</v>
       </c>
       <c r="AD224" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE224" t="n">
         <v>8.5</v>
       </c>
       <c r="AF224" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH224" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI224" t="n">
         <v>21</v>
@@ -27576,13 +27576,13 @@
         <v>2.15</v>
       </c>
       <c r="J225" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K225" t="n">
         <v>7</v>
       </c>
       <c r="L225" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M225" t="n">
         <v>2.75</v>
@@ -27698,22 +27698,22 @@
         <v>3.25</v>
       </c>
       <c r="J226" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K226" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L226" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M226" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N226" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O226" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P226" t="n">
         <v>1.5</v>
@@ -27758,7 +27758,7 @@
         <v>51</v>
       </c>
       <c r="AD226" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE226" t="n">
         <v>9</v>
@@ -27820,13 +27820,13 @@
         <v>3.75</v>
       </c>
       <c r="J227" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K227" t="n">
         <v>7.5</v>
       </c>
       <c r="L227" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M227" t="n">
         <v>3</v>
@@ -27942,13 +27942,13 @@
         <v>3.3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K228" t="n">
         <v>6.5</v>
       </c>
       <c r="L228" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M228" t="n">
         <v>2.5</v>
@@ -28308,13 +28308,13 @@
         <v>1.75</v>
       </c>
       <c r="J231" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K231" t="n">
         <v>13</v>
       </c>
       <c r="L231" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M231" t="n">
         <v>4.33</v>
@@ -28430,13 +28430,13 @@
         <v>2.9</v>
       </c>
       <c r="J232" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K232" t="n">
         <v>11</v>
       </c>
       <c r="L232" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M232" t="n">
         <v>3.5</v>
@@ -28543,13 +28543,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H233" t="n">
         <v>3.5</v>
       </c>
       <c r="I233" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J233" t="n">
         <v>1.03</v>
@@ -28576,22 +28576,22 @@
         <v>3.4</v>
       </c>
       <c r="R233" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S233" t="n">
         <v>2.5</v>
       </c>
       <c r="T233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U233" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V233" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W233" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X233" t="n">
         <v>19</v>
@@ -28624,7 +28624,7 @@
         <v>10</v>
       </c>
       <c r="AH233" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI233" t="n">
         <v>17</v>
@@ -28793,13 +28793,13 @@
         <v>5</v>
       </c>
       <c r="I235" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J235" t="n">
         <v>1.02</v>
       </c>
       <c r="K235" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L235" t="n">
         <v>1.13</v>
@@ -28808,10 +28808,10 @@
         <v>5.2</v>
       </c>
       <c r="N235" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O235" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="P235" t="n">
         <v>1.24</v>
@@ -28826,10 +28826,10 @@
         <v>2.1</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U235" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V235" t="n">
         <v>8.5</v>
@@ -28844,7 +28844,7 @@
         <v>19.5</v>
       </c>
       <c r="Z235" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA235" t="n">
         <v>10.5</v>
@@ -28859,13 +28859,13 @@
         <v>300</v>
       </c>
       <c r="AE235" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF235" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG235" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH235" t="n">
         <v>200</v>
@@ -28930,10 +28930,10 @@
         <v>3.4</v>
       </c>
       <c r="N236" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O236" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -29031,13 +29031,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H237" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I237" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J237" t="n">
         <v>1.05</v>
@@ -29076,7 +29076,7 @@
         <v>10</v>
       </c>
       <c r="V237" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W237" t="n">
         <v>17</v>
@@ -29103,10 +29103,10 @@
         <v>151</v>
       </c>
       <c r="AE237" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF237" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG237" t="n">
         <v>13</v>
@@ -29153,13 +29153,13 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>3.25</v>
       </c>
       <c r="I238" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J238" t="n">
         <v>1.07</v>
@@ -29177,7 +29177,7 @@
         <v>2.25</v>
       </c>
       <c r="O238" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P238" t="n">
         <v>1.5</v>
@@ -29186,10 +29186,10 @@
         <v>2.5</v>
       </c>
       <c r="R238" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S238" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T238" t="n">
         <v>6.5</v>
@@ -29201,7 +29201,7 @@
         <v>9</v>
       </c>
       <c r="W238" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X238" t="n">
         <v>19</v>
@@ -29275,90 +29275,90 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="H239" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I239" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M239" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N239" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O239" t="n">
         <v>1.6</v>
       </c>
       <c r="P239" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R239" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S239" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T239" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="U239" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V239" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="W239" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X239" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y239" t="n">
         <v>90</v>
-      </c>
-      <c r="Y239" t="n">
-        <v>100</v>
       </c>
       <c r="Z239" t="n">
         <v>8.25</v>
       </c>
       <c r="AA239" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB239" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC239" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD239" t="n">
         <v>101</v>
       </c>
       <c r="AE239" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF239" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AG239" t="n">
         <v>8.75</v>
       </c>
       <c r="AH239" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI239" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ239" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240">
@@ -29393,31 +29393,31 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H240" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I240" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="J240" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K240" t="n">
-        <v>5.6</v>
+        <v>4.45</v>
       </c>
       <c r="L240" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M240" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N240" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="O240" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P240" t="n">
         <v>1.57</v>
@@ -29426,34 +29426,34 @@
         <v>2.1</v>
       </c>
       <c r="R240" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S240" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T240" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="U240" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V240" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W240" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="X240" t="n">
         <v>45</v>
       </c>
       <c r="Y240" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z240" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA240" t="n">
         <v>5.8</v>
-      </c>
-      <c r="AA240" t="n">
-        <v>5.9</v>
       </c>
       <c r="AB240" t="n">
         <v>20</v>
@@ -29465,19 +29465,19 @@
         <v>101</v>
       </c>
       <c r="AE240" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AF240" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG240" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH240" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI240" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ240" t="n">
         <v>50</v>
@@ -29515,67 +29515,67 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="H241" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I241" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J241" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K241" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="L241" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M241" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="N241" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="O241" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P241" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q241" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="R241" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S241" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T241" t="n">
         <v>5.6</v>
       </c>
       <c r="U241" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V241" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="W241" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X241" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y241" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z241" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA241" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB241" t="n">
         <v>19.5</v>
@@ -29587,19 +29587,19 @@
         <v>101</v>
       </c>
       <c r="AE241" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AF241" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG241" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH241" t="n">
         <v>45</v>
       </c>
       <c r="AI241" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ241" t="n">
         <v>60</v>
@@ -29637,22 +29637,22 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H242" t="n">
         <v>3.3</v>
       </c>
       <c r="I242" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J242" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K242" t="n">
         <v>8.5</v>
       </c>
       <c r="L242" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M242" t="n">
         <v>2.75</v>
@@ -29661,7 +29661,7 @@
         <v>2.2</v>
       </c>
       <c r="O242" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P242" t="n">
         <v>1.5</v>
@@ -29718,7 +29718,7 @@
         <v>10</v>
       </c>
       <c r="AH242" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI242" t="n">
         <v>21</v>
@@ -29768,13 +29768,13 @@
         <v>2.35</v>
       </c>
       <c r="J243" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K243" t="n">
         <v>10</v>
       </c>
       <c r="L243" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M243" t="n">
         <v>3.25</v>
@@ -29783,7 +29783,7 @@
         <v>2.05</v>
       </c>
       <c r="O243" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P243" t="n">
         <v>1.44</v>
@@ -29890,22 +29890,22 @@
         <v>7.5</v>
       </c>
       <c r="J244" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K244" t="n">
         <v>11</v>
       </c>
       <c r="L244" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M244" t="n">
         <v>3.25</v>
       </c>
       <c r="N244" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O244" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P244" t="n">
         <v>1.4</v>
@@ -30009,25 +30009,25 @@
         <v>3.5</v>
       </c>
       <c r="I245" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J245" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K245" t="n">
         <v>11</v>
       </c>
       <c r="L245" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M245" t="n">
         <v>3.75</v>
       </c>
       <c r="N245" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O245" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P245" t="n">
         <v>1.4</v>
@@ -30042,7 +30042,7 @@
         <v>2.05</v>
       </c>
       <c r="T245" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U245" t="n">
         <v>15</v>
@@ -30075,7 +30075,7 @@
         <v>201</v>
       </c>
       <c r="AE245" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF245" t="n">
         <v>12</v>
@@ -30268,10 +30268,10 @@
         <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O247" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -30369,13 +30369,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H248" t="n">
         <v>3.4</v>
       </c>
       <c r="I248" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J248" t="n">
         <v>1.05</v>
@@ -30390,16 +30390,16 @@
         <v>3.75</v>
       </c>
       <c r="N248" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O248" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P248" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R248" t="n">
         <v>1.67</v>
@@ -30411,7 +30411,7 @@
         <v>9</v>
       </c>
       <c r="U248" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V248" t="n">
         <v>9.5</v>
@@ -30447,13 +30447,13 @@
         <v>15</v>
       </c>
       <c r="AG248" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH248" t="n">
         <v>29</v>
       </c>
       <c r="AI248" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ248" t="n">
         <v>29</v>
@@ -30613,13 +30613,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H250" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I250" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J250" t="n">
         <v>1.03</v>
@@ -30661,7 +30661,7 @@
         <v>9.5</v>
       </c>
       <c r="W250" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X250" t="n">
         <v>17</v>
@@ -30700,7 +30700,7 @@
         <v>21</v>
       </c>
       <c r="AJ250" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251">
@@ -30735,13 +30735,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H251" t="n">
         <v>3.5</v>
       </c>
       <c r="I251" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J251" t="n">
         <v>1.05</v>
@@ -30756,10 +30756,10 @@
         <v>3.5</v>
       </c>
       <c r="N251" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O251" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P251" t="n">
         <v>1.4</v>
@@ -30783,7 +30783,7 @@
         <v>8.5</v>
       </c>
       <c r="W251" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X251" t="n">
         <v>15</v>
@@ -30979,13 +30979,13 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H253" t="n">
         <v>3.75</v>
       </c>
       <c r="I253" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J253" t="n">
         <v>1.04</v>
@@ -31000,28 +31000,28 @@
         <v>3.75</v>
       </c>
       <c r="N253" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O253" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="P253" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q253" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R253" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S253" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T253" t="n">
         <v>8</v>
       </c>
       <c r="U253" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V253" t="n">
         <v>8.5</v>
@@ -31030,13 +31030,13 @@
         <v>15</v>
       </c>
       <c r="X253" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y253" t="n">
         <v>23</v>
       </c>
       <c r="Z253" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA253" t="n">
         <v>7</v>
@@ -31045,13 +31045,13 @@
         <v>15</v>
       </c>
       <c r="AC253" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD253" t="n">
         <v>201</v>
       </c>
       <c r="AE253" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF253" t="n">
         <v>21</v>
@@ -31063,7 +31063,7 @@
         <v>41</v>
       </c>
       <c r="AI253" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ253" t="n">
         <v>34</v>
@@ -31101,13 +31101,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H254" t="n">
         <v>3.6</v>
       </c>
       <c r="I254" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J254" t="n">
         <v>1.03</v>
@@ -31140,7 +31140,7 @@
         <v>2.25</v>
       </c>
       <c r="T254" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U254" t="n">
         <v>13</v>
@@ -31176,10 +31176,10 @@
         <v>12</v>
       </c>
       <c r="AF254" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH254" t="n">
         <v>29</v>
@@ -31188,7 +31188,7 @@
         <v>21</v>
       </c>
       <c r="AJ254" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255">
@@ -31357,7 +31357,7 @@
         <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L256" t="n">
         <v>1.18</v>
@@ -31509,7 +31509,7 @@
         <v>10</v>
       </c>
       <c r="U257" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V257" t="n">
         <v>10</v>
@@ -31518,16 +31518,16 @@
         <v>32</v>
       </c>
       <c r="X257" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y257" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z257" t="n">
         <v>7.9</v>
       </c>
       <c r="AA257" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB257" t="n">
         <v>13</v>
@@ -31717,7 +31717,7 @@
         <v>3.25</v>
       </c>
       <c r="I259" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J259" t="n">
         <v>1.09</v>
@@ -31798,7 +31798,7 @@
         <v>50</v>
       </c>
       <c r="AJ259" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260">
@@ -31833,94 +31833,94 @@
         </is>
       </c>
       <c r="G260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H260" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K260" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M260" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N260" t="n">
         <v>1.78</v>
       </c>
-      <c r="H260" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K260" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L260" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M260" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N260" t="n">
-        <v>1.72</v>
-      </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="P260" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="R260" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S260" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T260" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="U260" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V260" t="n">
         <v>8.25</v>
       </c>
       <c r="W260" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X260" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB260" t="n">
         <v>15</v>
       </c>
-      <c r="X260" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y260" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z260" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA260" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB260" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC260" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD260" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE260" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF260" t="n">
         <v>21</v>
       </c>
       <c r="AG260" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH260" t="n">
         <v>55</v>
       </c>
       <c r="AI260" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ260" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="261">
@@ -31958,91 +31958,91 @@
         <v>1.85</v>
       </c>
       <c r="H261" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I261" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J261" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K261" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="L261" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M261" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="N261" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O261" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P261" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R261" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S261" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T261" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="U261" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V261" t="n">
         <v>8.25</v>
-      </c>
-      <c r="V261" t="n">
-        <v>8.5</v>
       </c>
       <c r="W261" t="n">
         <v>15.5</v>
       </c>
       <c r="X261" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y261" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z261" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA261" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA261" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AB261" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC261" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD261" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE261" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF261" t="n">
         <v>21</v>
       </c>
       <c r="AG261" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH261" t="n">
         <v>65</v>
       </c>
       <c r="AI261" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ261" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262">
@@ -32077,94 +32077,94 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H262" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I262" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="J262" t="n">
         <v>1.03</v>
       </c>
       <c r="K262" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="L262" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M262" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="N262" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O262" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="P262" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q262" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R262" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S262" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T262" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U262" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V262" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W262" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X262" t="n">
         <v>10.75</v>
       </c>
       <c r="Y262" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE262" t="n">
         <v>29</v>
       </c>
-      <c r="Z262" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA262" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB262" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC262" t="n">
+      <c r="AF262" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>350</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ262" t="n">
         <v>110</v>
-      </c>
-      <c r="AD262" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE262" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF262" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG262" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH262" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI262" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ262" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="263">
@@ -32199,13 +32199,13 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H263" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I263" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J263" t="n">
         <v>1.06</v>
@@ -32250,7 +32250,7 @@
         <v>23</v>
       </c>
       <c r="X263" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y263" t="n">
         <v>26</v>
@@ -32277,7 +32277,7 @@
         <v>15.5</v>
       </c>
       <c r="AG263" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH263" t="n">
         <v>37</v>
@@ -32321,25 +32321,25 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="H264" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I264" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="J264" t="n">
         <v>1.08</v>
       </c>
       <c r="K264" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L264" t="n">
         <v>1.38</v>
       </c>
       <c r="M264" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="N264" t="n">
         <v>2.12</v>
@@ -32354,58 +32354,58 @@
         <v>2.5</v>
       </c>
       <c r="R264" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S264" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T264" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U264" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V264" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W264" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X264" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y264" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z264" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA264" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB264" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC264" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD264" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE264" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF264" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG264" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH264" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI264" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ264" t="n">
         <v>35</v>
@@ -32443,7 +32443,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H265" t="n">
         <v>3.2</v>
@@ -32598,13 +32598,13 @@
         <v>2.5</v>
       </c>
       <c r="R266" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S266" t="n">
         <v>1.88</v>
       </c>
       <c r="T266" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U266" t="n">
         <v>11</v>
@@ -32619,7 +32619,7 @@
         <v>19.5</v>
       </c>
       <c r="Y266" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z266" t="n">
         <v>6.5</v>
@@ -32649,7 +32649,7 @@
         <v>37</v>
       </c>
       <c r="AI266" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ266" t="n">
         <v>40</v>
@@ -32826,10 +32826,10 @@
         <v>2.45</v>
       </c>
       <c r="N268" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O268" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P268" t="n">
         <v>1.53</v>
@@ -32844,19 +32844,19 @@
         <v>1.72</v>
       </c>
       <c r="T268" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U268" t="n">
         <v>12</v>
       </c>
       <c r="V268" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W268" t="n">
         <v>30</v>
       </c>
       <c r="X268" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y268" t="n">
         <v>37</v>
@@ -32865,7 +32865,7 @@
         <v>6.9</v>
       </c>
       <c r="AA268" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB268" t="n">
         <v>15.5</v>
@@ -32877,19 +32877,19 @@
         <v>900</v>
       </c>
       <c r="AE268" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF268" t="n">
         <v>13</v>
       </c>
       <c r="AG268" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH268" t="n">
         <v>35</v>
       </c>
       <c r="AI268" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ268" t="n">
         <v>45</v>
@@ -32927,13 +32927,13 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="I269" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J269" t="n">
         <v>1.04</v>
@@ -32942,79 +32942,79 @@
         <v>8.25</v>
       </c>
       <c r="L269" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M269" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N269" t="n">
         <v>1.7</v>
       </c>
       <c r="O269" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P269" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q269" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R269" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S269" t="n">
         <v>1.88</v>
       </c>
-      <c r="S269" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T269" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U269" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="V269" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W269" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="X269" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y269" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z269" t="n">
         <v>8.25</v>
       </c>
       <c r="AA269" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB269" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC269" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD269" t="n">
         <v>600</v>
       </c>
       <c r="AE269" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF269" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG269" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH269" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI269" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ269" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270">
@@ -33049,13 +33049,13 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="H270" t="n">
         <v>3.5</v>
       </c>
       <c r="I270" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="J270" t="n">
         <v>1.03</v>
@@ -33079,7 +33079,7 @@
         <v>1.27</v>
       </c>
       <c r="Q270" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R270" t="n">
         <v>1.42</v>
@@ -33088,22 +33088,22 @@
         <v>2.65</v>
       </c>
       <c r="T270" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U270" t="n">
+        <v>19</v>
+      </c>
+      <c r="V270" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W270" t="n">
+        <v>35</v>
+      </c>
+      <c r="X270" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y270" t="n">
         <v>20</v>
-      </c>
-      <c r="V270" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W270" t="n">
-        <v>40</v>
-      </c>
-      <c r="X270" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y270" t="n">
-        <v>21</v>
       </c>
       <c r="Z270" t="n">
         <v>9.25</v>
@@ -33112,10 +33112,10 @@
         <v>7.6</v>
       </c>
       <c r="AB270" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC270" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD270" t="n">
         <v>150</v>
@@ -33124,19 +33124,19 @@
         <v>12</v>
       </c>
       <c r="AF270" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG270" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH270" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI270" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ270" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -790,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.95</v>
@@ -808,13 +808,13 @@
         <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>7.5</v>
       </c>
       <c r="V3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
@@ -826,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -847,7 +847,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>126</v>
@@ -930,7 +930,7 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H5" t="n">
         <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1055,10 +1055,10 @@
         <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
         <v>67</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
         <v>201</v>
@@ -1088,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1150,16 +1150,16 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1168,10 +1168,10 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>8.5</v>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1204,10 +1204,10 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1278,10 +1278,10 @@
         <v>5.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P7" t="n">
         <v>1.25</v>
@@ -1296,10 +1296,10 @@
         <v>2.63</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" t="n">
         <v>9</v>
@@ -1317,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>29</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1418,19 +1418,19 @@
         <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1448,25 +1448,25 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="n">
         <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1754,55 +1754,55 @@
         <v>9.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P11" t="n">
         <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
@@ -1811,10 +1811,10 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -1823,13 +1823,13 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -1870,16 +1870,16 @@
         <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -1937,22 +1937,22 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="n">
         <v>81</v>
       </c>
       <c r="AJ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
@@ -2118,16 +2118,16 @@
         <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>2.2</v>
@@ -2136,55 +2136,55 @@
         <v>1.67</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U14" t="n">
         <v>7</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>34</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2246,34 +2246,34 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.8</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
@@ -2288,34 +2288,34 @@
         <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
         <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2359,7 +2359,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2386,10 +2386,10 @@
         <v>3.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T16" t="n">
         <v>23</v>
@@ -2422,7 +2422,7 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE16" t="n">
         <v>9.5</v>
@@ -2440,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -2511,7 +2511,7 @@
         <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T17" t="n">
         <v>5.5</v>
@@ -2597,19 +2597,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.53</v>
@@ -2630,10 +2630,10 @@
         <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2651,13 +2651,13 @@
         <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z18" t="n">
         <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
@@ -2725,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2755,7 +2755,7 @@
         <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
         <v>1.14</v>
@@ -2877,19 +2877,19 @@
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V20" t="n">
         <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X20" t="n">
         <v>26</v>
@@ -2913,7 +2913,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -2963,10 +2963,10 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.65</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2999,7 +2999,7 @@
         <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
@@ -3121,7 +3121,7 @@
         <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T22" t="n">
         <v>5</v>
@@ -3240,10 +3240,10 @@
         <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T23" t="n">
         <v>6.5</v>
@@ -3451,19 +3451,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.67</v>
@@ -3478,10 +3478,10 @@
         <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
         <v>2.5</v>
@@ -3493,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V25" t="n">
         <v>13</v>
@@ -3523,7 +3523,7 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3588,16 +3588,16 @@
         <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P26" t="n">
         <v>1.36</v>
@@ -3606,22 +3606,22 @@
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3633,13 +3633,13 @@
         <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB26" t="n">
         <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="n">
         <v>201</v>
@@ -3654,13 +3654,13 @@
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -3707,7 +3707,7 @@
         <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
         <v>1.17</v>
@@ -3737,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="U27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
@@ -3752,13 +3752,13 @@
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
         <v>8</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3817,13 +3817,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3838,7 +3838,7 @@
         <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.85</v>
@@ -3856,16 +3856,16 @@
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V28" t="n">
         <v>9</v>
       </c>
       <c r="W28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -3892,16 +3892,16 @@
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -3945,13 +3945,13 @@
         <v>7.5</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
         <v>1.13</v>
@@ -3978,10 +3978,10 @@
         <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
         <v>11</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4082,10 +4082,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4109,10 +4109,10 @@
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4121,10 +4121,10 @@
         <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
@@ -4139,7 +4139,7 @@
         <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>67</v>
@@ -4183,13 +4183,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.08</v>
@@ -4231,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X31" t="n">
         <v>23</v>
@@ -4255,19 +4255,19 @@
         <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
@@ -4442,73 +4442,73 @@
         <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R33" t="n">
         <v>2.2</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U33" t="n">
         <v>7</v>
       </c>
       <c r="V33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W33" t="n">
         <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
         <v>34</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA33" t="n">
         <v>7</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="n">
         <v>501</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
         <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>41</v>
@@ -4799,19 +4799,19 @@
         <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
         <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N36" t="n">
         <v>2.7</v>
@@ -4924,22 +4924,22 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K37" t="n">
         <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="n">
         <v>2.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
@@ -5046,16 +5046,16 @@
         <v>5.75</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
         <v>7.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N38" t="n">
         <v>2.35</v>
@@ -5159,16 +5159,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>2.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
         <v>6</v>
@@ -5177,7 +5177,7 @@
         <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="N39" t="n">
         <v>2.7</v>
@@ -5201,13 +5201,13 @@
         <v>6</v>
       </c>
       <c r="U39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
         <v>23</v>
@@ -5222,7 +5222,7 @@
         <v>5.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>67</v>
@@ -5234,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="AF39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H41" t="n">
         <v>5</v>
@@ -5466,7 +5466,7 @@
         <v>9.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
         <v>67</v>
@@ -5475,16 +5475,16 @@
         <v>101</v>
       </c>
       <c r="AE41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI41" t="n">
         <v>67</v>
@@ -5525,19 +5525,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -5546,10 +5546,10 @@
         <v>3.25</v>
       </c>
       <c r="N42" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5558,22 +5558,22 @@
         <v>2.63</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5582,16 +5582,16 @@
         <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD42" t="n">
         <v>351</v>
@@ -5600,7 +5600,7 @@
         <v>11</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
@@ -5790,10 +5790,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -6501,37 +6501,37 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J50" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R50" t="n">
         <v>2.2</v>
@@ -6543,16 +6543,16 @@
         <v>11</v>
       </c>
       <c r="U50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W50" t="n">
         <v>51</v>
       </c>
       <c r="X50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="n">
         <v>51</v>
@@ -6564,10 +6564,10 @@
         <v>6.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD50" t="n">
         <v>1250</v>
@@ -6576,7 +6576,7 @@
         <v>5.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG50" t="n">
         <v>9</v>
@@ -6867,19 +6867,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H53" t="n">
         <v>2.9</v>
       </c>
       <c r="I53" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.53</v>
@@ -6906,19 +6906,19 @@
         <v>1.62</v>
       </c>
       <c r="T53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
@@ -6939,19 +6939,19 @@
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -6989,13 +6989,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
         <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>1.06</v>
@@ -7010,10 +7010,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -7031,7 +7031,7 @@
         <v>6</v>
       </c>
       <c r="U54" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V54" t="n">
         <v>8.5</v>
@@ -7043,7 +7043,7 @@
         <v>15</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="n">
         <v>9</v>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I56" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.04</v>
@@ -7254,10 +7254,10 @@
         <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7278,7 +7278,7 @@
         <v>6.5</v>
       </c>
       <c r="V56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
         <v>9</v>
@@ -7293,13 +7293,13 @@
         <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC56" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
         <v>900</v>
@@ -7608,10 +7608,10 @@
         <v>2.9</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
         <v>1.36</v>
@@ -7620,16 +7620,16 @@
         <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P59" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R59" t="n">
         <v>1.91</v>
@@ -7748,7 +7748,7 @@
         <v>1.9</v>
       </c>
       <c r="P60" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
         <v>2.75</v>
@@ -7965,94 +7965,94 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="H62" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="I62" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J62" t="n">
         <v>1.09</v>
       </c>
       <c r="K62" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M62" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="N62" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O62" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P62" t="n">
         <v>1.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R62" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T62" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="U62" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V62" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="W62" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X62" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y62" t="n">
         <v>37</v>
       </c>
       <c r="Z62" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AA62" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB62" t="n">
         <v>12.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD62" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE62" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF62" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH62" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI62" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -8573,13 +8573,13 @@
         </is>
       </c>
       <c r="G67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I67" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J67" t="n">
         <v>1.07</v>
@@ -8600,16 +8600,16 @@
         <v>1.67</v>
       </c>
       <c r="P67" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S67" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T67" t="n">
         <v>8.5</v>
@@ -8624,31 +8624,31 @@
         <v>34</v>
       </c>
       <c r="X67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y67" t="n">
         <v>41</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA67" t="n">
         <v>6</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC67" t="n">
         <v>51</v>
       </c>
       <c r="AD67" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG67" t="n">
         <v>9.5</v>
@@ -8695,13 +8695,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J68" t="n">
         <v>1.14</v>
@@ -8737,19 +8737,19 @@
         <v>5.5</v>
       </c>
       <c r="U68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V68" t="n">
         <v>11</v>
       </c>
       <c r="W68" t="n">
+        <v>23</v>
+      </c>
+      <c r="X68" t="n">
         <v>26</v>
       </c>
-      <c r="X68" t="n">
-        <v>29</v>
-      </c>
       <c r="Y68" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="n">
         <v>5.5</v>
@@ -8770,16 +8770,16 @@
         <v>6.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG68" t="n">
         <v>13</v>
       </c>
       <c r="AH68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ68" t="n">
         <v>51</v>
@@ -8939,19 +8939,19 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I70" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
         <v>1.06</v>
       </c>
       <c r="K70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L70" t="n">
         <v>1.3</v>
@@ -8966,7 +8966,7 @@
         <v>1.85</v>
       </c>
       <c r="P70" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q70" t="n">
         <v>2.75</v>
@@ -8978,7 +8978,7 @@
         <v>1.73</v>
       </c>
       <c r="T70" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U70" t="n">
         <v>7</v>
@@ -9005,13 +9005,13 @@
         <v>19</v>
       </c>
       <c r="AC70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD70" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF70" t="n">
         <v>29</v>
@@ -9023,7 +9023,7 @@
         <v>67</v>
       </c>
       <c r="AI70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ70" t="n">
         <v>51</v>
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J71" t="n">
         <v>1.07</v>
@@ -9088,10 +9088,10 @@
         <v>1.73</v>
       </c>
       <c r="P71" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R71" t="n">
         <v>1.91</v>
@@ -9121,7 +9121,7 @@
         <v>9</v>
       </c>
       <c r="AA71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB71" t="n">
         <v>17</v>
@@ -9142,7 +9142,7 @@
         <v>15</v>
       </c>
       <c r="AH71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI71" t="n">
         <v>41</v>
@@ -9183,46 +9183,46 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H72" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N72" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O72" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P72" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q72" t="n">
         <v>2.75</v>
       </c>
       <c r="R72" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T72" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U72" t="n">
         <v>8</v>
@@ -9237,7 +9237,7 @@
         <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z72" t="n">
         <v>10</v>
@@ -9252,7 +9252,7 @@
         <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE72" t="n">
         <v>12</v>
@@ -9549,13 +9549,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J75" t="n">
         <v>1.03</v>
@@ -9570,13 +9570,13 @@
         <v>4.33</v>
       </c>
       <c r="N75" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O75" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q75" t="n">
         <v>3.25</v>
@@ -9793,13 +9793,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J77" t="n">
         <v>1.06</v>
@@ -9838,7 +9838,7 @@
         <v>19</v>
       </c>
       <c r="V77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W77" t="n">
         <v>41</v>
@@ -9865,7 +9865,7 @@
         <v>201</v>
       </c>
       <c r="AE77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF77" t="n">
         <v>10</v>
@@ -9915,19 +9915,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J78" t="n">
         <v>1.06</v>
       </c>
       <c r="K78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
         <v>1.33</v>
@@ -9975,7 +9975,7 @@
         <v>9.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB78" t="n">
         <v>19</v>
@@ -9984,10 +9984,10 @@
         <v>67</v>
       </c>
       <c r="AD78" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF78" t="n">
         <v>7.5</v>
@@ -10159,19 +10159,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H80" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I80" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J80" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L80" t="n">
         <v>1.36</v>
@@ -10192,22 +10192,22 @@
         <v>2.5</v>
       </c>
       <c r="R80" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S80" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T80" t="n">
         <v>5.5</v>
       </c>
       <c r="U80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V80" t="n">
         <v>9</v>
       </c>
       <c r="W80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X80" t="n">
         <v>15</v>
@@ -10222,7 +10222,7 @@
         <v>7.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
         <v>81</v>
@@ -10234,19 +10234,19 @@
         <v>13</v>
       </c>
       <c r="AF80" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG80" t="n">
         <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI80" t="n">
         <v>51</v>
       </c>
       <c r="AJ80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81">
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>3</v>
@@ -10790,10 +10790,10 @@
         <v>2.63</v>
       </c>
       <c r="N85" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P85" t="n">
         <v>1.53</v>
@@ -10900,22 +10900,22 @@
         <v>2.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K86" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M86" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O86" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P86" t="n">
         <v>1.5</v>
@@ -11013,13 +11013,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J87" t="n">
         <v>1.05</v>
@@ -11028,16 +11028,16 @@
         <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N87" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O87" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P87" t="n">
         <v>1.4</v>
@@ -11055,22 +11055,22 @@
         <v>8</v>
       </c>
       <c r="U87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W87" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
         <v>26</v>
       </c>
       <c r="Z87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA87" t="n">
         <v>6.5</v>
@@ -11085,7 +11085,7 @@
         <v>201</v>
       </c>
       <c r="AE87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
         <v>19</v>
@@ -11135,13 +11135,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H88" t="n">
         <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
         <v>1.06</v>
@@ -11150,16 +11150,16 @@
         <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M88" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O88" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P88" t="n">
         <v>1.44</v>
@@ -11174,7 +11174,7 @@
         <v>1.83</v>
       </c>
       <c r="T88" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U88" t="n">
         <v>10</v>
@@ -11198,7 +11198,7 @@
         <v>6.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC88" t="n">
         <v>51</v>
@@ -11281,7 +11281,7 @@
         <v>2.2</v>
       </c>
       <c r="O89" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P89" t="n">
         <v>1.5</v>
@@ -11418,7 +11418,7 @@
         <v>2</v>
       </c>
       <c r="T90" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U90" t="n">
         <v>11</v>
@@ -11460,7 +11460,7 @@
         <v>10</v>
       </c>
       <c r="AH90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI90" t="n">
         <v>23</v>
@@ -11501,19 +11501,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H91" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L91" t="n">
         <v>1.33</v>
@@ -11522,10 +11522,10 @@
         <v>3.25</v>
       </c>
       <c r="N91" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O91" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="P91" t="n">
         <v>1.44</v>
@@ -11540,7 +11540,7 @@
         <v>1.73</v>
       </c>
       <c r="T91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U91" t="n">
         <v>26</v>
@@ -11558,7 +11558,7 @@
         <v>51</v>
       </c>
       <c r="Z91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA91" t="n">
         <v>7</v>
@@ -11582,7 +11582,7 @@
         <v>8.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI91" t="n">
         <v>15</v>
@@ -11647,7 +11647,7 @@
         <v>2.05</v>
       </c>
       <c r="O92" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P92" t="n">
         <v>1.44</v>
@@ -11859,13 +11859,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H94" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I94" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -11876,10 +11876,10 @@
         <v>4.5</v>
       </c>
       <c r="N94" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O94" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -11887,22 +11887,22 @@
         <v>1.87</v>
       </c>
       <c r="S94" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>35</v>
+      </c>
+      <c r="V94" t="n">
         <v>17</v>
-      </c>
-      <c r="U94" t="n">
-        <v>37</v>
-      </c>
-      <c r="V94" t="n">
-        <v>18</v>
       </c>
       <c r="W94" t="n">
         <v>110</v>
       </c>
       <c r="X94" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y94" t="n">
         <v>45</v>
@@ -11911,13 +11911,13 @@
         <v>14.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB94" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC94" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD94" t="n">
         <v>350</v>
@@ -11926,13 +11926,13 @@
         <v>7</v>
       </c>
       <c r="AF94" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG94" t="n">
         <v>7.2</v>
       </c>
       <c r="AH94" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI94" t="n">
         <v>9</v>
@@ -11973,13 +11973,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I95" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -11990,45 +11990,45 @@
         <v>3.85</v>
       </c>
       <c r="N95" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O95" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S95" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T95" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U95" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="V95" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W95" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="X95" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y95" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB95" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>11</v>
       </c>
       <c r="AC95" t="n">
         <v>40</v>
@@ -12037,22 +12037,22 @@
         <v>250</v>
       </c>
       <c r="AE95" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AF95" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG95" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ95" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -12346,19 +12346,19 @@
         <v>13</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N98" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O98" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P98" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q98" t="n">
         <v>3</v>
@@ -12453,10 +12453,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H99" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I99" t="n">
         <v>5.75</v>
@@ -12468,22 +12468,22 @@
         <v>11</v>
       </c>
       <c r="L99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M99" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R99" t="n">
         <v>1.95</v>
@@ -12492,7 +12492,7 @@
         <v>1.8</v>
       </c>
       <c r="T99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U99" t="n">
         <v>7</v>
@@ -12507,13 +12507,13 @@
         <v>13</v>
       </c>
       <c r="Y99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z99" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB99" t="n">
         <v>17</v>
@@ -12522,13 +12522,13 @@
         <v>51</v>
       </c>
       <c r="AD99" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE99" t="n">
         <v>15</v>
       </c>
       <c r="AF99" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG99" t="n">
         <v>19</v>
@@ -12537,7 +12537,7 @@
         <v>67</v>
       </c>
       <c r="AI99" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ99" t="n">
         <v>51</v>
@@ -12697,13 +12697,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J101" t="n">
         <v>1.04</v>
@@ -12718,10 +12718,10 @@
         <v>3.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O101" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
         <v>1.36</v>
@@ -12736,7 +12736,7 @@
         <v>1.83</v>
       </c>
       <c r="T101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U101" t="n">
         <v>23</v>
@@ -12748,16 +12748,16 @@
         <v>51</v>
       </c>
       <c r="X101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y101" t="n">
         <v>41</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB101" t="n">
         <v>17</v>
@@ -12819,63 +12819,63 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I102" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M102" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N102" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="O102" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q102" t="n">
         <v>2.2</v>
       </c>
       <c r="R102" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S102" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T102" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U102" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="V102" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W102" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="X102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y102" t="n">
         <v>37</v>
       </c>
       <c r="Z102" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA102" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB102" t="n">
         <v>17</v>
@@ -12884,25 +12884,25 @@
         <v>100</v>
       </c>
       <c r="AD102" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE102" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="AF102" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH102" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AI102" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ102" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
@@ -13547,22 +13547,22 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K108" t="n">
         <v>11</v>
       </c>
       <c r="L108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M108" t="n">
         <v>3.5</v>
@@ -13592,7 +13592,7 @@
         <v>9</v>
       </c>
       <c r="V108" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W108" t="n">
         <v>17</v>
@@ -13634,7 +13634,7 @@
         <v>29</v>
       </c>
       <c r="AJ108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
@@ -14295,7 +14295,7 @@
         <v>17</v>
       </c>
       <c r="W114" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X114" t="n">
         <v>41</v>
@@ -14313,7 +14313,7 @@
         <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD114" t="n">
         <v>301</v>
@@ -14322,10 +14322,10 @@
         <v>6</v>
       </c>
       <c r="AF114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH114" t="n">
         <v>11</v>
@@ -14605,13 +14605,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J117" t="n">
         <v>1.07</v>
@@ -14692,7 +14692,7 @@
         <v>19</v>
       </c>
       <c r="AJ117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -15215,31 +15215,31 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H122" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J122" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K122" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L122" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M122" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N122" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O122" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P122" t="n">
         <v>1.44</v>
@@ -15263,7 +15263,7 @@
         <v>8.5</v>
       </c>
       <c r="W122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X122" t="n">
         <v>15</v>
@@ -15272,10 +15272,10 @@
         <v>29</v>
       </c>
       <c r="Z122" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB122" t="n">
         <v>17</v>
@@ -15287,7 +15287,7 @@
         <v>401</v>
       </c>
       <c r="AE122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF122" t="n">
         <v>26</v>
@@ -15337,91 +15337,91 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H123" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I123" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J123" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L123" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M123" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N123" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O123" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P123" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R123" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S123" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T123" t="n">
         <v>10</v>
       </c>
       <c r="U123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V123" t="n">
         <v>12</v>
       </c>
       <c r="W123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y123" t="n">
         <v>34</v>
       </c>
       <c r="Z123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA123" t="n">
         <v>6</v>
       </c>
       <c r="AB123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH123" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ123" t="n">
         <v>29</v>
@@ -15703,13 +15703,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="H126" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I126" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="J126" t="n">
         <v>1.12</v>
@@ -15736,28 +15736,28 @@
         <v>2.3</v>
       </c>
       <c r="R126" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S126" t="n">
         <v>1.72</v>
       </c>
       <c r="T126" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="U126" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
       </c>
       <c r="W126" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X126" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y126" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z126" t="n">
         <v>5.3</v>
@@ -15766,7 +15766,7 @@
         <v>5.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC126" t="n">
         <v>100</v>
@@ -15775,22 +15775,22 @@
         <v>101</v>
       </c>
       <c r="AE126" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF126" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG126" t="n">
         <v>11.25</v>
       </c>
       <c r="AH126" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI126" t="n">
         <v>32</v>
       </c>
       <c r="AJ126" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
@@ -15825,94 +15825,94 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J127" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K127" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L127" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M127" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N127" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="O127" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P127" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R127" t="n">
         <v>2.18</v>
       </c>
-      <c r="R127" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S127" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T127" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="U127" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="V127" t="n">
         <v>10</v>
       </c>
       <c r="W127" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X127" t="n">
         <v>25</v>
       </c>
       <c r="Y127" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z127" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AA127" t="n">
         <v>5.7</v>
       </c>
       <c r="AB127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC127" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD127" t="n">
         <v>101</v>
       </c>
       <c r="AE127" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF127" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG127" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH127" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI127" t="n">
         <v>40</v>
       </c>
-      <c r="AI127" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ127" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
@@ -16191,7 +16191,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H130" t="n">
         <v>3.15</v>
@@ -16203,7 +16203,7 @@
         <v>1.07</v>
       </c>
       <c r="K130" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L130" t="n">
         <v>1.32</v>
@@ -16212,10 +16212,10 @@
         <v>3.1</v>
       </c>
       <c r="N130" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O130" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P130" t="n">
         <v>1.44</v>
@@ -16227,34 +16227,34 @@
         <v>1.75</v>
       </c>
       <c r="S130" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T130" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="U130" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
       </c>
       <c r="W130" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X130" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z130" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA130" t="n">
         <v>6.2</v>
       </c>
       <c r="AB130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC130" t="n">
         <v>65</v>
@@ -16263,22 +16263,22 @@
         <v>500</v>
       </c>
       <c r="AE130" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG130" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH130" t="n">
         <v>50</v>
       </c>
       <c r="AI130" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ130" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131">
@@ -16572,46 +16572,46 @@
         <v>7.4</v>
       </c>
       <c r="L133" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M133" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N133" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="O133" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P133" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S133" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T133" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U133" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V133" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W133" t="n">
         <v>17.5</v>
       </c>
       <c r="X133" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z133" t="n">
         <v>7.4</v>
@@ -16620,7 +16620,7 @@
         <v>6.6</v>
       </c>
       <c r="AB133" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC133" t="n">
         <v>60</v>
@@ -16629,10 +16629,10 @@
         <v>450</v>
       </c>
       <c r="AE133" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF133" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG133" t="n">
         <v>12</v>
@@ -16641,10 +16641,10 @@
         <v>50</v>
       </c>
       <c r="AI133" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ133" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
@@ -18314,7 +18314,7 @@
         <v>1.6</v>
       </c>
       <c r="H148" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I148" t="n">
         <v>5.25</v>
@@ -18326,34 +18326,34 @@
         <v>13</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M148" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R148" t="n">
         <v>1.8</v>
       </c>
-      <c r="O148" t="n">
-        <v>2</v>
-      </c>
-      <c r="P148" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>3</v>
-      </c>
-      <c r="R148" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S148" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U148" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
@@ -18365,7 +18365,7 @@
         <v>13</v>
       </c>
       <c r="Y148" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z148" t="n">
         <v>12</v>
@@ -18383,10 +18383,10 @@
         <v>251</v>
       </c>
       <c r="AE148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF148" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG148" t="n">
         <v>17</v>
@@ -18433,19 +18433,19 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H149" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I149" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J149" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L149" t="n">
         <v>1.3</v>
@@ -18454,10 +18454,10 @@
         <v>3.4</v>
       </c>
       <c r="N149" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O149" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P149" t="n">
         <v>1.4</v>
@@ -18466,22 +18466,22 @@
         <v>2.75</v>
       </c>
       <c r="R149" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S149" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
       </c>
       <c r="U149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V149" t="n">
         <v>8.5</v>
       </c>
       <c r="W149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X149" t="n">
         <v>15</v>
@@ -18496,25 +18496,25 @@
         <v>7</v>
       </c>
       <c r="AB149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC149" t="n">
         <v>51</v>
       </c>
       <c r="AD149" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH149" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI149" t="n">
         <v>34</v>
@@ -18555,49 +18555,49 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J150" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L150" t="n">
         <v>1.3</v>
       </c>
       <c r="M150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N150" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O150" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="P150" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R150" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S150" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T150" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V150" t="n">
         <v>9.5</v>
@@ -18612,7 +18612,7 @@
         <v>29</v>
       </c>
       <c r="Z150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA150" t="n">
         <v>6.5</v>
@@ -18630,19 +18630,19 @@
         <v>9</v>
       </c>
       <c r="AF150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH150" t="n">
         <v>29</v>
       </c>
       <c r="AI150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ150" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
@@ -18677,37 +18677,37 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>3.75</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K151" t="n">
         <v>15</v>
       </c>
       <c r="L151" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M151" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N151" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O151" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P151" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R151" t="n">
         <v>1.57</v>
@@ -18725,10 +18725,10 @@
         <v>12</v>
       </c>
       <c r="W151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y151" t="n">
         <v>29</v>
@@ -18740,16 +18740,16 @@
         <v>7</v>
       </c>
       <c r="AB151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC151" t="n">
         <v>41</v>
       </c>
       <c r="AD151" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE151" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF151" t="n">
         <v>11</v>
@@ -19027,13 +19027,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H154" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I154" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -19055,13 +19055,13 @@
         <v>1.62</v>
       </c>
       <c r="S154" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T154" t="n">
         <v>8.25</v>
       </c>
       <c r="U154" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V154" t="n">
         <v>8.5</v>
@@ -19079,13 +19079,13 @@
         <v>12</v>
       </c>
       <c r="AA154" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB154" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC154" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD154" t="n">
         <v>350</v>
@@ -19100,7 +19100,7 @@
         <v>11.75</v>
       </c>
       <c r="AH154" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI154" t="n">
         <v>28</v>
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H155" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I155" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -19158,73 +19158,73 @@
         <v>3.05</v>
       </c>
       <c r="N155" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O155" t="n">
         <v>1.78</v>
       </c>
       <c r="P155" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R155" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S155" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T155" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U155" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V155" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W155" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="X155" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y155" t="n">
         <v>26</v>
       </c>
       <c r="Z155" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA155" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB155" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD155" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE155" t="n">
         <v>10.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG155" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI155" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ155" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -19276,7 +19276,7 @@
         <v>3.3</v>
       </c>
       <c r="N156" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O156" t="n">
         <v>1.9</v>
@@ -19284,16 +19284,16 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S156" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T156" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U156" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V156" t="n">
         <v>8</v>
@@ -19332,7 +19332,7 @@
         <v>14</v>
       </c>
       <c r="AH156" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI156" t="n">
         <v>40</v>
@@ -19373,13 +19373,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H157" t="n">
         <v>2.88</v>
       </c>
       <c r="I157" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="J157" t="n">
         <v>1.11</v>
@@ -19397,67 +19397,67 @@
         <v>2.7</v>
       </c>
       <c r="O157" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P157" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R157" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S157" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U157" t="n">
+        <v>17</v>
+      </c>
+      <c r="V157" t="n">
         <v>15</v>
       </c>
-      <c r="V157" t="n">
-        <v>13</v>
-      </c>
       <c r="W157" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X157" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y157" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z157" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA157" t="n">
         <v>6</v>
       </c>
       <c r="AB157" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC157" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD157" t="n">
         <v>351</v>
       </c>
       <c r="AE157" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF157" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ157" t="n">
         <v>41</v>
@@ -19557,25 +19557,25 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H159" t="n">
         <v>3.1</v>
       </c>
       <c r="I159" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J159" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K159" t="n">
         <v>7</v>
       </c>
       <c r="L159" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M159" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="N159" t="n">
         <v>2.5</v>
@@ -19599,7 +19599,7 @@
         <v>5</v>
       </c>
       <c r="U159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V159" t="n">
         <v>9.5</v>
@@ -19617,13 +19617,13 @@
         <v>6.5</v>
       </c>
       <c r="AA159" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC159" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD159" t="n">
         <v>101</v>
@@ -19632,19 +19632,19 @@
         <v>10</v>
       </c>
       <c r="AF159" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG159" t="n">
         <v>19</v>
       </c>
       <c r="AH159" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI159" t="n">
         <v>51</v>
       </c>
       <c r="AJ159" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160">
@@ -19679,10 +19679,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I160" t="n">
         <v>5.25</v>
@@ -19691,37 +19691,37 @@
         <v>1.04</v>
       </c>
       <c r="K160" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L160" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M160" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N160" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O160" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="P160" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q160" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R160" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S160" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="T160" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U160" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V160" t="n">
         <v>8.5</v>
@@ -19730,43 +19730,43 @@
         <v>10</v>
       </c>
       <c r="X160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y160" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z160" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA160" t="n">
         <v>8.5</v>
       </c>
       <c r="AB160" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC160" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD160" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE160" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF160" t="n">
         <v>29</v>
       </c>
       <c r="AG160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH160" t="n">
         <v>67</v>
       </c>
       <c r="AI160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161">
@@ -19810,16 +19810,16 @@
         <v>2.25</v>
       </c>
       <c r="J161" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K161" t="n">
         <v>8</v>
       </c>
       <c r="L161" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M161" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N161" t="n">
         <v>2.35</v>
@@ -19837,7 +19837,7 @@
         <v>2.1</v>
       </c>
       <c r="S161" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T161" t="n">
         <v>7.5</v>
@@ -19932,13 +19932,13 @@
         <v>5.75</v>
       </c>
       <c r="J162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
       <c r="L162" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M162" t="n">
         <v>4.33</v>
@@ -19956,7 +19956,7 @@
         <v>3.4</v>
       </c>
       <c r="R162" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S162" t="n">
         <v>2</v>
@@ -20242,7 +20242,7 @@
         <v>10</v>
       </c>
       <c r="AF164" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG164" t="n">
         <v>11</v>
@@ -20251,7 +20251,7 @@
         <v>34</v>
       </c>
       <c r="AI164" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ164" t="n">
         <v>34</v>
@@ -20289,7 +20289,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H165" t="n">
         <v>4.5</v>
@@ -20298,10 +20298,10 @@
         <v>7</v>
       </c>
       <c r="J165" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K165" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L165" t="n">
         <v>1.3</v>
@@ -20411,19 +20411,19 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
         <v>3.1</v>
       </c>
       <c r="I166" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J166" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L166" t="n">
         <v>1.33</v>
@@ -20444,10 +20444,10 @@
         <v>2.63</v>
       </c>
       <c r="R166" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S166" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T166" t="n">
         <v>8</v>
@@ -20459,7 +20459,7 @@
         <v>10</v>
       </c>
       <c r="W166" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X166" t="n">
         <v>21</v>
@@ -20539,7 +20539,7 @@
         <v>3.6</v>
       </c>
       <c r="I167" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="J167" t="n">
         <v>1.07</v>
@@ -20557,7 +20557,7 @@
         <v>2.15</v>
       </c>
       <c r="O167" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P167" t="n">
         <v>1.44</v>
@@ -20664,13 +20664,13 @@
         <v>2.3</v>
       </c>
       <c r="J168" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K168" t="n">
         <v>9</v>
       </c>
       <c r="L168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M168" t="n">
         <v>3.25</v>
@@ -20786,22 +20786,22 @@
         <v>3.8</v>
       </c>
       <c r="J169" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K169" t="n">
         <v>11</v>
       </c>
       <c r="L169" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M169" t="n">
         <v>3.5</v>
       </c>
       <c r="N169" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O169" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P169" t="n">
         <v>1.4</v>
@@ -20899,19 +20899,19 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H170" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I170" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J170" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K170" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L170" t="n">
         <v>1.4</v>
@@ -20923,7 +20923,7 @@
         <v>2.25</v>
       </c>
       <c r="O170" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P170" t="n">
         <v>1.5</v>
@@ -20956,10 +20956,10 @@
         <v>67</v>
       </c>
       <c r="Z170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB170" t="n">
         <v>21</v>
@@ -20974,19 +20974,19 @@
         <v>5.5</v>
       </c>
       <c r="AF170" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG170" t="n">
         <v>9</v>
       </c>
       <c r="AH170" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI170" t="n">
         <v>15</v>
       </c>
       <c r="AJ170" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
@@ -21030,22 +21030,22 @@
         <v>1.55</v>
       </c>
       <c r="J171" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K171" t="n">
         <v>10</v>
       </c>
       <c r="L171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M171" t="n">
         <v>3.25</v>
       </c>
       <c r="N171" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O171" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P171" t="n">
         <v>1.44</v>
@@ -21631,13 +21631,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H176" t="n">
         <v>3.1</v>
       </c>
       <c r="I176" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J176" t="n">
         <v>1.1</v>
@@ -21673,13 +21673,13 @@
         <v>6</v>
       </c>
       <c r="U176" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V176" t="n">
         <v>9.5</v>
       </c>
       <c r="W176" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X176" t="n">
         <v>21</v>
@@ -21753,19 +21753,19 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H177" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I177" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K177" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L177" t="n">
         <v>1.17</v>
@@ -21774,10 +21774,10 @@
         <v>4.5</v>
       </c>
       <c r="N177" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O177" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P177" t="n">
         <v>1.3</v>
@@ -21798,7 +21798,7 @@
         <v>17</v>
       </c>
       <c r="V177" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W177" t="n">
         <v>29</v>
@@ -21810,7 +21810,7 @@
         <v>26</v>
       </c>
       <c r="Z177" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA177" t="n">
         <v>6.5</v>
@@ -21825,10 +21825,10 @@
         <v>101</v>
       </c>
       <c r="AE177" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG177" t="n">
         <v>10</v>
@@ -21837,7 +21837,7 @@
         <v>23</v>
       </c>
       <c r="AI177" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ177" t="n">
         <v>23</v>
@@ -21875,7 +21875,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H178" t="n">
         <v>3.6</v>
@@ -21884,40 +21884,40 @@
         <v>1.6</v>
       </c>
       <c r="J178" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K178" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L178" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M178" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P178" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R178" t="n">
         <v>2.1</v>
       </c>
-      <c r="O178" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P178" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R178" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S178" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T178" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U178" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V178" t="n">
         <v>19</v>
@@ -21926,13 +21926,13 @@
         <v>51</v>
       </c>
       <c r="X178" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y178" t="n">
         <v>51</v>
       </c>
       <c r="Z178" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA178" t="n">
         <v>7.5</v>
@@ -21947,16 +21947,16 @@
         <v>1000</v>
       </c>
       <c r="AE178" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF178" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG178" t="n">
         <v>9</v>
       </c>
       <c r="AH178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI178" t="n">
         <v>15</v>
@@ -23705,94 +23705,94 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I193" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="J193" t="n">
         <v>1.03</v>
       </c>
       <c r="K193" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M193" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T193" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U193" t="n">
         <v>10.25</v>
-      </c>
-      <c r="L193" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M193" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N193" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O193" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P193" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R193" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S193" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T193" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="U193" t="n">
-        <v>11</v>
       </c>
       <c r="V193" t="n">
         <v>8.75</v>
       </c>
       <c r="W193" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="X193" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y193" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z193" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA193" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB193" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC193" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD193" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE193" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG193" t="n">
         <v>16</v>
       </c>
-      <c r="AF193" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG193" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH193" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI193" t="n">
         <v>40</v>
       </c>
       <c r="AJ193" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="194">
@@ -24818,10 +24818,10 @@
         <v>6</v>
       </c>
       <c r="L202" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M202" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N202" t="n">
         <v>2.88</v>
@@ -24839,7 +24839,7 @@
         <v>2.2</v>
       </c>
       <c r="S202" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T202" t="n">
         <v>6</v>
@@ -24925,13 +24925,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H203" t="n">
         <v>2.9</v>
       </c>
       <c r="I203" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J203" t="n">
         <v>1.11</v>
@@ -24940,34 +24940,34 @@
         <v>6.5</v>
       </c>
       <c r="L203" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M203" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N203" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O203" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P203" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R203" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S203" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="T203" t="n">
         <v>6.5</v>
       </c>
       <c r="U203" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V203" t="n">
         <v>11</v>
@@ -24985,7 +24985,7 @@
         <v>6</v>
       </c>
       <c r="AA203" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB203" t="n">
         <v>19</v>
@@ -25000,7 +25000,7 @@
         <v>7</v>
       </c>
       <c r="AF203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG203" t="n">
         <v>12</v>
@@ -25047,10 +25047,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H204" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I204" t="n">
         <v>4.5</v>
@@ -25068,22 +25068,22 @@
         <v>2.25</v>
       </c>
       <c r="N204" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O204" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P204" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R204" t="n">
         <v>2.5</v>
       </c>
       <c r="S204" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T204" t="n">
         <v>5</v>
@@ -25095,7 +25095,7 @@
         <v>10</v>
       </c>
       <c r="W204" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X204" t="n">
         <v>21</v>
@@ -25104,10 +25104,10 @@
         <v>41</v>
       </c>
       <c r="Z204" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA204" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB204" t="n">
         <v>23</v>
@@ -25119,22 +25119,22 @@
         <v>101</v>
       </c>
       <c r="AE204" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF204" t="n">
         <v>21</v>
       </c>
       <c r="AG204" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH204" t="n">
         <v>51</v>
       </c>
       <c r="AI204" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ204" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ204" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="205">
@@ -25202,10 +25202,10 @@
         <v>2.63</v>
       </c>
       <c r="R205" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S205" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T205" t="n">
         <v>5</v>
@@ -25413,13 +25413,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H207" t="n">
         <v>3.1</v>
       </c>
       <c r="I207" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J207" t="n">
         <v>1.08</v>
@@ -25434,7 +25434,7 @@
         <v>2.75</v>
       </c>
       <c r="N207" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O207" t="n">
         <v>1.57</v>
@@ -25449,7 +25449,7 @@
         <v>2.1</v>
       </c>
       <c r="S207" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T207" t="n">
         <v>6</v>
@@ -25482,13 +25482,13 @@
         <v>67</v>
       </c>
       <c r="AD207" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE207" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF207" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG207" t="n">
         <v>15</v>
@@ -25535,82 +25535,82 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I208" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J208" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K208" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L208" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M208" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N208" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O208" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="P208" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R208" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S208" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="T208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U208" t="n">
         <v>6</v>
       </c>
-      <c r="U208" t="n">
-        <v>6.5</v>
-      </c>
       <c r="V208" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W208" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X208" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y208" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z208" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA208" t="n">
         <v>8</v>
       </c>
       <c r="AB208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC208" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD208" t="n">
         <v>101</v>
       </c>
       <c r="AE208" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF208" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG208" t="n">
         <v>21</v>
@@ -25657,13 +25657,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H209" t="n">
         <v>2.9</v>
       </c>
       <c r="I209" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J209" t="n">
         <v>1.1</v>
@@ -25684,7 +25684,7 @@
         <v>1.5</v>
       </c>
       <c r="P209" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q209" t="n">
         <v>2.25</v>
@@ -25693,22 +25693,22 @@
         <v>2.2</v>
       </c>
       <c r="S209" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T209" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U209" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V209" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W209" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X209" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y209" t="n">
         <v>41</v>
@@ -25729,19 +25729,19 @@
         <v>800</v>
       </c>
       <c r="AE209" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF209" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH209" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI209" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ209" t="n">
         <v>41</v>
@@ -25779,31 +25779,31 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I210" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J210" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K210" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L210" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M210" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N210" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O210" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P210" t="n">
         <v>1.4</v>
@@ -25812,7 +25812,7 @@
         <v>2.75</v>
       </c>
       <c r="R210" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S210" t="n">
         <v>2</v>
@@ -25845,7 +25845,7 @@
         <v>15</v>
       </c>
       <c r="AC210" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD210" t="n">
         <v>450</v>
@@ -26023,58 +26023,58 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>3.1</v>
       </c>
       <c r="I212" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K212" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L212" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M212" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N212" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O212" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P212" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R212" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S212" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="T212" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U212" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V212" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X212" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y212" t="n">
         <v>34</v>
@@ -26083,25 +26083,25 @@
         <v>8</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB212" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC212" t="n">
         <v>51</v>
       </c>
       <c r="AD212" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE212" t="n">
         <v>9</v>
       </c>
       <c r="AF212" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH212" t="n">
         <v>34</v>
@@ -26145,19 +26145,19 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I213" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J213" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K213" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L213" t="n">
         <v>1.44</v>
@@ -26166,61 +26166,61 @@
         <v>2.63</v>
       </c>
       <c r="N213" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O213" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P213" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R213" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S213" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T213" t="n">
         <v>6</v>
       </c>
       <c r="U213" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V213" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y213" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z213" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA213" t="n">
         <v>6.5</v>
       </c>
       <c r="AB213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC213" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD213" t="n">
         <v>900</v>
       </c>
       <c r="AE213" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF213" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG213" t="n">
         <v>15</v>
@@ -26232,7 +26232,7 @@
         <v>41</v>
       </c>
       <c r="AJ213" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="214">
@@ -26276,10 +26276,10 @@
         <v>3.2</v>
       </c>
       <c r="J214" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K214" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L214" t="n">
         <v>1.5</v>
@@ -26303,7 +26303,7 @@
         <v>2.2</v>
       </c>
       <c r="S214" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T214" t="n">
         <v>6</v>
@@ -26511,10 +26511,10 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H216" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I216" t="n">
         <v>4.75</v>
@@ -26532,10 +26532,10 @@
         <v>4</v>
       </c>
       <c r="N216" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O216" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P216" t="n">
         <v>1.33</v>
@@ -26577,7 +26577,7 @@
         <v>15</v>
       </c>
       <c r="AC216" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD216" t="n">
         <v>201</v>
@@ -26595,7 +26595,7 @@
         <v>51</v>
       </c>
       <c r="AI216" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ216" t="n">
         <v>41</v>
@@ -26636,7 +26636,7 @@
         <v>4.1</v>
       </c>
       <c r="H217" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I217" t="n">
         <v>1.85</v>
@@ -26648,37 +26648,37 @@
         <v>13</v>
       </c>
       <c r="L217" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M217" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N217" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O217" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P217" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q217" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R217" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S217" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T217" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U217" t="n">
         <v>21</v>
       </c>
       <c r="V217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W217" t="n">
         <v>41</v>
@@ -26690,10 +26690,10 @@
         <v>34</v>
       </c>
       <c r="Z217" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA217" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB217" t="n">
         <v>13</v>
@@ -26705,22 +26705,22 @@
         <v>151</v>
       </c>
       <c r="AE217" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF217" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG217" t="n">
         <v>8.5</v>
       </c>
       <c r="AH217" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI217" t="n">
         <v>15</v>
       </c>
       <c r="AJ217" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
@@ -26755,94 +26755,94 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H218" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I218" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J218" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L218" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M218" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N218" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="O218" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="P218" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R218" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S218" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T218" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U218" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V218" t="n">
         <v>9</v>
       </c>
       <c r="W218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X218" t="n">
         <v>17</v>
       </c>
       <c r="Y218" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z218" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA218" t="n">
         <v>6.5</v>
       </c>
       <c r="AB218" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC218" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD218" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF218" t="n">
         <v>19</v>
       </c>
       <c r="AG218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH218" t="n">
         <v>41</v>
       </c>
       <c r="AI218" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ218" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219">
@@ -26886,34 +26886,34 @@
         <v>2.55</v>
       </c>
       <c r="J219" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K219" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L219" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M219" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N219" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O219" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P219" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q219" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R219" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S219" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T219" t="n">
         <v>13</v>
@@ -26934,7 +26934,7 @@
         <v>21</v>
       </c>
       <c r="Z219" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA219" t="n">
         <v>7.5</v>
@@ -26999,13 +26999,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="H220" t="n">
         <v>3.5</v>
       </c>
       <c r="I220" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="J220" t="n">
         <v>1.06</v>
@@ -27014,7 +27014,7 @@
         <v>7.5</v>
       </c>
       <c r="L220" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M220" t="n">
         <v>3.3</v>
@@ -27023,7 +27023,7 @@
         <v>1.85</v>
       </c>
       <c r="O220" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P220" t="n">
         <v>1.4</v>
@@ -27032,61 +27032,61 @@
         <v>2.75</v>
       </c>
       <c r="R220" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T220" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U220" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="V220" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W220" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="X220" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y220" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z220" t="n">
         <v>7.5</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB220" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC220" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD220" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE220" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF220" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG220" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH220" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI220" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ220" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221">
@@ -27386,16 +27386,16 @@
         <v>4</v>
       </c>
       <c r="N223" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O223" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P223" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q223" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R223" t="n">
         <v>1.67</v>
@@ -27404,7 +27404,7 @@
         <v>2.1</v>
       </c>
       <c r="T223" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U223" t="n">
         <v>9.5</v>
@@ -27487,13 +27487,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H224" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I224" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J224" t="n">
         <v>1.07</v>
@@ -27502,22 +27502,22 @@
         <v>9</v>
       </c>
       <c r="L224" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M224" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N224" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O224" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P224" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q224" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R224" t="n">
         <v>2</v>
@@ -27529,22 +27529,22 @@
         <v>6.5</v>
       </c>
       <c r="U224" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V224" t="n">
         <v>9</v>
       </c>
       <c r="W224" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X224" t="n">
         <v>17</v>
       </c>
       <c r="Y224" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z224" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA224" t="n">
         <v>6.5</v>
@@ -27562,7 +27562,7 @@
         <v>10</v>
       </c>
       <c r="AF224" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG224" t="n">
         <v>15</v>
@@ -27571,7 +27571,7 @@
         <v>41</v>
       </c>
       <c r="AI224" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ224" t="n">
         <v>41</v>
@@ -27849,13 +27849,13 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H227" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I227" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="J227" t="n">
         <v>1.14</v>
@@ -27864,22 +27864,22 @@
         <v>4.3</v>
       </c>
       <c r="L227" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M227" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="N227" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="O227" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P227" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="R227" t="n">
         <v>2.07</v>
@@ -27888,31 +27888,31 @@
         <v>1.6</v>
       </c>
       <c r="T227" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U227" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V227" t="n">
         <v>9</v>
       </c>
-      <c r="V227" t="n">
-        <v>9.75</v>
-      </c>
       <c r="W227" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X227" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y227" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z227" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AA227" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB227" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC227" t="n">
         <v>120</v>
@@ -27921,22 +27921,22 @@
         <v>101</v>
       </c>
       <c r="AE227" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AF227" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AG227" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH227" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI227" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ227" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228">
@@ -27971,19 +27971,19 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H228" t="n">
         <v>3.3</v>
       </c>
       <c r="I228" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J228" t="n">
         <v>1.07</v>
       </c>
       <c r="K228" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L228" t="n">
         <v>1.4</v>
@@ -27992,13 +27992,13 @@
         <v>2.75</v>
       </c>
       <c r="N228" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O228" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P228" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q228" t="n">
         <v>2.5</v>
@@ -28040,7 +28040,7 @@
         <v>51</v>
       </c>
       <c r="AD228" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE228" t="n">
         <v>7</v>
@@ -28052,7 +28052,7 @@
         <v>10</v>
       </c>
       <c r="AH228" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI228" t="n">
         <v>21</v>
@@ -28096,7 +28096,7 @@
         <v>2.8</v>
       </c>
       <c r="H229" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I229" t="n">
         <v>2.45</v>
@@ -28105,7 +28105,7 @@
         <v>1.07</v>
       </c>
       <c r="K229" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L229" t="n">
         <v>1.36</v>
@@ -28129,10 +28129,10 @@
         <v>1.8</v>
       </c>
       <c r="S229" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T229" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U229" t="n">
         <v>13</v>
@@ -28150,7 +28150,7 @@
         <v>34</v>
       </c>
       <c r="Z229" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA229" t="n">
         <v>6</v>
@@ -28162,10 +28162,10 @@
         <v>51</v>
       </c>
       <c r="AD229" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE229" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF229" t="n">
         <v>12</v>
@@ -28180,7 +28180,7 @@
         <v>21</v>
       </c>
       <c r="AJ229" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230">
@@ -28224,22 +28224,22 @@
         <v>7</v>
       </c>
       <c r="J230" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K230" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L230" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M230" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N230" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O230" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P230" t="n">
         <v>1.4</v>
@@ -28251,7 +28251,7 @@
         <v>2.25</v>
       </c>
       <c r="S230" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T230" t="n">
         <v>5.5</v>
@@ -28337,13 +28337,13 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>3.5</v>
       </c>
       <c r="I231" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J231" t="n">
         <v>1.05</v>
@@ -28358,10 +28358,10 @@
         <v>3.75</v>
       </c>
       <c r="N231" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O231" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P231" t="n">
         <v>1.4</v>
@@ -28370,7 +28370,7 @@
         <v>2.75</v>
       </c>
       <c r="R231" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S231" t="n">
         <v>2.05</v>
@@ -28388,7 +28388,7 @@
         <v>29</v>
       </c>
       <c r="X231" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y231" t="n">
         <v>29</v>
@@ -28409,7 +28409,7 @@
         <v>201</v>
       </c>
       <c r="AE231" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF231" t="n">
         <v>12</v>
@@ -28480,10 +28480,10 @@
         <v>5.5</v>
       </c>
       <c r="N232" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O232" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P232" t="n">
         <v>1.25</v>
@@ -28492,7 +28492,7 @@
         <v>3.75</v>
       </c>
       <c r="R232" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S232" t="n">
         <v>2.25</v>
@@ -28501,7 +28501,7 @@
         <v>10</v>
       </c>
       <c r="U232" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V232" t="n">
         <v>8.5</v>
@@ -28593,7 +28593,7 @@
         <v>1.04</v>
       </c>
       <c r="K233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L233" t="n">
         <v>1.25</v>
@@ -28602,10 +28602,10 @@
         <v>3.75</v>
       </c>
       <c r="N233" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O233" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P233" t="n">
         <v>1.36</v>
@@ -28614,10 +28614,10 @@
         <v>3</v>
       </c>
       <c r="R233" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S233" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T233" t="n">
         <v>7.5</v>
@@ -28706,28 +28706,28 @@
         <v>2.38</v>
       </c>
       <c r="H234" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M234" t="n">
         <v>3</v>
       </c>
-      <c r="J234" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K234" t="n">
-        <v>10</v>
-      </c>
-      <c r="L234" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M234" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N234" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O234" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P234" t="n">
         <v>1.44</v>
@@ -28736,13 +28736,13 @@
         <v>2.63</v>
       </c>
       <c r="R234" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S234" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T234" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U234" t="n">
         <v>11</v>
@@ -28757,10 +28757,10 @@
         <v>21</v>
       </c>
       <c r="Y234" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z234" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA234" t="n">
         <v>6</v>
@@ -28772,10 +28772,10 @@
         <v>51</v>
       </c>
       <c r="AD234" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE234" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF234" t="n">
         <v>15</v>
@@ -28840,16 +28840,16 @@
         <v>15</v>
       </c>
       <c r="L235" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M235" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N235" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O235" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P235" t="n">
         <v>1.3</v>
@@ -28858,7 +28858,7 @@
         <v>3.4</v>
       </c>
       <c r="R235" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S235" t="n">
         <v>2.5</v>
@@ -28947,22 +28947,22 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
       </c>
       <c r="I236" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J236" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K236" t="n">
         <v>11</v>
       </c>
       <c r="L236" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M236" t="n">
         <v>3.75</v>
@@ -28974,19 +28974,19 @@
         <v>2</v>
       </c>
       <c r="P236" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R236" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S236" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T236" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U236" t="n">
         <v>11</v>
@@ -29016,7 +29016,7 @@
         <v>41</v>
       </c>
       <c r="AD236" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE236" t="n">
         <v>11</v>
@@ -29031,10 +29031,10 @@
         <v>34</v>
       </c>
       <c r="AI236" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ236" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237">
@@ -29078,13 +29078,13 @@
         <v>4.2</v>
       </c>
       <c r="J237" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K237" t="n">
         <v>11</v>
       </c>
       <c r="L237" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M237" t="n">
         <v>3.5</v>
@@ -29200,16 +29200,16 @@
         <v>2.7</v>
       </c>
       <c r="J238" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K238" t="n">
         <v>10</v>
       </c>
       <c r="L238" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M238" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N238" t="n">
         <v>2.05</v>
@@ -29322,13 +29322,13 @@
         <v>4.2</v>
       </c>
       <c r="J239" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K239" t="n">
         <v>13</v>
       </c>
       <c r="L239" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M239" t="n">
         <v>3.75</v>
@@ -29444,13 +29444,13 @@
         <v>2.75</v>
       </c>
       <c r="J240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K240" t="n">
         <v>15</v>
       </c>
       <c r="L240" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M240" t="n">
         <v>4.33</v>
@@ -29566,13 +29566,13 @@
         <v>4</v>
       </c>
       <c r="J241" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K241" t="n">
         <v>13</v>
       </c>
       <c r="L241" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M241" t="n">
         <v>4</v>
@@ -29688,13 +29688,13 @@
         <v>5</v>
       </c>
       <c r="J242" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K242" t="n">
         <v>15</v>
       </c>
       <c r="L242" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M242" t="n">
         <v>4.33</v>
@@ -29801,19 +29801,19 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="H243" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I243" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J243" t="n">
         <v>1.05</v>
       </c>
       <c r="K243" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L243" t="n">
         <v>1.25</v>
@@ -29828,58 +29828,58 @@
         <v>1.98</v>
       </c>
       <c r="P243" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q243" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R243" t="n">
         <v>1.62</v>
       </c>
       <c r="S243" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T243" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U243" t="n">
+        <v>16</v>
+      </c>
+      <c r="V243" t="n">
         <v>10.25</v>
       </c>
-      <c r="U243" t="n">
-        <v>15</v>
-      </c>
-      <c r="V243" t="n">
-        <v>10</v>
-      </c>
       <c r="W243" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X243" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y243" t="n">
         <v>27</v>
       </c>
       <c r="Z243" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA243" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB243" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC243" t="n">
         <v>50</v>
       </c>
       <c r="AD243" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE243" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF243" t="n">
         <v>12</v>
       </c>
       <c r="AG243" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH243" t="n">
         <v>23</v>
@@ -29888,7 +29888,7 @@
         <v>17.5</v>
       </c>
       <c r="AJ243" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244">
@@ -30048,16 +30048,16 @@
         <v>1.87</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I245" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J245" t="n">
         <v>1.11</v>
       </c>
       <c r="K245" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L245" t="n">
         <v>1.47</v>
@@ -30066,7 +30066,7 @@
         <v>2.5</v>
       </c>
       <c r="N245" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O245" t="n">
         <v>1.5</v>
@@ -30078,13 +30078,13 @@
         <v>2.25</v>
       </c>
       <c r="R245" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S245" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T245" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U245" t="n">
         <v>7.5</v>
@@ -30102,10 +30102,10 @@
         <v>40</v>
       </c>
       <c r="Z245" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA245" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB245" t="n">
         <v>19</v>
@@ -30117,16 +30117,16 @@
         <v>900</v>
       </c>
       <c r="AE245" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF245" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG245" t="n">
         <v>15</v>
       </c>
       <c r="AH245" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI245" t="n">
         <v>50</v>
@@ -30289,7 +30289,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H247" t="n">
         <v>3.25</v>
@@ -30310,7 +30310,7 @@
         <v>2.75</v>
       </c>
       <c r="N247" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O247" t="n">
         <v>1.62</v>
@@ -30411,13 +30411,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H248" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I248" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J248" t="n">
         <v>1.04</v>
@@ -30426,16 +30426,16 @@
         <v>8.5</v>
       </c>
       <c r="L248" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M248" t="n">
         <v>3.8</v>
       </c>
       <c r="N248" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O248" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P248" t="n">
         <v>1.34</v>
@@ -30447,7 +30447,7 @@
         <v>1.88</v>
       </c>
       <c r="S248" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T248" t="n">
         <v>7.3</v>
@@ -30459,7 +30459,7 @@
         <v>8.25</v>
       </c>
       <c r="W248" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X248" t="n">
         <v>11.5</v>
@@ -30471,7 +30471,7 @@
         <v>8.5</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB248" t="n">
         <v>18.5</v>
@@ -30486,16 +30486,16 @@
         <v>17</v>
       </c>
       <c r="AF248" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG248" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH248" t="n">
         <v>120</v>
       </c>
       <c r="AI248" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ248" t="n">
         <v>60</v>
@@ -30578,7 +30578,7 @@
         <v>11.5</v>
       </c>
       <c r="V249" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W249" t="n">
         <v>23</v>
@@ -30655,7 +30655,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>3.15</v>
@@ -30694,13 +30694,13 @@
         <v>1.83</v>
       </c>
       <c r="T250" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="U250" t="n">
         <v>13</v>
       </c>
       <c r="V250" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W250" t="n">
         <v>32</v>
@@ -30727,19 +30727,19 @@
         <v>700</v>
       </c>
       <c r="AE250" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF250" t="n">
         <v>11.25</v>
       </c>
       <c r="AG250" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH250" t="n">
         <v>25</v>
       </c>
       <c r="AI250" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ250" t="n">
         <v>35</v>
@@ -30938,10 +30938,10 @@
         <v>1.87</v>
       </c>
       <c r="T252" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U252" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V252" t="n">
         <v>9.25</v>
@@ -30968,10 +30968,10 @@
         <v>75</v>
       </c>
       <c r="AD252" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE252" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF252" t="n">
         <v>15</v>
@@ -30983,7 +30983,7 @@
         <v>37</v>
       </c>
       <c r="AI252" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ252" t="n">
         <v>37</v>
@@ -31021,7 +31021,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="H253" t="n">
         <v>3.4</v>
@@ -31059,10 +31059,10 @@
         <v>10.25</v>
       </c>
       <c r="U253" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V253" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W253" t="n">
         <v>70</v>
@@ -31071,7 +31071,7 @@
         <v>45</v>
       </c>
       <c r="Y253" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z253" t="n">
         <v>8.25</v>
@@ -31098,7 +31098,7 @@
         <v>8.5</v>
       </c>
       <c r="AH253" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI253" t="n">
         <v>16</v>
@@ -31142,10 +31142,10 @@
         <v>2.6</v>
       </c>
       <c r="H254" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I254" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J254" t="n">
         <v>1.1</v>
@@ -31169,16 +31169,16 @@
         <v>1.53</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R254" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S254" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T254" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U254" t="n">
         <v>12</v>
@@ -31193,10 +31193,10 @@
         <v>25</v>
       </c>
       <c r="Y254" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z254" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA254" t="n">
         <v>5.6</v>
@@ -31208,13 +31208,13 @@
         <v>90</v>
       </c>
       <c r="AD254" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE254" t="n">
         <v>7.2</v>
       </c>
       <c r="AF254" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG254" t="n">
         <v>10.5</v>
@@ -31223,7 +31223,7 @@
         <v>35</v>
       </c>
       <c r="AI254" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ254" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>2.3</v>
@@ -1394,10 +1394,10 @@
         <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
         <v>2.1</v>
@@ -1412,10 +1412,10 @@
         <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE8" t="n">
         <v>7.5</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1546,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
         <v>29</v>
@@ -1579,16 +1579,16 @@
         <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1882,31 +1882,31 @@
         <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U12" t="n">
         <v>5.5</v>
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -1930,26 +1930,26 @@
         <v>9.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>126</v>
       </c>
       <c r="AI12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="n">
         <v>67</v>
@@ -2231,46 +2231,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U15" t="n">
         <v>7</v>
@@ -2279,31 +2279,31 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
         <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
@@ -2368,10 +2368,10 @@
         <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>1.44</v>
@@ -2386,19 +2386,19 @@
         <v>3.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U16" t="n">
         <v>41</v>
       </c>
       <c r="V16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W16" t="n">
         <v>101</v>
@@ -2407,7 +2407,7 @@
         <v>51</v>
       </c>
       <c r="Y16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -2416,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
         <v>51</v>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -2481,7 +2481,7 @@
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.1</v>
@@ -2496,10 +2496,10 @@
         <v>2.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.57</v>
@@ -2508,10 +2508,10 @@
         <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="T17" t="n">
         <v>5.5</v>
@@ -2532,7 +2532,7 @@
         <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2550,7 +2550,7 @@
         <v>8.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2606,10 +2606,10 @@
         <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.53</v>
@@ -2633,7 +2633,7 @@
         <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2755,7 +2755,7 @@
         <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2841,19 +2841,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.67</v>
@@ -2877,22 +2877,22 @@
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W20" t="n">
         <v>23</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>51</v>
@@ -2916,10 +2916,10 @@
         <v>6.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>41</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
         <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
         <v>1.17</v>
@@ -2984,31 +2984,31 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R21" t="n">
         <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>29</v>
@@ -3020,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
@@ -3044,7 +3044,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
         <v>34</v>
@@ -3088,10 +3088,10 @@
         <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>1.14</v>
@@ -3121,13 +3121,13 @@
         <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
         <v>5</v>
       </c>
       <c r="U22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>11</v>
@@ -3160,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3240,10 +3240,10 @@
         <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
         <v>6.5</v>
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3350,16 +3350,16 @@
         <v>2.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
         <v>2.5</v>
@@ -3368,28 +3368,28 @@
         <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V24" t="n">
         <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X24" t="n">
         <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z24" t="n">
         <v>5.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -3401,13 +3401,13 @@
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG24" t="n">
         <v>15</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>41</v>
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3493,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V25" t="n">
         <v>13</v>
@@ -3523,7 +3523,7 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3695,22 +3695,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3734,31 +3734,31 @@
         <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U27" t="n">
         <v>29</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W27" t="n">
         <v>51</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
       </c>
       <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB27" t="n">
         <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3776,7 +3776,7 @@
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -3817,31 +3817,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
         <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3859,25 +3859,25 @@
         <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
@@ -3889,10 +3889,10 @@
         <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -3901,10 +3901,10 @@
         <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -3945,25 +3945,25 @@
         <v>7.5</v>
       </c>
       <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K29" t="n">
-        <v>17</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O29" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P29" t="n">
         <v>1.22</v>
@@ -3978,13 +3978,13 @@
         <v>1.53</v>
       </c>
       <c r="T29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
@@ -4005,7 +4005,7 @@
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="n">
         <v>351</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4094,16 +4094,16 @@
         <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
@@ -4133,10 +4133,10 @@
         <v>301</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -4145,10 +4145,10 @@
         <v>67</v>
       </c>
       <c r="AI30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -4183,13 +4183,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J31" t="n">
         <v>1.08</v>
@@ -4198,16 +4198,16 @@
         <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
         <v>1.5</v>
@@ -4222,7 +4222,7 @@
         <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U31" t="n">
         <v>13</v>
@@ -4231,10 +4231,10 @@
         <v>11</v>
       </c>
       <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
         <v>26</v>
-      </c>
-      <c r="X31" t="n">
-        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>34</v>
@@ -4255,19 +4255,19 @@
         <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4305,19 +4305,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.4</v>
@@ -4344,7 +4344,7 @@
         <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U32" t="n">
         <v>10</v>
@@ -4362,13 +4362,13 @@
         <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
         <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
         <v>51</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>1.11</v>
@@ -4686,10 +4686,10 @@
         <v>6.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N35" t="n">
         <v>2.5</v>
@@ -4704,16 +4704,16 @@
         <v>2.25</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
         <v>11</v>
@@ -4722,13 +4722,13 @@
         <v>26</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA35" t="n">
         <v>5.5</v>
@@ -4740,10 +4740,10 @@
         <v>67</v>
       </c>
       <c r="AD35" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF35" t="n">
         <v>13</v>
@@ -4802,16 +4802,16 @@
         <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K36" t="n">
         <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N36" t="n">
         <v>2.7</v>
@@ -4924,13 +4924,13 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
         <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
         <v>2.5</v>
@@ -5037,31 +5037,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
         <v>7.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P38" t="n">
         <v>1.5</v>
@@ -5070,10 +5070,10 @@
         <v>2.5</v>
       </c>
       <c r="R38" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T38" t="n">
         <v>5</v>
@@ -5088,7 +5088,7 @@
         <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>41</v>
@@ -5097,7 +5097,7 @@
         <v>7.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB38" t="n">
         <v>23</v>
@@ -5109,13 +5109,13 @@
         <v>101</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
         <v>67</v>
@@ -5168,16 +5168,16 @@
         <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
         <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N39" t="n">
         <v>2.7</v>
@@ -5653,31 +5653,31 @@
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J43" t="n">
         <v>1.06</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R43" t="n">
         <v>1.73</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA43" t="n">
         <v>6</v>
@@ -5713,16 +5713,16 @@
         <v>13</v>
       </c>
       <c r="AC43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
         <v>201</v>
       </c>
       <c r="AE43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
         <v>11</v>
@@ -5734,7 +5734,7 @@
         <v>23</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -6501,70 +6501,70 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J50" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P50" t="n">
         <v>1.44</v>
       </c>
-      <c r="M50" t="n">
+      <c r="Q50" t="n">
         <v>2.63</v>
       </c>
-      <c r="N50" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W50" t="n">
+        <v>67</v>
+      </c>
+      <c r="X50" t="n">
         <v>51</v>
-      </c>
-      <c r="X50" t="n">
-        <v>41</v>
       </c>
       <c r="Y50" t="n">
         <v>51</v>
       </c>
       <c r="Z50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA50" t="n">
         <v>7</v>
       </c>
-      <c r="AA50" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC50" t="n">
         <v>67</v>
@@ -6576,16 +6576,16 @@
         <v>5.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG50" t="n">
         <v>9</v>
       </c>
       <c r="AH50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ50" t="n">
         <v>34</v>
@@ -6638,10 +6638,10 @@
         <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N51" t="n">
         <v>2.5</v>
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7010,10 +7010,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -7037,7 +7037,7 @@
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -7052,7 +7052,7 @@
         <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
         <v>67</v>
@@ -7061,13 +7061,13 @@
         <v>101</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH54" t="n">
         <v>67</v>
@@ -7120,22 +7120,22 @@
         <v>3.6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
         <v>1.04</v>
@@ -7254,10 +7254,10 @@
         <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7275,13 +7275,13 @@
         <v>6.5</v>
       </c>
       <c r="U56" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X56" t="n">
         <v>12</v>
@@ -7296,19 +7296,19 @@
         <v>9.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD56" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="n">
         <v>21</v>
@@ -12697,70 +12697,70 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I101" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="J101" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K101" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
         <v>1.25</v>
       </c>
       <c r="M101" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R101" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S101" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T101" t="n">
+        <v>11</v>
+      </c>
+      <c r="U101" t="n">
+        <v>21</v>
+      </c>
+      <c r="V101" t="n">
         <v>13</v>
       </c>
-      <c r="U101" t="n">
-        <v>23</v>
-      </c>
-      <c r="V101" t="n">
+      <c r="W101" t="n">
+        <v>41</v>
+      </c>
+      <c r="X101" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB101" t="n">
         <v>15</v>
-      </c>
-      <c r="W101" t="n">
-        <v>51</v>
-      </c>
-      <c r="X101" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>17</v>
       </c>
       <c r="AC101" t="n">
         <v>51</v>
@@ -12769,19 +12769,19 @@
         <v>251</v>
       </c>
       <c r="AE101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG101" t="n">
         <v>8.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ101" t="n">
         <v>26</v>
@@ -14247,13 +14247,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H114" t="n">
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J114" t="n">
         <v>1.06</v>
@@ -14268,10 +14268,10 @@
         <v>3.25</v>
       </c>
       <c r="N114" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O114" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P114" t="n">
         <v>1.44</v>
@@ -14280,10 +14280,10 @@
         <v>2.63</v>
       </c>
       <c r="R114" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S114" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T114" t="n">
         <v>12</v>
@@ -14295,16 +14295,16 @@
         <v>17</v>
       </c>
       <c r="W114" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X114" t="n">
         <v>41</v>
       </c>
       <c r="Y114" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA114" t="n">
         <v>8</v>
@@ -14313,7 +14313,7 @@
         <v>21</v>
       </c>
       <c r="AC114" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD114" t="n">
         <v>301</v>
@@ -14322,19 +14322,19 @@
         <v>6</v>
       </c>
       <c r="AF114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI114" t="n">
         <v>15</v>
       </c>
       <c r="AJ114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
@@ -14605,13 +14605,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J117" t="n">
         <v>1.07</v>
@@ -14626,34 +14626,34 @@
         <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O117" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P117" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R117" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S117" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T117" t="n">
         <v>9</v>
       </c>
       <c r="U117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V117" t="n">
         <v>12</v>
       </c>
       <c r="W117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X117" t="n">
         <v>29</v>
@@ -14662,31 +14662,31 @@
         <v>41</v>
       </c>
       <c r="Z117" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC117" t="n">
         <v>51</v>
       </c>
       <c r="AD117" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG117" t="n">
         <v>9.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI117" t="n">
         <v>19</v>
@@ -15337,19 +15337,19 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I123" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J123" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L123" t="n">
         <v>1.33</v>
@@ -15358,16 +15358,16 @@
         <v>3.25</v>
       </c>
       <c r="N123" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O123" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P123" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R123" t="n">
         <v>1.8</v>
@@ -15385,7 +15385,7 @@
         <v>12</v>
       </c>
       <c r="W123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X123" t="n">
         <v>29</v>
@@ -15418,10 +15418,10 @@
         <v>9</v>
       </c>
       <c r="AH123" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI123" t="n">
         <v>19</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>17</v>
       </c>
       <c r="AJ123" t="n">
         <v>29</v>
@@ -18311,13 +18311,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H148" t="n">
         <v>4.2</v>
       </c>
       <c r="I148" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J148" t="n">
         <v>1.04</v>
@@ -18332,10 +18332,10 @@
         <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O148" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18362,13 +18362,13 @@
         <v>12</v>
       </c>
       <c r="X148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y148" t="n">
         <v>23</v>
       </c>
       <c r="Z148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA148" t="n">
         <v>8</v>
@@ -18436,28 +18436,28 @@
         <v>1.75</v>
       </c>
       <c r="H149" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I149" t="n">
         <v>4.5</v>
       </c>
       <c r="J149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L149" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M149" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N149" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O149" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P149" t="n">
         <v>1.4</v>
@@ -18481,7 +18481,7 @@
         <v>8.5</v>
       </c>
       <c r="W149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X149" t="n">
         <v>15</v>
@@ -18508,7 +18508,7 @@
         <v>12</v>
       </c>
       <c r="AF149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG149" t="n">
         <v>15</v>
@@ -18517,7 +18517,7 @@
         <v>51</v>
       </c>
       <c r="AI149" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18555,22 +18555,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H150" t="n">
         <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L150" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M150" t="n">
         <v>3.25</v>
@@ -18579,7 +18579,7 @@
         <v>2.05</v>
       </c>
       <c r="O150" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P150" t="n">
         <v>1.44</v>
@@ -18606,7 +18606,7 @@
         <v>23</v>
       </c>
       <c r="X150" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y150" t="n">
         <v>29</v>
@@ -18686,19 +18686,19 @@
         <v>2.05</v>
       </c>
       <c r="J151" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K151" t="n">
         <v>15</v>
       </c>
       <c r="L151" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M151" t="n">
         <v>4.5</v>
       </c>
       <c r="N151" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O151" t="n">
         <v>2.2</v>
@@ -19027,13 +19027,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H154" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I154" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -19055,13 +19055,13 @@
         <v>1.62</v>
       </c>
       <c r="S154" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T154" t="n">
         <v>8.25</v>
       </c>
       <c r="U154" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V154" t="n">
         <v>8.5</v>
@@ -19079,13 +19079,13 @@
         <v>12</v>
       </c>
       <c r="AA154" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB154" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC154" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD154" t="n">
         <v>350</v>
@@ -19100,7 +19100,7 @@
         <v>11.75</v>
       </c>
       <c r="AH154" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI154" t="n">
         <v>28</v>
@@ -19259,13 +19259,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I156" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -19276,10 +19276,10 @@
         <v>3.3</v>
       </c>
       <c r="N156" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O156" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
@@ -19299,7 +19299,7 @@
         <v>8</v>
       </c>
       <c r="W156" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X156" t="n">
         <v>13</v>
@@ -19311,13 +19311,13 @@
         <v>11.25</v>
       </c>
       <c r="AA156" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB156" t="n">
         <v>14.5</v>
       </c>
       <c r="AC156" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD156" t="n">
         <v>450</v>
@@ -19329,16 +19329,16 @@
         <v>26</v>
       </c>
       <c r="AG156" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH156" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI156" t="n">
         <v>40</v>
       </c>
       <c r="AJ156" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157">
@@ -19557,64 +19557,64 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H159" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J159" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L159" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M159" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N159" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O159" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P159" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R159" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S159" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T159" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U159" t="n">
         <v>7</v>
       </c>
       <c r="V159" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W159" t="n">
         <v>13</v>
       </c>
       <c r="X159" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y159" t="n">
         <v>41</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -19635,13 +19635,13 @@
         <v>23</v>
       </c>
       <c r="AG159" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH159" t="n">
         <v>51</v>
       </c>
       <c r="AI159" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ159" t="n">
         <v>51</v>
@@ -19679,7 +19679,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H160" t="n">
         <v>4.1</v>
@@ -19688,22 +19688,22 @@
         <v>5.25</v>
       </c>
       <c r="J160" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L160" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M160" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N160" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O160" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P160" t="n">
         <v>1.4</v>
@@ -19715,7 +19715,7 @@
         <v>2.1</v>
       </c>
       <c r="S160" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T160" t="n">
         <v>6</v>
@@ -19801,25 +19801,25 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H161" t="n">
         <v>3.3</v>
       </c>
       <c r="I161" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J161" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K161" t="n">
         <v>8</v>
       </c>
       <c r="L161" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M161" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N161" t="n">
         <v>2.35</v>
@@ -19834,31 +19834,31 @@
         <v>2.38</v>
       </c>
       <c r="R161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S161" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="T161" t="n">
         <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V161" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W161" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X161" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y161" t="n">
         <v>41</v>
       </c>
       <c r="Z161" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA161" t="n">
         <v>6.5</v>
@@ -19876,19 +19876,19 @@
         <v>6.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG161" t="n">
         <v>10</v>
       </c>
       <c r="AH161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI161" t="n">
         <v>21</v>
       </c>
       <c r="AJ161" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -19923,22 +19923,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="H162" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J162" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
       <c r="L162" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M162" t="n">
         <v>4.33</v>
@@ -19956,7 +19956,7 @@
         <v>3.4</v>
       </c>
       <c r="R162" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S162" t="n">
         <v>2</v>
@@ -19971,7 +19971,7 @@
         <v>8.5</v>
       </c>
       <c r="W162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X162" t="n">
         <v>12</v>
@@ -19983,7 +19983,7 @@
         <v>13</v>
       </c>
       <c r="AA162" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB162" t="n">
         <v>15</v>
@@ -19995,7 +19995,7 @@
         <v>201</v>
       </c>
       <c r="AE162" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF162" t="n">
         <v>34</v>
@@ -20004,7 +20004,7 @@
         <v>19</v>
       </c>
       <c r="AH162" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI162" t="n">
         <v>41</v>
@@ -20289,13 +20289,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H165" t="n">
         <v>4.5</v>
       </c>
       <c r="I165" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J165" t="n">
         <v>1.05</v>
@@ -20322,10 +20322,10 @@
         <v>2.75</v>
       </c>
       <c r="R165" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S165" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T165" t="n">
         <v>5.5</v>
@@ -20334,7 +20334,7 @@
         <v>6</v>
       </c>
       <c r="V165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W165" t="n">
         <v>9</v>
@@ -20364,19 +20364,19 @@
         <v>15</v>
       </c>
       <c r="AF165" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH165" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI165" t="n">
         <v>51</v>
       </c>
       <c r="AJ165" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166">
@@ -20539,7 +20539,7 @@
         <v>3.6</v>
       </c>
       <c r="I167" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="J167" t="n">
         <v>1.07</v>
@@ -20557,31 +20557,31 @@
         <v>2.15</v>
       </c>
       <c r="O167" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P167" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R167" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S167" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T167" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U167" t="n">
         <v>26</v>
       </c>
       <c r="V167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W167" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X167" t="n">
         <v>41</v>
@@ -20593,7 +20593,7 @@
         <v>8.5</v>
       </c>
       <c r="AA167" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB167" t="n">
         <v>21</v>
@@ -20605,7 +20605,7 @@
         <v>700</v>
       </c>
       <c r="AE167" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF167" t="n">
         <v>7</v>
@@ -20899,13 +20899,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H170" t="n">
         <v>3.7</v>
       </c>
       <c r="I170" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J170" t="n">
         <v>1.07</v>
@@ -20914,16 +20914,16 @@
         <v>9</v>
       </c>
       <c r="L170" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M170" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N170" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O170" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="P170" t="n">
         <v>1.5</v>
@@ -20932,10 +20932,10 @@
         <v>2.5</v>
       </c>
       <c r="R170" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S170" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T170" t="n">
         <v>13</v>
@@ -20956,7 +20956,7 @@
         <v>67</v>
       </c>
       <c r="Z170" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA170" t="n">
         <v>7.5</v>
@@ -21021,31 +21021,31 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H171" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I171" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J171" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K171" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L171" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M171" t="n">
         <v>3.25</v>
       </c>
       <c r="N171" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O171" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P171" t="n">
         <v>1.44</v>
@@ -21054,10 +21054,10 @@
         <v>2.63</v>
       </c>
       <c r="R171" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S171" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T171" t="n">
         <v>13</v>
@@ -21066,49 +21066,49 @@
         <v>29</v>
       </c>
       <c r="V171" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W171" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X171" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y171" t="n">
         <v>51</v>
       </c>
       <c r="Z171" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA171" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB171" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC171" t="n">
         <v>67</v>
       </c>
       <c r="AD171" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE171" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF171" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG171" t="n">
         <v>8.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI171" t="n">
         <v>15</v>
       </c>
       <c r="AJ171" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
@@ -21631,13 +21631,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>3.1</v>
       </c>
       <c r="I176" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J176" t="n">
         <v>1.1</v>
@@ -21667,22 +21667,22 @@
         <v>2.1</v>
       </c>
       <c r="S176" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T176" t="n">
         <v>6</v>
       </c>
       <c r="U176" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V176" t="n">
         <v>9.5</v>
       </c>
       <c r="W176" t="n">
+        <v>17</v>
+      </c>
+      <c r="X176" t="n">
         <v>19</v>
-      </c>
-      <c r="X176" t="n">
-        <v>21</v>
       </c>
       <c r="Y176" t="n">
         <v>34</v>
@@ -21703,19 +21703,19 @@
         <v>900</v>
       </c>
       <c r="AE176" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH176" t="n">
         <v>41</v>
       </c>
       <c r="AI176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ176" t="n">
         <v>41</v>
@@ -21997,31 +21997,31 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="H179" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I179" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J179" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="K179" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="L179" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M179" t="n">
         <v>6.5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O179" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P179" t="n">
         <v>1.2</v>
@@ -22030,37 +22030,37 @@
         <v>4.33</v>
       </c>
       <c r="R179" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S179" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T179" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U179" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V179" t="n">
         <v>10</v>
       </c>
       <c r="W179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC179" t="n">
         <v>51</v>
@@ -22069,22 +22069,22 @@
         <v>151</v>
       </c>
       <c r="AE179" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF179" t="n">
         <v>51</v>
       </c>
       <c r="AG179" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH179" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI179" t="n">
         <v>51</v>
       </c>
       <c r="AJ179" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180">
@@ -25169,73 +25169,73 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H205" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I205" t="n">
         <v>8.5</v>
       </c>
       <c r="J205" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K205" t="n">
+        <v>8</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>5</v>
+      </c>
+      <c r="V205" t="n">
         <v>10</v>
       </c>
-      <c r="L205" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M205" t="n">
-        <v>3</v>
-      </c>
-      <c r="N205" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O205" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P205" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R205" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S205" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T205" t="n">
-        <v>5</v>
-      </c>
-      <c r="U205" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V205" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W205" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X205" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y205" t="n">
         <v>41</v>
       </c>
       <c r="Z205" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA205" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB205" t="n">
         <v>34</v>
       </c>
       <c r="AC205" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD205" t="n">
         <v>1000</v>
@@ -25250,10 +25250,10 @@
         <v>26</v>
       </c>
       <c r="AH205" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI205" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ205" t="n">
         <v>81</v>
@@ -25779,31 +25779,31 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="H210" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I210" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J210" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K210" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L210" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M210" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N210" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O210" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P210" t="n">
         <v>1.4</v>
@@ -25812,31 +25812,31 @@
         <v>2.75</v>
       </c>
       <c r="R210" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S210" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T210" t="n">
         <v>9.5</v>
       </c>
       <c r="U210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V210" t="n">
         <v>11</v>
       </c>
       <c r="W210" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X210" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y210" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z210" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA210" t="n">
         <v>6.5</v>
@@ -25851,19 +25851,19 @@
         <v>450</v>
       </c>
       <c r="AE210" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF210" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG210" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH210" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI210" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ210" t="n">
         <v>29</v>
@@ -26267,22 +26267,22 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J214" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K214" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L214" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M214" t="n">
         <v>2.5</v>
@@ -26312,7 +26312,7 @@
         <v>9.5</v>
       </c>
       <c r="V214" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W214" t="n">
         <v>21</v>
@@ -26339,7 +26339,7 @@
         <v>101</v>
       </c>
       <c r="AE214" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF214" t="n">
         <v>15</v>
@@ -26877,88 +26877,88 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I219" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J219" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K219" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L219" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M219" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N219" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="O219" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="P219" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q219" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R219" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S219" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T219" t="n">
         <v>13</v>
       </c>
       <c r="U219" t="n">
+        <v>19</v>
+      </c>
+      <c r="V219" t="n">
+        <v>11</v>
+      </c>
+      <c r="W219" t="n">
+        <v>29</v>
+      </c>
+      <c r="X219" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z219" t="n">
         <v>17</v>
       </c>
-      <c r="V219" t="n">
-        <v>10</v>
-      </c>
-      <c r="W219" t="n">
-        <v>26</v>
-      </c>
-      <c r="X219" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y219" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z219" t="n">
-        <v>19</v>
-      </c>
       <c r="AA219" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB219" t="n">
         <v>11</v>
       </c>
       <c r="AC219" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD219" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF219" t="n">
         <v>13</v>
       </c>
-      <c r="AF219" t="n">
-        <v>17</v>
-      </c>
       <c r="AG219" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH219" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI219" t="n">
         <v>17</v>
@@ -28093,19 +28093,19 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H229" t="n">
         <v>3.1</v>
       </c>
       <c r="I229" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J229" t="n">
         <v>1.07</v>
       </c>
       <c r="K229" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L229" t="n">
         <v>1.36</v>
@@ -28120,19 +28120,19 @@
         <v>1.67</v>
       </c>
       <c r="P229" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R229" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S229" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T229" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U229" t="n">
         <v>13</v>
@@ -28150,7 +28150,7 @@
         <v>34</v>
       </c>
       <c r="Z229" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA229" t="n">
         <v>6</v>
@@ -28174,10 +28174,10 @@
         <v>10</v>
       </c>
       <c r="AH229" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI229" t="n">
         <v>23</v>
-      </c>
-      <c r="AI229" t="n">
-        <v>21</v>
       </c>
       <c r="AJ229" t="n">
         <v>34</v>
@@ -28215,19 +28215,19 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H230" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I230" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J230" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K230" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L230" t="n">
         <v>1.3</v>
@@ -28251,7 +28251,7 @@
         <v>2.25</v>
       </c>
       <c r="S230" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T230" t="n">
         <v>5.5</v>
@@ -28263,7 +28263,7 @@
         <v>9</v>
       </c>
       <c r="W230" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X230" t="n">
         <v>13</v>
@@ -28272,7 +28272,7 @@
         <v>34</v>
       </c>
       <c r="Z230" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA230" t="n">
         <v>8.5</v>
@@ -28287,22 +28287,22 @@
         <v>101</v>
       </c>
       <c r="AE230" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF230" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG230" t="n">
         <v>23</v>
       </c>
       <c r="AH230" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI230" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ230" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231">
@@ -28337,67 +28337,67 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I231" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J231" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K231" t="n">
+        <v>13</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M231" t="n">
+        <v>4</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T231" t="n">
         <v>11</v>
       </c>
-      <c r="L231" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M231" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N231" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O231" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P231" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R231" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S231" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T231" t="n">
-        <v>10</v>
-      </c>
       <c r="U231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V231" t="n">
         <v>11</v>
       </c>
       <c r="W231" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X231" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y231" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z231" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA231" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB231" t="n">
         <v>13</v>
@@ -28406,25 +28406,25 @@
         <v>41</v>
       </c>
       <c r="AD231" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE231" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF231" t="n">
         <v>12</v>
       </c>
       <c r="AG231" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH231" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ231" t="n">
         <v>23</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ231" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="232">
@@ -28459,13 +28459,13 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I232" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J232" t="n">
         <v>1.02</v>
@@ -28480,10 +28480,10 @@
         <v>5.5</v>
       </c>
       <c r="N232" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O232" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P232" t="n">
         <v>1.25</v>
@@ -28492,7 +28492,7 @@
         <v>3.75</v>
       </c>
       <c r="R232" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S232" t="n">
         <v>2.25</v>
@@ -28501,16 +28501,16 @@
         <v>10</v>
       </c>
       <c r="U232" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V232" t="n">
         <v>8.5</v>
       </c>
       <c r="W232" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y232" t="n">
         <v>19</v>
@@ -28519,10 +28519,10 @@
         <v>19</v>
       </c>
       <c r="AA232" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB232" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC232" t="n">
         <v>41</v>
@@ -28531,19 +28531,19 @@
         <v>126</v>
       </c>
       <c r="AE232" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF232" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG232" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH232" t="n">
         <v>51</v>
       </c>
       <c r="AI232" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ232" t="n">
         <v>34</v>
@@ -28590,10 +28590,10 @@
         <v>4.33</v>
       </c>
       <c r="J233" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K233" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L233" t="n">
         <v>1.25</v>
@@ -28602,22 +28602,22 @@
         <v>3.75</v>
       </c>
       <c r="N233" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O233" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P233" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q233" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R233" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S233" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T233" t="n">
         <v>7.5</v>
@@ -28635,10 +28635,10 @@
         <v>15</v>
       </c>
       <c r="Y233" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z233" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA233" t="n">
         <v>7</v>
@@ -28650,10 +28650,10 @@
         <v>51</v>
       </c>
       <c r="AD233" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF233" t="n">
         <v>23</v>
@@ -28662,7 +28662,7 @@
         <v>15</v>
       </c>
       <c r="AH233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI233" t="n">
         <v>34</v>
@@ -28703,13 +28703,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>3.2</v>
       </c>
       <c r="I234" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J234" t="n">
         <v>1.07</v>
@@ -28718,10 +28718,10 @@
         <v>8.5</v>
       </c>
       <c r="L234" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M234" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N234" t="n">
         <v>2.1</v>
@@ -28736,19 +28736,19 @@
         <v>2.63</v>
       </c>
       <c r="R234" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S234" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T234" t="n">
         <v>7.5</v>
       </c>
       <c r="U234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V234" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W234" t="n">
         <v>23</v>
@@ -28778,16 +28778,16 @@
         <v>8.5</v>
       </c>
       <c r="AF234" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG234" t="n">
         <v>11</v>
       </c>
       <c r="AH234" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI234" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ234" t="n">
         <v>34</v>
@@ -28840,16 +28840,16 @@
         <v>15</v>
       </c>
       <c r="L235" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M235" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N235" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O235" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P235" t="n">
         <v>1.3</v>
@@ -28858,7 +28858,7 @@
         <v>3.4</v>
       </c>
       <c r="R235" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S235" t="n">
         <v>2.5</v>
@@ -28947,7 +28947,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H236" t="n">
         <v>3.4</v>
@@ -28956,19 +28956,19 @@
         <v>3.3</v>
       </c>
       <c r="J236" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K236" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L236" t="n">
         <v>1.22</v>
       </c>
       <c r="M236" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N236" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O236" t="n">
         <v>2</v>
@@ -28986,7 +28986,7 @@
         <v>2.1</v>
       </c>
       <c r="T236" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U236" t="n">
         <v>11</v>
@@ -29001,16 +29001,16 @@
         <v>17</v>
       </c>
       <c r="Y236" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z236" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA236" t="n">
         <v>6.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC236" t="n">
         <v>41</v>
@@ -29019,7 +29019,7 @@
         <v>151</v>
       </c>
       <c r="AE236" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF236" t="n">
         <v>17</v>
@@ -29078,13 +29078,13 @@
         <v>4.2</v>
       </c>
       <c r="J237" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K237" t="n">
         <v>11</v>
       </c>
       <c r="L237" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M237" t="n">
         <v>3.5</v>
@@ -29197,16 +29197,16 @@
         <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J238" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K238" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L238" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M238" t="n">
         <v>3.4</v>
@@ -29239,7 +29239,7 @@
         <v>10</v>
       </c>
       <c r="W238" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X238" t="n">
         <v>21</v>
@@ -29278,7 +29278,7 @@
         <v>21</v>
       </c>
       <c r="AJ238" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239">
@@ -29322,22 +29322,22 @@
         <v>4.2</v>
       </c>
       <c r="J239" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K239" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L239" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M239" t="n">
         <v>3.75</v>
       </c>
       <c r="N239" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O239" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P239" t="n">
         <v>1.36</v>
@@ -29435,22 +29435,22 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H240" t="n">
         <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J240" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K240" t="n">
         <v>15</v>
       </c>
       <c r="L240" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M240" t="n">
         <v>4.33</v>
@@ -29513,7 +29513,7 @@
         <v>15</v>
       </c>
       <c r="AG240" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH240" t="n">
         <v>29</v>
@@ -29566,13 +29566,13 @@
         <v>4</v>
       </c>
       <c r="J241" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K241" t="n">
         <v>13</v>
       </c>
       <c r="L241" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M241" t="n">
         <v>4</v>
@@ -29688,13 +29688,13 @@
         <v>5</v>
       </c>
       <c r="J242" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K242" t="n">
         <v>15</v>
       </c>
       <c r="L242" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M242" t="n">
         <v>4.33</v>
@@ -29873,10 +29873,10 @@
         <v>300</v>
       </c>
       <c r="AE243" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF243" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG243" t="n">
         <v>9</v>
@@ -29888,7 +29888,7 @@
         <v>17.5</v>
       </c>
       <c r="AJ243" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244">
@@ -29923,13 +29923,13 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H244" t="n">
         <v>3.5</v>
       </c>
       <c r="I244" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J244" t="n">
         <v>1.06</v>
@@ -29953,7 +29953,7 @@
         <v>1.4</v>
       </c>
       <c r="Q244" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R244" t="n">
         <v>1.8</v>
@@ -29998,7 +29998,7 @@
         <v>10.25</v>
       </c>
       <c r="AF244" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG244" t="n">
         <v>12</v>
@@ -30007,7 +30007,7 @@
         <v>45</v>
       </c>
       <c r="AI244" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ244" t="n">
         <v>40</v>
@@ -30051,7 +30051,7 @@
         <v>3.05</v>
       </c>
       <c r="I245" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J245" t="n">
         <v>1.11</v>
@@ -30066,7 +30066,7 @@
         <v>2.5</v>
       </c>
       <c r="N245" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O245" t="n">
         <v>1.5</v>
@@ -30075,7 +30075,7 @@
         <v>1.57</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R245" t="n">
         <v>2.15</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>3.55</v>
@@ -30185,7 +30185,7 @@
         <v>1.26</v>
       </c>
       <c r="M246" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N246" t="n">
         <v>1.78</v>
@@ -30295,7 +30295,7 @@
         <v>3.25</v>
       </c>
       <c r="I247" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J247" t="n">
         <v>1.08</v>
@@ -30328,10 +30328,10 @@
         <v>1.72</v>
       </c>
       <c r="T247" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U247" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V247" t="n">
         <v>8.5</v>
@@ -30343,7 +30343,7 @@
         <v>16.5</v>
       </c>
       <c r="Y247" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z247" t="n">
         <v>6.3</v>
@@ -30361,7 +30361,7 @@
         <v>1000</v>
       </c>
       <c r="AE247" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF247" t="n">
         <v>21</v>
@@ -30572,10 +30572,10 @@
         <v>2.02</v>
       </c>
       <c r="T249" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U249" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V249" t="n">
         <v>9</v>
@@ -30584,10 +30584,10 @@
         <v>23</v>
       </c>
       <c r="X249" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y249" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z249" t="n">
         <v>7.2</v>
@@ -30596,7 +30596,7 @@
         <v>6.3</v>
       </c>
       <c r="AB249" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC249" t="n">
         <v>60</v>
@@ -30605,19 +30605,19 @@
         <v>450</v>
       </c>
       <c r="AE249" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF249" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG249" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH249" t="n">
         <v>37</v>
       </c>
       <c r="AI249" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ249" t="n">
         <v>32</v>
@@ -30655,13 +30655,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H250" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I250" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="J250" t="n">
         <v>1.08</v>
@@ -30682,31 +30682,31 @@
         <v>1.65</v>
       </c>
       <c r="P250" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R250" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S250" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T250" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U250" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V250" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W250" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X250" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y250" t="n">
         <v>37</v>
@@ -30715,10 +30715,10 @@
         <v>6.5</v>
       </c>
       <c r="AA250" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB250" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC250" t="n">
         <v>80</v>
@@ -30727,19 +30727,19 @@
         <v>700</v>
       </c>
       <c r="AE250" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AF250" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG250" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH250" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI250" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ250" t="n">
         <v>35</v>
@@ -30816,31 +30816,31 @@
         <v>1.87</v>
       </c>
       <c r="T251" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U251" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V251" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W251" t="n">
         <v>37</v>
       </c>
       <c r="X251" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y251" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z251" t="n">
         <v>6.2</v>
       </c>
       <c r="AA251" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB251" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC251" t="n">
         <v>75</v>
@@ -30849,22 +30849,22 @@
         <v>600</v>
       </c>
       <c r="AE251" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF251" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG251" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH251" t="n">
         <v>27</v>
       </c>
       <c r="AI251" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ251" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252">
@@ -30917,7 +30917,7 @@
         <v>1.37</v>
       </c>
       <c r="M252" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N252" t="n">
         <v>2.1</v>
@@ -30938,10 +30938,10 @@
         <v>1.87</v>
       </c>
       <c r="T252" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U252" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V252" t="n">
         <v>9.25</v>
@@ -30950,7 +30950,7 @@
         <v>23</v>
       </c>
       <c r="X252" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y252" t="n">
         <v>32</v>
@@ -30968,25 +30968,25 @@
         <v>75</v>
       </c>
       <c r="AD252" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE252" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF252" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG252" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH252" t="n">
         <v>37</v>
       </c>
       <c r="AI252" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ252" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253">
@@ -31021,10 +31021,10 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="H253" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I253" t="n">
         <v>1.78</v>
@@ -31032,52 +31032,52 @@
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M253" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="N253" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O253" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P253" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q253" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R253" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S253" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T253" t="n">
         <v>10.25</v>
       </c>
       <c r="U253" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V253" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W253" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X253" t="n">
         <v>45</v>
       </c>
       <c r="Y253" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z253" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA253" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB253" t="n">
         <v>18</v>
@@ -31086,25 +31086,25 @@
         <v>100</v>
       </c>
       <c r="AD253" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AE253" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AF253" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG253" t="n">
         <v>8.5</v>
       </c>
       <c r="AH253" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI253" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ253" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -31145,7 +31145,7 @@
         <v>2.85</v>
       </c>
       <c r="I254" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J254" t="n">
         <v>1.1</v>
@@ -31154,64 +31154,64 @@
         <v>6.2</v>
       </c>
       <c r="L254" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M254" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N254" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O254" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P254" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R254" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S254" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T254" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="U254" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V254" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W254" t="n">
         <v>30</v>
       </c>
       <c r="X254" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y254" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z254" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA254" t="n">
         <v>5.6</v>
       </c>
       <c r="AB254" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC254" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD254" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE254" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF254" t="n">
         <v>13.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
         <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
         <v>1.11</v>
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
@@ -2669,16 +2669,16 @@
         <v>501</v>
       </c>
       <c r="AE18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -2734,16 +2734,16 @@
         <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -3457,7 +3457,7 @@
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3478,10 +3478,10 @@
         <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
         <v>2.5</v>
@@ -3939,19 +3939,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
         <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" t="n">
         <v>1.11</v>
@@ -3972,10 +3972,10 @@
         <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
         <v>9.5</v>
@@ -3984,25 +3984,25 @@
         <v>6.5</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
         <v>81</v>
@@ -4011,22 +4011,22 @@
         <v>351</v>
       </c>
       <c r="AE29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG29" t="n">
         <v>41</v>
       </c>
       <c r="AH29" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AI29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -4082,10 +4082,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4427,46 +4427,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N33" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U33" t="n">
         <v>7</v>
@@ -4475,19 +4475,19 @@
         <v>9</v>
       </c>
       <c r="W33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X33" t="n">
         <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -4499,10 +4499,10 @@
         <v>501</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
         <v>17</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
         <v>1.08</v>
@@ -4582,16 +4582,16 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
         <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
@@ -4793,55 +4793,55 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J36" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T36" t="n">
         <v>6</v>
       </c>
-      <c r="L36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T36" t="n">
-        <v>5.5</v>
-      </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4859,7 +4859,7 @@
         <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="n">
         <v>351</v>
@@ -4868,7 +4868,7 @@
         <v>8.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
@@ -4915,19 +4915,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -4936,10 +4936,10 @@
         <v>2.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P37" t="n">
         <v>1.57</v>
@@ -4960,7 +4960,7 @@
         <v>9</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
         <v>19</v>
@@ -4987,10 +4987,10 @@
         <v>1250</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG37" t="n">
         <v>15</v>
@@ -4999,10 +4999,10 @@
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
@@ -5043,7 +5043,7 @@
         <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
         <v>1.08</v>
@@ -5076,7 +5076,7 @@
         <v>1.53</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U38" t="n">
         <v>6.5</v>
@@ -5159,49 +5159,49 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>2.7</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N39" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V39" t="n">
         <v>11</v>
@@ -5216,7 +5216,7 @@
         <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA39" t="n">
         <v>5.5</v>
@@ -5228,7 +5228,7 @@
         <v>67</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE39" t="n">
         <v>8</v>
@@ -5237,16 +5237,16 @@
         <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -6623,13 +6623,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
         <v>1.1</v>
@@ -6665,13 +6665,13 @@
         <v>6</v>
       </c>
       <c r="U51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -6695,10 +6695,10 @@
         <v>101</v>
       </c>
       <c r="AE51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -6867,19 +6867,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H53" t="n">
         <v>2.9</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
         <v>1.53</v>
@@ -6906,16 +6906,16 @@
         <v>1.62</v>
       </c>
       <c r="T53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
         <v>11</v>
       </c>
       <c r="W53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X53" t="n">
         <v>26</v>
@@ -6945,13 +6945,13 @@
         <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7010,10 +7010,10 @@
         <v>3.25</v>
       </c>
       <c r="N54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -7037,7 +7037,7 @@
         <v>8.5</v>
       </c>
       <c r="W54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X54" t="n">
         <v>15</v>
@@ -7046,7 +7046,7 @@
         <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA54" t="n">
         <v>7.5</v>
@@ -7058,16 +7058,16 @@
         <v>67</v>
       </c>
       <c r="AD54" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH54" t="n">
         <v>67</v>
@@ -7120,10 +7120,10 @@
         <v>3.6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
         <v>1.36</v>
@@ -7239,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.04</v>
@@ -7254,10 +7254,10 @@
         <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7275,13 +7275,13 @@
         <v>6.5</v>
       </c>
       <c r="U56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V56" t="n">
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X56" t="n">
         <v>12</v>
@@ -7293,7 +7293,7 @@
         <v>12</v>
       </c>
       <c r="AA56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB56" t="n">
         <v>23</v>
@@ -7308,7 +7308,7 @@
         <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG56" t="n">
         <v>21</v>
@@ -18311,31 +18311,31 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H148" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I148" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J148" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L148" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M148" t="n">
         <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O148" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18353,13 +18353,13 @@
         <v>7.5</v>
       </c>
       <c r="U148" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
       </c>
       <c r="W148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X148" t="n">
         <v>12</v>
@@ -18371,7 +18371,7 @@
         <v>13</v>
       </c>
       <c r="AA148" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB148" t="n">
         <v>17</v>
@@ -18433,31 +18433,31 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H149" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I149" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L149" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M149" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N149" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O149" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P149" t="n">
         <v>1.4</v>
@@ -18466,22 +18466,22 @@
         <v>2.75</v>
       </c>
       <c r="R149" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S149" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
       </c>
       <c r="U149" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V149" t="n">
         <v>8.5</v>
       </c>
       <c r="W149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X149" t="n">
         <v>15</v>
@@ -18496,7 +18496,7 @@
         <v>7</v>
       </c>
       <c r="AB149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC149" t="n">
         <v>51</v>
@@ -18505,19 +18505,19 @@
         <v>301</v>
       </c>
       <c r="AE149" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF149" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH149" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18588,10 +18588,10 @@
         <v>2.63</v>
       </c>
       <c r="R150" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S150" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T150" t="n">
         <v>8</v>
@@ -18677,13 +18677,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H151" t="n">
         <v>3.75</v>
       </c>
       <c r="I151" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
         <v>1.03</v>
@@ -18710,7 +18710,7 @@
         <v>3.4</v>
       </c>
       <c r="R151" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S151" t="n">
         <v>2.25</v>
@@ -18725,7 +18725,7 @@
         <v>12</v>
       </c>
       <c r="W151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X151" t="n">
         <v>23</v>
@@ -18749,7 +18749,7 @@
         <v>126</v>
       </c>
       <c r="AE151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF151" t="n">
         <v>11</v>
@@ -19027,86 +19027,86 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I154" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M154" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N154" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O154" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S154" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T154" t="n">
         <v>8.25</v>
       </c>
       <c r="U154" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="V154" t="n">
         <v>8.5</v>
       </c>
       <c r="W154" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X154" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y154" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z154" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA154" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB154" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC154" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD154" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE154" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF154" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG154" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH154" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI154" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ154" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
@@ -19262,10 +19262,10 @@
         <v>1.7</v>
       </c>
       <c r="H156" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I156" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -19276,10 +19276,10 @@
         <v>3.3</v>
       </c>
       <c r="N156" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O156" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
@@ -19290,10 +19290,10 @@
         <v>1.93</v>
       </c>
       <c r="T156" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U156" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V156" t="n">
         <v>8</v>
@@ -19311,31 +19311,31 @@
         <v>11.25</v>
       </c>
       <c r="AA156" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB156" t="n">
         <v>14.5</v>
       </c>
       <c r="AC156" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD156" t="n">
         <v>450</v>
       </c>
       <c r="AE156" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG156" t="n">
         <v>14.5</v>
       </c>
       <c r="AH156" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI156" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="n">
         <v>45</v>
@@ -19679,31 +19679,31 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H160" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I160" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J160" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K160" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L160" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M160" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O160" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.85</v>
       </c>
       <c r="P160" t="n">
         <v>1.4</v>
@@ -19733,10 +19733,10 @@
         <v>13</v>
       </c>
       <c r="Y160" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA160" t="n">
         <v>8.5</v>
@@ -19801,19 +19801,19 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H161" t="n">
         <v>3.3</v>
       </c>
       <c r="I161" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J161" t="n">
         <v>1.08</v>
       </c>
       <c r="K161" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L161" t="n">
         <v>1.44</v>
@@ -19840,7 +19840,7 @@
         <v>1.73</v>
       </c>
       <c r="T161" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U161" t="n">
         <v>13</v>
@@ -19858,7 +19858,7 @@
         <v>41</v>
       </c>
       <c r="Z161" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA161" t="n">
         <v>6.5</v>
@@ -19885,10 +19885,10 @@
         <v>23</v>
       </c>
       <c r="AI161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ161" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162">
@@ -19923,22 +19923,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
       <c r="L162" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M162" t="n">
         <v>4.33</v>
@@ -19950,16 +19950,16 @@
         <v>2.15</v>
       </c>
       <c r="P162" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R162" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="S162" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T162" t="n">
         <v>8</v>
@@ -19983,28 +19983,28 @@
         <v>13</v>
       </c>
       <c r="AA162" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC162" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD162" t="n">
         <v>201</v>
       </c>
       <c r="AE162" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH162" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI162" t="n">
         <v>41</v>
@@ -28215,7 +28215,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H230" t="n">
         <v>4.33</v>
@@ -28224,10 +28224,10 @@
         <v>8</v>
       </c>
       <c r="J230" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K230" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L230" t="n">
         <v>1.3</v>
@@ -28236,10 +28236,10 @@
         <v>3.4</v>
       </c>
       <c r="N230" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O230" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P230" t="n">
         <v>1.4</v>
@@ -28248,16 +28248,16 @@
         <v>2.75</v>
       </c>
       <c r="R230" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S230" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T230" t="n">
         <v>5.5</v>
       </c>
       <c r="U230" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V230" t="n">
         <v>9</v>
@@ -28272,13 +28272,13 @@
         <v>34</v>
       </c>
       <c r="Z230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA230" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB230" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC230" t="n">
         <v>81</v>
@@ -28293,7 +28293,7 @@
         <v>41</v>
       </c>
       <c r="AG230" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH230" t="n">
         <v>101</v>
@@ -28581,19 +28581,19 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H233" t="n">
         <v>3.8</v>
       </c>
       <c r="I233" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J233" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K233" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L233" t="n">
         <v>1.25</v>
@@ -28602,16 +28602,16 @@
         <v>3.75</v>
       </c>
       <c r="N233" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O233" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P233" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R233" t="n">
         <v>1.8</v>
@@ -28629,7 +28629,7 @@
         <v>8.5</v>
       </c>
       <c r="W233" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X233" t="n">
         <v>15</v>
@@ -28653,7 +28653,7 @@
         <v>251</v>
       </c>
       <c r="AE233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF233" t="n">
         <v>23</v>
@@ -28703,19 +28703,19 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H234" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I234" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J234" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K234" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L234" t="n">
         <v>1.33</v>
@@ -28724,10 +28724,10 @@
         <v>3.25</v>
       </c>
       <c r="N234" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O234" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P234" t="n">
         <v>1.44</v>
@@ -28742,25 +28742,25 @@
         <v>1.95</v>
       </c>
       <c r="T234" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U234" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V234" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W234" t="n">
         <v>23</v>
       </c>
       <c r="X234" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y234" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z234" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA234" t="n">
         <v>6</v>
@@ -28772,13 +28772,13 @@
         <v>51</v>
       </c>
       <c r="AD234" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE234" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF234" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG234" t="n">
         <v>11</v>
@@ -28825,31 +28825,31 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I235" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J235" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K235" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L235" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M235" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N235" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O235" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P235" t="n">
         <v>1.3</v>
@@ -28858,10 +28858,10 @@
         <v>3.4</v>
       </c>
       <c r="R235" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S235" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T235" t="n">
         <v>11</v>
@@ -28873,7 +28873,7 @@
         <v>9.5</v>
       </c>
       <c r="W235" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X235" t="n">
         <v>17</v>
@@ -28894,7 +28894,7 @@
         <v>34</v>
       </c>
       <c r="AD235" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE235" t="n">
         <v>13</v>
@@ -28912,7 +28912,7 @@
         <v>21</v>
       </c>
       <c r="AJ235" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="236">
@@ -28947,43 +28947,43 @@
         </is>
       </c>
       <c r="G236" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K236" t="n">
+        <v>15</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O236" t="n">
         <v>2.15</v>
       </c>
-      <c r="H236" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K236" t="n">
-        <v>13</v>
-      </c>
-      <c r="L236" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M236" t="n">
-        <v>4</v>
-      </c>
-      <c r="N236" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O236" t="n">
-        <v>2</v>
-      </c>
       <c r="P236" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q236" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R236" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S236" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T236" t="n">
         <v>9</v>
@@ -28992,22 +28992,22 @@
         <v>11</v>
       </c>
       <c r="V236" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W236" t="n">
+        <v>17</v>
+      </c>
+      <c r="X236" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y236" t="n">
         <v>21</v>
       </c>
-      <c r="X236" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y236" t="n">
-        <v>23</v>
-      </c>
       <c r="Z236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB236" t="n">
         <v>12</v>
@@ -29019,19 +29019,19 @@
         <v>151</v>
       </c>
       <c r="AE236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF236" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH236" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI236" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ236" t="n">
         <v>29</v>
@@ -29069,13 +29069,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H237" t="n">
         <v>3.6</v>
       </c>
       <c r="I237" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J237" t="n">
         <v>1.05</v>
@@ -29102,10 +29102,10 @@
         <v>2.75</v>
       </c>
       <c r="R237" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S237" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T237" t="n">
         <v>7.5</v>
@@ -29129,7 +29129,7 @@
         <v>11</v>
       </c>
       <c r="AA237" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB237" t="n">
         <v>15</v>
@@ -29138,7 +29138,7 @@
         <v>51</v>
       </c>
       <c r="AD237" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE237" t="n">
         <v>12</v>
@@ -29191,19 +29191,19 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="H238" t="n">
         <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J238" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K238" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L238" t="n">
         <v>1.3</v>
@@ -29230,19 +29230,19 @@
         <v>1.95</v>
       </c>
       <c r="T238" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U238" t="n">
         <v>13</v>
       </c>
       <c r="V238" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W238" t="n">
         <v>29</v>
       </c>
       <c r="X238" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y238" t="n">
         <v>34</v>
@@ -29266,7 +29266,7 @@
         <v>8.5</v>
       </c>
       <c r="AF238" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG238" t="n">
         <v>10</v>
@@ -29313,7 +29313,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H239" t="n">
         <v>3.8</v>
@@ -29441,7 +29441,7 @@
         <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J240" t="n">
         <v>1.03</v>
@@ -29513,7 +29513,7 @@
         <v>15</v>
       </c>
       <c r="AG240" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH240" t="n">
         <v>29</v>
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I241" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J241" t="n">
         <v>1.04</v>
@@ -29578,10 +29578,10 @@
         <v>4</v>
       </c>
       <c r="N241" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O241" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -29590,13 +29590,13 @@
         <v>3</v>
       </c>
       <c r="R241" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S241" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T241" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U241" t="n">
         <v>9.5</v>
@@ -29605,7 +29605,7 @@
         <v>8.5</v>
       </c>
       <c r="W241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X241" t="n">
         <v>15</v>
@@ -29614,19 +29614,19 @@
         <v>23</v>
       </c>
       <c r="Z241" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA241" t="n">
         <v>7</v>
       </c>
       <c r="AB241" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC241" t="n">
         <v>41</v>
       </c>
       <c r="AD241" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE241" t="n">
         <v>13</v>
@@ -29923,31 +29923,31 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>3.5</v>
       </c>
       <c r="I244" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J244" t="n">
         <v>1.06</v>
       </c>
       <c r="K244" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L244" t="n">
         <v>1.3</v>
       </c>
       <c r="M244" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N244" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O244" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P244" t="n">
         <v>1.4</v>
@@ -29956,10 +29956,10 @@
         <v>2.72</v>
       </c>
       <c r="R244" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S244" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T244" t="n">
         <v>7.3</v>
@@ -29971,19 +29971,19 @@
         <v>8.5</v>
       </c>
       <c r="W244" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X244" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y244" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z244" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA244" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB244" t="n">
         <v>15</v>
@@ -29995,19 +29995,19 @@
         <v>600</v>
       </c>
       <c r="AE244" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG244" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH244" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI244" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ244" t="n">
         <v>40</v>
@@ -30045,19 +30045,19 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H245" t="n">
         <v>3.05</v>
       </c>
       <c r="I245" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="J245" t="n">
         <v>1.11</v>
       </c>
       <c r="K245" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L245" t="n">
         <v>1.47</v>
@@ -30075,7 +30075,7 @@
         <v>1.57</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R245" t="n">
         <v>2.15</v>
@@ -30084,31 +30084,31 @@
         <v>1.62</v>
       </c>
       <c r="T245" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U245" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="V245" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W245" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X245" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y245" t="n">
         <v>40</v>
       </c>
       <c r="Z245" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA245" t="n">
         <v>6.2</v>
       </c>
       <c r="AB245" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC245" t="n">
         <v>120</v>
@@ -30117,22 +30117,22 @@
         <v>900</v>
       </c>
       <c r="AE245" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF245" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG245" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH245" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AI245" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ245" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246">
@@ -30167,37 +30167,37 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H246" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I246" t="n">
         <v>3.75</v>
       </c>
       <c r="J246" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K246" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="L246" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M246" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="N246" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="O246" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P246" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="R246" t="n">
         <v>1.72</v>
@@ -30206,31 +30206,31 @@
         <v>2</v>
       </c>
       <c r="T246" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U246" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V246" t="n">
         <v>8.25</v>
       </c>
       <c r="W246" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X246" t="n">
         <v>15</v>
-      </c>
-      <c r="X246" t="n">
-        <v>14</v>
       </c>
       <c r="Y246" t="n">
         <v>25</v>
       </c>
       <c r="Z246" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AA246" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AB246" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC246" t="n">
         <v>60</v>
@@ -30239,19 +30239,19 @@
         <v>450</v>
       </c>
       <c r="AE246" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF246" t="n">
         <v>22</v>
       </c>
       <c r="AG246" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH246" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI246" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ246" t="n">
         <v>37</v>
@@ -30289,13 +30289,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H247" t="n">
         <v>3.25</v>
       </c>
       <c r="I247" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J247" t="n">
         <v>1.08</v>
@@ -30328,22 +30328,22 @@
         <v>1.72</v>
       </c>
       <c r="T247" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U247" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="V247" t="n">
         <v>8.5</v>
       </c>
       <c r="W247" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X247" t="n">
         <v>16.5</v>
       </c>
       <c r="Y247" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z247" t="n">
         <v>6.3</v>
@@ -30361,16 +30361,16 @@
         <v>1000</v>
       </c>
       <c r="AE247" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF247" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG247" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH247" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI247" t="n">
         <v>45</v>
@@ -30411,19 +30411,19 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H248" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I248" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="J248" t="n">
         <v>1.04</v>
       </c>
       <c r="K248" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L248" t="n">
         <v>1.23</v>
@@ -30444,22 +30444,22 @@
         <v>3</v>
       </c>
       <c r="R248" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S248" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T248" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U248" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V248" t="n">
         <v>8.25</v>
       </c>
       <c r="W248" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X248" t="n">
         <v>11.5</v>
@@ -30468,34 +30468,34 @@
         <v>26</v>
       </c>
       <c r="Z248" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB248" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC248" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD248" t="n">
         <v>700</v>
       </c>
       <c r="AE248" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF248" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG248" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH248" t="n">
         <v>120</v>
       </c>
       <c r="AI248" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ248" t="n">
         <v>60</v>
@@ -30533,13 +30533,13 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H249" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I249" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J249" t="n">
         <v>1.06</v>
@@ -30566,7 +30566,7 @@
         <v>2.65</v>
       </c>
       <c r="R249" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S249" t="n">
         <v>2.02</v>
@@ -30578,16 +30578,16 @@
         <v>11.25</v>
       </c>
       <c r="V249" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W249" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X249" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y249" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z249" t="n">
         <v>7.2</v>
@@ -30596,7 +30596,7 @@
         <v>6.3</v>
       </c>
       <c r="AB249" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC249" t="n">
         <v>60</v>
@@ -30605,22 +30605,22 @@
         <v>450</v>
       </c>
       <c r="AE249" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF249" t="n">
         <v>16</v>
       </c>
       <c r="AG249" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH249" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI249" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ249" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250">
@@ -30655,13 +30655,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="H250" t="n">
         <v>3.1</v>
       </c>
       <c r="I250" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="J250" t="n">
         <v>1.08</v>
@@ -30673,7 +30673,7 @@
         <v>1.38</v>
       </c>
       <c r="M250" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N250" t="n">
         <v>2.12</v>
@@ -30694,19 +30694,19 @@
         <v>1.85</v>
       </c>
       <c r="T250" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U250" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V250" t="n">
         <v>10</v>
       </c>
       <c r="W250" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X250" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y250" t="n">
         <v>37</v>
@@ -30715,7 +30715,7 @@
         <v>6.5</v>
       </c>
       <c r="AA250" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB250" t="n">
         <v>15</v>
@@ -30727,16 +30727,16 @@
         <v>700</v>
       </c>
       <c r="AE250" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF250" t="n">
         <v>12.5</v>
       </c>
       <c r="AG250" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH250" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI250" t="n">
         <v>23</v>
@@ -30780,7 +30780,7 @@
         <v>2.9</v>
       </c>
       <c r="H251" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I251" t="n">
         <v>2.42</v>
@@ -30828,10 +30828,10 @@
         <v>37</v>
       </c>
       <c r="X251" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y251" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z251" t="n">
         <v>6.2</v>
@@ -30849,10 +30849,10 @@
         <v>600</v>
       </c>
       <c r="AE251" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF251" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG251" t="n">
         <v>9.5</v>
@@ -30861,7 +30861,7 @@
         <v>27</v>
       </c>
       <c r="AI251" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ251" t="n">
         <v>35</v>
@@ -30899,25 +30899,25 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H252" t="n">
         <v>3.1</v>
       </c>
       <c r="I252" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J252" t="n">
         <v>1.08</v>
       </c>
       <c r="K252" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L252" t="n">
         <v>1.37</v>
       </c>
       <c r="M252" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N252" t="n">
         <v>2.1</v>
@@ -30935,7 +30935,7 @@
         <v>1.83</v>
       </c>
       <c r="S252" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T252" t="n">
         <v>7.2</v>
@@ -30944,7 +30944,7 @@
         <v>10.75</v>
       </c>
       <c r="V252" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W252" t="n">
         <v>23</v>
@@ -30956,34 +30956,34 @@
         <v>32</v>
       </c>
       <c r="Z252" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA252" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB252" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC252" t="n">
         <v>75</v>
       </c>
       <c r="AD252" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE252" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF252" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG252" t="n">
         <v>11</v>
       </c>
       <c r="AH252" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI252" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ252" t="n">
         <v>40</v>
@@ -31139,13 +31139,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H254" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I254" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="J254" t="n">
         <v>1.1</v>
@@ -31157,76 +31157,76 @@
         <v>1.4</v>
       </c>
       <c r="M254" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N254" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O254" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P254" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R254" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S254" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T254" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U254" t="n">
         <v>12.5</v>
       </c>
       <c r="V254" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W254" t="n">
         <v>30</v>
       </c>
       <c r="X254" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y254" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z254" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AA254" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB254" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC254" t="n">
         <v>80</v>
       </c>
       <c r="AD254" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE254" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF254" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG254" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH254" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI254" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ254" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="255">

--- a/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-12.xlsx
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2746,16 +2746,16 @@
         <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2764,19 +2764,19 @@
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>41</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2788,19 +2788,19 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.05</v>
@@ -4082,10 +4082,10 @@
         <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -4103,13 +4103,13 @@
         <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V30" t="n">
         <v>8.5</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -4121,16 +4121,16 @@
         <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -4139,10 +4139,10 @@
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>41</v>
@@ -4564,10 +4564,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N34" t="n">
         <v>2.25</v>
@@ -4597,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X34" t="n">
         <v>17</v>
@@ -4618,7 +4618,7 @@
         <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE34" t="n">
         <v>9.5</v>
@@ -4627,13 +4627,13 @@
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="n">
         <v>41</v>
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
         <v>1.5</v>
@@ -5183,7 +5183,7 @@
         <v>2.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
         <v>1.57</v>
@@ -5192,25 +5192,25 @@
         <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V39" t="n">
         <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -5231,10 +5231,10 @@
         <v>1250</v>
       </c>
       <c r="AE39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5243,7 +5243,7 @@
         <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5769,13 +5769,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5784,34 +5784,34 @@
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.95</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.9</v>
-      </c>
       <c r="P44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V44" t="n">
         <v>9</v>
@@ -5826,10 +5826,10 @@
         <v>26</v>
       </c>
       <c r="Z44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
         <v>13</v>
@@ -5838,13 +5838,13 @@
         <v>41</v>
       </c>
       <c r="AD44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6745,43 +6745,43 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I52" t="n">
         <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M52" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T52" t="n">
         <v>5.5</v>
@@ -6796,13 +6796,13 @@
         <v>23</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA52" t="n">
         <v>6</v>
@@ -6817,19 +6817,19 @@
         <v>101</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF52" t="n">
         <v>15</v>
       </c>
       <c r="AG52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
         <v>41</v>
       </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
@@ -6867,67 +6867,67 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M53" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N53" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T53" t="n">
         <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y53" t="n">
         <v>41</v>
       </c>
       <c r="Z53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB53" t="n">
         <v>19</v>
@@ -6939,10 +6939,10 @@
         <v>101</v>
       </c>
       <c r="AE53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
@@ -7111,31 +7111,31 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7150,10 +7150,10 @@
         <v>1.8</v>
       </c>
       <c r="T55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V55" t="n">
         <v>9.5</v>
@@ -7162,7 +7162,7 @@
         <v>21</v>
       </c>
       <c r="X55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>34</v>
@@ -7183,7 +7183,7 @@
         <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF55" t="n">
         <v>17</v>
@@ -7195,7 +7195,7 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ55" t="n">
         <v>41</v>
@@ -7302,7 +7302,7 @@
         <v>81</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -18320,19 +18320,19 @@
         <v>5.75</v>
       </c>
       <c r="J148" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K148" t="n">
         <v>15</v>
       </c>
       <c r="L148" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M148" t="n">
         <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O148" t="n">
         <v>2.1</v>
@@ -18344,10 +18344,10 @@
         <v>3.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S148" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T148" t="n">
         <v>7.5</v>
@@ -18555,13 +18555,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H150" t="n">
         <v>3.5</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J150" t="n">
         <v>1.06</v>
@@ -18570,34 +18570,34 @@
         <v>10</v>
       </c>
       <c r="L150" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M150" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N150" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O150" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P150" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S150" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T150" t="n">
         <v>8</v>
       </c>
       <c r="U150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V150" t="n">
         <v>9.5</v>
@@ -18612,7 +18612,7 @@
         <v>29</v>
       </c>
       <c r="Z150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA150" t="n">
         <v>6.5</v>
@@ -18630,7 +18630,7 @@
         <v>9</v>
       </c>
       <c r="AF150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG150" t="n">
         <v>11</v>
@@ -18677,10 +18677,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -18689,37 +18689,37 @@
         <v>1.03</v>
       </c>
       <c r="K151" t="n">
+        <v>17</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O151" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T151" t="n">
         <v>15</v>
       </c>
-      <c r="L151" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M151" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O151" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P151" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T151" t="n">
-        <v>13</v>
-      </c>
       <c r="U151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V151" t="n">
         <v>12</v>
@@ -18731,28 +18731,28 @@
         <v>23</v>
       </c>
       <c r="Y151" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA151" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB151" t="n">
         <v>12</v>
       </c>
       <c r="AC151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD151" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE151" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF151" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG151" t="n">
         <v>9</v>
@@ -19027,13 +19027,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H154" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -19052,25 +19052,25 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S154" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T154" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U154" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="V154" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W154" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X154" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y154" t="n">
         <v>24</v>
@@ -19079,34 +19079,34 @@
         <v>11.25</v>
       </c>
       <c r="AA154" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB154" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC154" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD154" t="n">
         <v>300</v>
       </c>
       <c r="AE154" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG154" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH154" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI154" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ154" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
@@ -19141,13 +19141,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="H155" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I155" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -19170,61 +19170,61 @@
         <v>2.55</v>
       </c>
       <c r="R155" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S155" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T155" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U155" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V155" t="n">
         <v>8.25</v>
       </c>
       <c r="W155" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="X155" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y155" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z155" t="n">
         <v>10</v>
       </c>
       <c r="AA155" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB155" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC155" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH155" t="n">
         <v>65</v>
       </c>
-      <c r="AD155" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>55</v>
-      </c>
       <c r="AI155" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ155" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156">
@@ -19259,27 +19259,27 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H156" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I156" t="n">
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M156" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="N156" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O156" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
@@ -19290,31 +19290,31 @@
         <v>1.93</v>
       </c>
       <c r="T156" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="U156" t="n">
+        <v>9</v>
+      </c>
+      <c r="V156" t="n">
         <v>8.25</v>
       </c>
-      <c r="V156" t="n">
-        <v>8</v>
-      </c>
       <c r="W156" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X156" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y156" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z156" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA156" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB156" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC156" t="n">
         <v>60</v>
@@ -19323,22 +19323,22 @@
         <v>450</v>
       </c>
       <c r="AE156" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF156" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG156" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH156" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI156" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AJ156" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157">
@@ -19923,31 +19923,31 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I162" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
       <c r="L162" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M162" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N162" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O162" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P162" t="n">
         <v>1.33</v>
@@ -19956,16 +19956,16 @@
         <v>3.25</v>
       </c>
       <c r="R162" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S162" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T162" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U162" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V162" t="n">
         <v>8.5</v>
@@ -19992,7 +19992,7 @@
         <v>51</v>
       </c>
       <c r="AD162" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE162" t="n">
         <v>15</v>
@@ -28703,10 +28703,10 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -28742,7 +28742,7 @@
         <v>1.95</v>
       </c>
       <c r="T234" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U234" t="n">
         <v>11</v>
@@ -28754,13 +28754,13 @@
         <v>23</v>
       </c>
       <c r="X234" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y234" t="n">
         <v>29</v>
       </c>
       <c r="Z234" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA234" t="n">
         <v>6</v>
@@ -28825,7 +28825,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H235" t="n">
         <v>3.5</v>
@@ -28846,10 +28846,10 @@
         <v>4.33</v>
       </c>
       <c r="N235" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O235" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P235" t="n">
         <v>1.3</v>
@@ -28947,13 +28947,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>3.6</v>
       </c>
       <c r="I236" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J236" t="n">
         <v>1.03</v>
@@ -28980,13 +28980,13 @@
         <v>3.25</v>
       </c>
       <c r="R236" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S236" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T236" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U236" t="n">
         <v>11</v>
@@ -28995,7 +28995,7 @@
         <v>8.5</v>
       </c>
       <c r="W236" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X236" t="n">
         <v>15</v>
@@ -29004,7 +29004,7 @@
         <v>21</v>
       </c>
       <c r="Z236" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA236" t="n">
         <v>7</v>
@@ -29016,7 +29016,7 @@
         <v>41</v>
       </c>
       <c r="AD236" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE236" t="n">
         <v>13</v>
@@ -29069,13 +29069,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="H237" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I237" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J237" t="n">
         <v>1.05</v>
@@ -29111,13 +29111,13 @@
         <v>7.5</v>
       </c>
       <c r="U237" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V237" t="n">
         <v>8.5</v>
       </c>
       <c r="W237" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X237" t="n">
         <v>15</v>
@@ -29153,10 +29153,10 @@
         <v>41</v>
       </c>
       <c r="AI237" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ237" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ237" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -29191,13 +29191,13 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H238" t="n">
         <v>3.2</v>
       </c>
       <c r="I238" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J238" t="n">
         <v>1.06</v>
@@ -29206,10 +29206,10 @@
         <v>10</v>
       </c>
       <c r="L238" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M238" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N238" t="n">
         <v>2.05</v>
@@ -29313,31 +29313,31 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>3.8</v>
       </c>
       <c r="I239" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J239" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K239" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L239" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M239" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N239" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O239" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P239" t="n">
         <v>1.36</v>
@@ -29364,7 +29364,7 @@
         <v>15</v>
       </c>
       <c r="X239" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y239" t="n">
         <v>23</v>
@@ -29388,7 +29388,7 @@
         <v>13</v>
       </c>
       <c r="AF239" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG239" t="n">
         <v>13</v>
@@ -29435,13 +29435,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H240" t="n">
         <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J240" t="n">
         <v>1.03</v>
@@ -29450,43 +29450,43 @@
         <v>15</v>
       </c>
       <c r="L240" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M240" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N240" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O240" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P240" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q240" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R240" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S240" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T240" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U240" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V240" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W240" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X240" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y240" t="n">
         <v>23</v>
@@ -29501,13 +29501,13 @@
         <v>12</v>
       </c>
       <c r="AC240" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD240" t="n">
         <v>126</v>
       </c>
       <c r="AE240" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF240" t="n">
         <v>15</v>
@@ -29516,10 +29516,10 @@
         <v>10</v>
       </c>
       <c r="AH240" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI240" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ240" t="n">
         <v>23</v>
@@ -29557,13 +29557,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H241" t="n">
         <v>3.7</v>
       </c>
       <c r="I241" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J241" t="n">
         <v>1.04</v>
@@ -29584,10 +29584,10 @@
         <v>2.08</v>
       </c>
       <c r="P241" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q241" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R241" t="n">
         <v>1.67</v>
@@ -29599,7 +29599,7 @@
         <v>8.5</v>
       </c>
       <c r="U241" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V241" t="n">
         <v>8.5</v>
@@ -29679,31 +29679,31 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H242" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I242" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J242" t="n">
         <v>1.03</v>
       </c>
       <c r="K242" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L242" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M242" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N242" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O242" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P242" t="n">
         <v>1.3</v>
@@ -29712,16 +29712,16 @@
         <v>3.4</v>
       </c>
       <c r="R242" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S242" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T242" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U242" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V242" t="n">
         <v>8.5</v>
@@ -29736,7 +29736,7 @@
         <v>21</v>
       </c>
       <c r="Z242" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA242" t="n">
         <v>8</v>
@@ -29748,7 +29748,7 @@
         <v>41</v>
       </c>
       <c r="AD242" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE242" t="n">
         <v>15</v>
@@ -30051,7 +30051,7 @@
         <v>3.05</v>
       </c>
       <c r="I245" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J245" t="n">
         <v>1.11</v>
@@ -30060,13 +30060,13 @@
         <v>5.6</v>
       </c>
       <c r="L245" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M245" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N245" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O245" t="n">
         <v>1.5</v>
@@ -30078,10 +30078,10 @@
         <v>2.25</v>
       </c>
       <c r="R245" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S245" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T245" t="n">
         <v>5.2</v>
@@ -30093,10 +30093,10 @@
         <v>8.75</v>
       </c>
       <c r="W245" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X245" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y245" t="n">
         <v>40</v>
@@ -30105,22 +30105,22 @@
         <v>5.6</v>
       </c>
       <c r="AA245" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB245" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC245" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD245" t="n">
         <v>900</v>
       </c>
       <c r="AE245" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF245" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG245" t="n">
         <v>16</v>
@@ -30132,7 +30132,7 @@
         <v>60</v>
       </c>
       <c r="AJ245" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246">
@@ -30167,13 +30167,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H246" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I246" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J246" t="n">
         <v>1.06</v>
@@ -30182,16 +30182,16 @@
         <v>7.5</v>
       </c>
       <c r="L246" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M246" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N246" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O246" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P246" t="n">
         <v>1.4</v>
@@ -30200,58 +30200,58 @@
         <v>2.72</v>
       </c>
       <c r="R246" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S246" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T246" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U246" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V246" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W246" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X246" t="n">
         <v>15</v>
       </c>
       <c r="Y246" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z246" t="n">
         <v>7.5</v>
       </c>
       <c r="AA246" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB246" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC246" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD246" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE246" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF246" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG246" t="n">
         <v>12.5</v>
       </c>
       <c r="AH246" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI246" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ246" t="n">
         <v>37</v>
@@ -30304,10 +30304,10 @@
         <v>6.3</v>
       </c>
       <c r="L247" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M247" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N247" t="n">
         <v>2.15</v>
@@ -30322,28 +30322,28 @@
         <v>2.42</v>
       </c>
       <c r="R247" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S247" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T247" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U247" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="V247" t="n">
         <v>8.5</v>
       </c>
       <c r="W247" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X247" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y247" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z247" t="n">
         <v>6.3</v>
@@ -30361,10 +30361,10 @@
         <v>1000</v>
       </c>
       <c r="AE247" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF247" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG247" t="n">
         <v>14.5</v>
@@ -30373,10 +30373,10 @@
         <v>70</v>
       </c>
       <c r="AI247" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ247" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248">
@@ -30411,13 +30411,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H248" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I248" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J248" t="n">
         <v>1.04</v>
@@ -30429,7 +30429,7 @@
         <v>1.23</v>
       </c>
       <c r="M248" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N248" t="n">
         <v>1.7</v>
@@ -30444,61 +30444,61 @@
         <v>3</v>
       </c>
       <c r="R248" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S248" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T248" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U248" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="V248" t="n">
         <v>8.25</v>
       </c>
       <c r="W248" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X248" t="n">
         <v>11.5</v>
       </c>
       <c r="Y248" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z248" t="n">
         <v>8.25</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB248" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC248" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD248" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE248" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF248" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG248" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH248" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI248" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ248" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249">
@@ -30533,70 +30533,70 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="H249" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J249" t="n">
         <v>1.06</v>
       </c>
       <c r="K249" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L249" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M249" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N249" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O249" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P249" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q249" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="R249" t="n">
         <v>1.72</v>
       </c>
       <c r="S249" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T249" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U249" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="V249" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W249" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X249" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y249" t="n">
         <v>26</v>
       </c>
       <c r="Z249" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA249" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AB249" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC249" t="n">
         <v>60</v>
@@ -30605,19 +30605,19 @@
         <v>450</v>
       </c>
       <c r="AE249" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF249" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG249" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH249" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI249" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ249" t="n">
         <v>35</v>
@@ -30655,37 +30655,37 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H250" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I250" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="J250" t="n">
         <v>1.08</v>
       </c>
       <c r="K250" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L250" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M250" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N250" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O250" t="n">
         <v>1.65</v>
       </c>
       <c r="P250" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R250" t="n">
         <v>1.85</v>
@@ -30694,31 +30694,31 @@
         <v>1.85</v>
       </c>
       <c r="T250" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U250" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V250" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W250" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X250" t="n">
         <v>23</v>
       </c>
       <c r="Y250" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z250" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA250" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB250" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC250" t="n">
         <v>80</v>
@@ -30736,7 +30736,7 @@
         <v>10</v>
       </c>
       <c r="AH250" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI250" t="n">
         <v>23</v>
@@ -30777,76 +30777,76 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H251" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I251" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J251" t="n">
         <v>1.09</v>
       </c>
       <c r="K251" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L251" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M251" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="N251" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="O251" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P251" t="n">
         <v>1.52</v>
       </c>
       <c r="Q251" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R251" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S251" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T251" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="U251" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V251" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W251" t="n">
         <v>37</v>
       </c>
       <c r="X251" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y251" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z251" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA251" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB251" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC251" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD251" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE251" t="n">
         <v>7.1</v>
@@ -30858,7 +30858,7 @@
         <v>9.5</v>
       </c>
       <c r="AH251" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI251" t="n">
         <v>22</v>
@@ -30911,7 +30911,7 @@
         <v>1.08</v>
       </c>
       <c r="K252" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L252" t="n">
         <v>1.37</v>
@@ -30935,31 +30935,31 @@
         <v>1.83</v>
       </c>
       <c r="S252" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T252" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U252" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V252" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W252" t="n">
         <v>23</v>
       </c>
       <c r="X252" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y252" t="n">
         <v>32</v>
       </c>
       <c r="Z252" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA252" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB252" t="n">
         <v>14.5</v>
@@ -30971,22 +30971,22 @@
         <v>600</v>
       </c>
       <c r="AE252" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF252" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG252" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH252" t="n">
         <v>40</v>
       </c>
       <c r="AI252" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ252" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253">
